--- a/raw_pareto_results.xlsx
+++ b/raw_pareto_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,10 +472,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B2" t="n">
-        <v>396.75</v>
+        <v>385</v>
       </c>
       <c r="C2" t="n">
         <v>1150</v>
@@ -484,13 +484,2451 @@
         <v>115</v>
       </c>
       <c r="E2" t="n">
-        <v>0.030566487</v>
+        <v>3.879040295</v>
       </c>
       <c r="F2" t="n">
+        <v>0.08288255999999999</v>
+      </c>
+      <c r="G2" t="n">
+        <v>10.58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>100</v>
+      </c>
+      <c r="B3" t="n">
+        <v>385.0001124891448</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1115.942355040999</v>
+      </c>
+      <c r="D3" t="n">
+        <v>115</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.883500762</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.068330187</v>
+      </c>
+      <c r="G3" t="n">
+        <v>12.833337083</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>100</v>
+      </c>
+      <c r="B4" t="n">
+        <v>385.8392105371578</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1118.374523296109</v>
+      </c>
+      <c r="D4" t="n">
+        <v>115</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3.8918873</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.068191315</v>
+      </c>
+      <c r="G4" t="n">
+        <v>12.861307018</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>100</v>
+      </c>
+      <c r="B5" t="n">
+        <v>385.8162271062691</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1118.307904655852</v>
+      </c>
+      <c r="D5" t="n">
+        <v>115</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3.891657587</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.068195111</v>
+      </c>
+      <c r="G5" t="n">
+        <v>12.860540904</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>100</v>
+      </c>
+      <c r="B6" t="n">
+        <v>386.6358488904485</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1120.683619972314</v>
+      </c>
+      <c r="D6" t="n">
+        <v>115</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3.899849509</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.06806002899999999</v>
+      </c>
+      <c r="G6" t="n">
+        <v>12.88786163</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>100</v>
+      </c>
+      <c r="B7" t="n">
+        <v>386.6785020342995</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1120.807252273331</v>
+      </c>
+      <c r="D7" t="n">
+        <v>115</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.900275818</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.06805301499999999</v>
+      </c>
+      <c r="G7" t="n">
+        <v>12.889283401</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>100</v>
+      </c>
+      <c r="B8" t="n">
+        <v>387.5177935314412</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1123.239981250554</v>
+      </c>
+      <c r="D8" t="n">
+        <v>115</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3.908664381</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.067915314</v>
+      </c>
+      <c r="G8" t="n">
+        <v>12.917259784</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>100</v>
+      </c>
+      <c r="B9" t="n">
+        <v>388.3570850285829</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1125.672710227776</v>
+      </c>
+      <c r="D9" t="n">
+        <v>115</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3.917052989</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.06777820699999999</v>
+      </c>
+      <c r="G9" t="n">
+        <v>12.945236168</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>100</v>
+      </c>
+      <c r="B10" t="n">
+        <v>390.8749595200081</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1132.970897159443</v>
+      </c>
+      <c r="D10" t="n">
+        <v>115</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3.942219081</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.067370421</v>
+      </c>
+      <c r="G10" t="n">
+        <v>13.029165317</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>100</v>
+      </c>
+      <c r="B11" t="n">
+        <v>391.7142510171498</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1135.403626136666</v>
+      </c>
+      <c r="D11" t="n">
+        <v>115</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3.950607867</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.067235657</v>
+      </c>
+      <c r="G11" t="n">
+        <v>13.057141701</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>100</v>
+      </c>
+      <c r="B12" t="n">
+        <v>393.3928305639287</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1140.269074098344</v>
+      </c>
+      <c r="D12" t="n">
+        <v>115</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3.967385534</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.06696785399999999</v>
+      </c>
+      <c r="G12" t="n">
+        <v>13.113094352</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>100</v>
+      </c>
+      <c r="B13" t="n">
+        <v>394.2321235806088</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1142.701807480025</v>
+      </c>
+      <c r="D13" t="n">
+        <v>115</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3.975774465</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.066834807</v>
+      </c>
+      <c r="G13" t="n">
+        <v>13.141070786</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>100</v>
+      </c>
+      <c r="B14" t="n">
+        <v>395.9107082910981</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1147.56727040898</v>
+      </c>
+      <c r="D14" t="n">
+        <v>115</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3.992552442</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.066570406</v>
+      </c>
+      <c r="G14" t="n">
+        <v>13.19702361</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>100</v>
+      </c>
+      <c r="B15" t="n">
+        <v>387.4589599289005</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1123.069449069277</v>
+      </c>
+      <c r="D15" t="n">
+        <v>115</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3.908076349</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.067924947</v>
+      </c>
+      <c r="G15" t="n">
+        <v>12.915298664</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>100</v>
+      </c>
+      <c r="B16" t="n">
+        <v>388.2855825595739</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1125.465456694417</v>
+      </c>
+      <c r="D16" t="n">
+        <v>115</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3.91633833</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.067789865</v>
+      </c>
+      <c r="G16" t="n">
+        <v>12.942852752</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>100</v>
+      </c>
+      <c r="B17" t="n">
+        <v>389.1157393111544</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1127.871708148273</v>
+      </c>
+      <c r="D17" t="n">
+        <v>115</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3.924635677</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.067654783</v>
+      </c>
+      <c r="G17" t="n">
+        <v>12.970524644</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>100</v>
+      </c>
+      <c r="B18" t="n">
+        <v>387.4589601062404</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1123.069449583305</v>
+      </c>
+      <c r="D18" t="n">
+        <v>115</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3.90807635</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.067924947</v>
+      </c>
+      <c r="G18" t="n">
+        <v>12.91529867</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>100</v>
+      </c>
+      <c r="B19" t="n">
+        <v>389.9494529054676</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1130.28826929121</v>
+      </c>
+      <c r="D19" t="n">
+        <v>115</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3.932968619</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.067519701</v>
+      </c>
+      <c r="G19" t="n">
+        <v>12.998315097</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>100</v>
+      </c>
+      <c r="B20" t="n">
+        <v>388.2855827214961</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1125.465457163757</v>
+      </c>
+      <c r="D20" t="n">
+        <v>115</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3.916338331</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.067789865</v>
+      </c>
+      <c r="G20" t="n">
+        <v>12.942852757</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>100</v>
+      </c>
+      <c r="B21" t="n">
+        <v>388.2855828023116</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1125.465457398004</v>
+      </c>
+      <c r="D21" t="n">
+        <v>115</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3.916338332</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.067789865</v>
+      </c>
+      <c r="G21" t="n">
+        <v>12.94285276</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>100</v>
+      </c>
+      <c r="B22" t="n">
+        <v>390.7867462594736</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1132.715206549198</v>
+      </c>
+      <c r="D22" t="n">
+        <v>115</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3.941337385</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.06738461900000001</v>
+      </c>
+      <c r="G22" t="n">
+        <v>13.026224875</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>100</v>
+      </c>
+      <c r="B23" t="n">
+        <v>389.1157394574572</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1127.871708572339</v>
+      </c>
+      <c r="D23" t="n">
+        <v>115</v>
+      </c>
+      <c r="E23" t="n">
+        <v>3.924635679</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.067654783</v>
+      </c>
+      <c r="G23" t="n">
+        <v>12.970524649</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>100</v>
+      </c>
+      <c r="B24" t="n">
+        <v>389.1157396035764</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1127.871708995873</v>
+      </c>
+      <c r="D24" t="n">
+        <v>115</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3.92463568</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.067654783</v>
+      </c>
+      <c r="G24" t="n">
+        <v>12.970524653</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>100</v>
+      </c>
+      <c r="B25" t="n">
+        <v>391.6276424873662</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1135.152586919902</v>
+      </c>
+      <c r="D25" t="n">
+        <v>115</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3.949742205</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.067249537</v>
+      </c>
+      <c r="G25" t="n">
+        <v>13.05425475</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>100</v>
+      </c>
+      <c r="B26" t="n">
+        <v>389.9494531013556</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1130.288269859002</v>
+      </c>
+      <c r="D26" t="n">
+        <v>115</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3.932968621</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.067519701</v>
+      </c>
+      <c r="G26" t="n">
+        <v>12.998315103</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>100</v>
+      </c>
+      <c r="B27" t="n">
+        <v>389.9494531665966</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1130.288270048106</v>
+      </c>
+      <c r="D27" t="n">
+        <v>115</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3.932968622</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.067519701</v>
+      </c>
+      <c r="G27" t="n">
+        <v>12.998315106</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>100</v>
+      </c>
+      <c r="B28" t="n">
+        <v>392.4721649026994</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1137.600477978839</v>
+      </c>
+      <c r="D28" t="n">
+        <v>115</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3.958183314</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.067114454</v>
+      </c>
+      <c r="G28" t="n">
+        <v>13.082405497</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>100</v>
+      </c>
+      <c r="B29" t="n">
+        <v>390.786746374355</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1132.715206882188</v>
+      </c>
+      <c r="D29" t="n">
+        <v>115</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3.941337386</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.06738461900000001</v>
+      </c>
+      <c r="G29" t="n">
+        <v>13.026224879</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>100</v>
+      </c>
+      <c r="B30" t="n">
+        <v>390.7867464890213</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1132.715207214554</v>
+      </c>
+      <c r="D30" t="n">
+        <v>115</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3.941337387</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.06738461900000001</v>
+      </c>
+      <c r="G30" t="n">
+        <v>13.026224883</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>100</v>
+      </c>
+      <c r="B31" t="n">
+        <v>393.3203370205413</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1140.058947885627</v>
+      </c>
+      <c r="D31" t="n">
+        <v>115</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3.966660946</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.066979372</v>
+      </c>
+      <c r="G31" t="n">
+        <v>13.110677901</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>100</v>
+      </c>
+      <c r="B32" t="n">
+        <v>391.6276425863778</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1135.152587206892</v>
+      </c>
+      <c r="D32" t="n">
+        <v>115</v>
+      </c>
+      <c r="E32" t="n">
+        <v>3.949742206</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.067249537</v>
+      </c>
+      <c r="G32" t="n">
+        <v>13.054254753</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>100</v>
+      </c>
+      <c r="B33" t="n">
+        <v>391.6276426851717</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1135.152587493251</v>
+      </c>
+      <c r="D33" t="n">
+        <v>115</v>
+      </c>
+      <c r="E33" t="n">
+        <v>3.949742207</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.067249537</v>
+      </c>
+      <c r="G33" t="n">
+        <v>13.054254756</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>100</v>
+      </c>
+      <c r="B34" t="n">
+        <v>391.6276428329647</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1135.152587921636</v>
+      </c>
+      <c r="D34" t="n">
+        <v>115</v>
+      </c>
+      <c r="E34" t="n">
+        <v>3.949742209</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.067249536</v>
+      </c>
+      <c r="G34" t="n">
+        <v>13.054254761</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>100</v>
+      </c>
+      <c r="B35" t="n">
+        <v>392.4721650271688</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1137.600478339619</v>
+      </c>
+      <c r="D35" t="n">
+        <v>115</v>
+      </c>
+      <c r="E35" t="n">
+        <v>3.958183315</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.067114454</v>
+      </c>
+      <c r="G35" t="n">
+        <v>13.082405501</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>100</v>
+      </c>
+      <c r="B36" t="n">
+        <v>392.4721652335217</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1137.600478937743</v>
+      </c>
+      <c r="D36" t="n">
+        <v>115</v>
+      </c>
+      <c r="E36" t="n">
+        <v>3.958183317</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.067114454</v>
+      </c>
+      <c r="G36" t="n">
+        <v>13.082405508</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>100</v>
+      </c>
+      <c r="B37" t="n">
+        <v>393.3203371542155</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1140.058948273088</v>
+      </c>
+      <c r="D37" t="n">
+        <v>115</v>
+      </c>
+      <c r="E37" t="n">
+        <v>3.966660947</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.066979372</v>
+      </c>
+      <c r="G37" t="n">
+        <v>13.110677905</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>100</v>
+      </c>
+      <c r="B38" t="n">
+        <v>393.3203372538832</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1140.05894856198</v>
+      </c>
+      <c r="D38" t="n">
+        <v>115</v>
+      </c>
+      <c r="E38" t="n">
+        <v>3.966660948</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.066979372</v>
+      </c>
+      <c r="G38" t="n">
+        <v>13.110677908</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>100</v>
+      </c>
+      <c r="B39" t="n">
+        <v>394.1721826104086</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1142.528065537416</v>
+      </c>
+      <c r="D39" t="n">
+        <v>115</v>
+      </c>
+      <c r="E39" t="n">
+        <v>3.975175339</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.06684429</v>
+      </c>
+      <c r="G39" t="n">
+        <v>13.139072754</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>100</v>
+      </c>
+      <c r="B40" t="n">
+        <v>394.1721827862685</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1142.528066047155</v>
+      </c>
+      <c r="D40" t="n">
+        <v>115</v>
+      </c>
+      <c r="E40" t="n">
+        <v>3.975175341</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.06684429</v>
+      </c>
+      <c r="G40" t="n">
+        <v>13.13907276</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>100</v>
+      </c>
+      <c r="B41" t="n">
+        <v>396.7464214946575</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1149.990279496916</v>
+      </c>
+      <c r="D41" t="n">
+        <v>114.9999347629829</v>
+      </c>
+      <c r="E41" t="n">
+        <v>4.00090572</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.066439603</v>
+      </c>
+      <c r="G41" t="n">
+        <v>13.224880712</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>100</v>
+      </c>
+      <c r="B42" t="n">
+        <v>395.0277254963007</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1145.007899989277</v>
+      </c>
+      <c r="D42" t="n">
+        <v>115</v>
+      </c>
+      <c r="E42" t="n">
+        <v>3.983726732</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.06670920800000001</v>
+      </c>
+      <c r="G42" t="n">
+        <v>13.16759085</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>100</v>
+      </c>
+      <c r="B43" t="n">
+        <v>395.0277255979357</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1145.007900283871</v>
+      </c>
+      <c r="D43" t="n">
+        <v>115</v>
+      </c>
+      <c r="E43" t="n">
+        <v>3.983726733</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.06670920800000001</v>
+      </c>
+      <c r="G43" t="n">
+        <v>13.167590853</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>100</v>
+      </c>
+      <c r="B44" t="n">
+        <v>395.027725631365</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1145.007900380768</v>
+      </c>
+      <c r="D44" t="n">
+        <v>115</v>
+      </c>
+      <c r="E44" t="n">
+        <v>3.983726734</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.06670920800000001</v>
+      </c>
+      <c r="G44" t="n">
+        <v>13.167590854</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>100</v>
+      </c>
+      <c r="B45" t="n">
+        <v>389.1963765257246</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1128.105439204999</v>
+      </c>
+      <c r="D45" t="n">
+        <v>115</v>
+      </c>
+      <c r="E45" t="n">
+        <v>3.925441642</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.067641692</v>
+      </c>
+      <c r="G45" t="n">
+        <v>12.973212551</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>100</v>
+      </c>
+      <c r="B46" t="n">
+        <v>395.8869898706364</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1147.498521364163</v>
+      </c>
+      <c r="D46" t="n">
+        <v>115</v>
+      </c>
+      <c r="E46" t="n">
+        <v>3.992315367</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.066574126</v>
+      </c>
+      <c r="G46" t="n">
+        <v>13.196232996</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>100</v>
+      </c>
+      <c r="B47" t="n">
+        <v>395.8869899132777</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1147.498521487761</v>
+      </c>
+      <c r="D47" t="n">
+        <v>115</v>
+      </c>
+      <c r="E47" t="n">
+        <v>3.992315368</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.066574126</v>
+      </c>
+      <c r="G47" t="n">
+        <v>13.196232997</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>100</v>
+      </c>
+      <c r="B48" t="n">
+        <v>390.0356680228663</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1130.538168182221</v>
+      </c>
+      <c r="D48" t="n">
+        <v>115</v>
+      </c>
+      <c r="E48" t="n">
+        <v>3.933830339</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.067505765</v>
+      </c>
+      <c r="G48" t="n">
+        <v>13.001188934</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>100</v>
+      </c>
+      <c r="B49" t="n">
+        <v>396.7469327460807</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1149.991746175139</v>
+      </c>
+      <c r="D49" t="n">
+        <v>114.9999362840991</v>
+      </c>
+      <c r="E49" t="n">
+        <v>4.00091083</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.066439523</v>
+      </c>
+      <c r="G49" t="n">
+        <v>13.224897754</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>100</v>
+      </c>
+      <c r="B50" t="n">
+        <v>396.7471883841217</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1149.992478912448</v>
+      </c>
+      <c r="D50" t="n">
+        <v>114.9999371084156</v>
+      </c>
+      <c r="E50" t="n">
+        <v>4.000913385</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.06643948299999999</v>
+      </c>
+      <c r="G50" t="n">
+        <v>13.224906275</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>100</v>
+      </c>
+      <c r="B51" t="n">
+        <v>396.7482109362788</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1149.995392759073</v>
+      </c>
+      <c r="D51" t="n">
+        <v>114.9999421159647</v>
+      </c>
+      <c r="E51" t="n">
+        <v>4.000923606</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.06643932299999999</v>
+      </c>
+      <c r="G51" t="n">
+        <v>13.22494036</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>100</v>
+      </c>
+      <c r="B52" t="n">
+        <v>396.7474440221624</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1149.993211157248</v>
+      </c>
+      <c r="D52" t="n">
+        <v>114.9999379819866</v>
+      </c>
+      <c r="E52" t="n">
+        <v>4.000915941</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.066439443</v>
+      </c>
+      <c r="G52" t="n">
+        <v>13.224914796</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>100</v>
+      </c>
+      <c r="B53" t="n">
+        <v>396.7484665743131</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1149.996110886447</v>
+      </c>
+      <c r="D53" t="n">
+        <v>114.9999444012849</v>
+      </c>
+      <c r="E53" t="n">
+        <v>4.000926161</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.066439283</v>
+      </c>
+      <c r="G53" t="n">
+        <v>13.224948881</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>100</v>
+      </c>
+      <c r="B54" t="n">
+        <v>396.748977850366</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1149.997533938493</v>
+      </c>
+      <c r="D54" t="n">
+        <v>114.999950292195</v>
+      </c>
+      <c r="E54" t="n">
+        <v>4.000931272</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.066439204</v>
+      </c>
+      <c r="G54" t="n">
+        <v>13.224965924</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>100</v>
+      </c>
+      <c r="B55" t="n">
+        <v>396.7492334883596</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1149.998225735288</v>
+      </c>
+      <c r="D55" t="n">
+        <v>114.9999552105535</v>
+      </c>
+      <c r="E55" t="n">
+        <v>4.000933827</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.066439164</v>
+      </c>
+      <c r="G55" t="n">
+        <v>13.224974445</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>100</v>
+      </c>
+      <c r="B56" t="n">
+        <v>396.7462009479572</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1149.989646270708</v>
+      </c>
+      <c r="D56" t="n">
+        <v>114.999934158975</v>
+      </c>
+      <c r="E56" t="n">
+        <v>4.000903516</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.066439637</v>
+      </c>
+      <c r="G56" t="n">
+        <v>13.224873361</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>100</v>
+      </c>
+      <c r="B57" t="n">
+        <v>392.5535425142915</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1137.836355113888</v>
+      </c>
+      <c r="D57" t="n">
+        <v>115</v>
+      </c>
+      <c r="E57" t="n">
+        <v>3.958996696</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.067101469</v>
+      </c>
+      <c r="G57" t="n">
+        <v>13.085118084</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>100</v>
+      </c>
+      <c r="B58" t="n">
+        <v>395.0714161537961</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1145.13453957622</v>
+      </c>
+      <c r="D58" t="n">
+        <v>115</v>
+      </c>
+      <c r="E58" t="n">
+        <v>3.984163434</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.06670232500000001</v>
+      </c>
+      <c r="G58" t="n">
+        <v>13.169047205</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>100</v>
+      </c>
+      <c r="B59" t="n">
+        <v>396.75</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1150</v>
+      </c>
+      <c r="D59" t="n">
+        <v>115</v>
+      </c>
+      <c r="E59" t="n">
+        <v>4.000941487</v>
+      </c>
+      <c r="F59" t="n">
         <v>0.066439044</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G59" t="n">
         <v>13.225</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>100</v>
+      </c>
+      <c r="B60" t="n">
+        <v>389.9494532317019</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1130.288270236817</v>
+      </c>
+      <c r="D60" t="n">
+        <v>115</v>
+      </c>
+      <c r="E60" t="n">
+        <v>3.932968623</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.067519701</v>
+      </c>
+      <c r="G60" t="n">
+        <v>12.998315108</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>100</v>
+      </c>
+      <c r="B61" t="n">
+        <v>390.7867466034877</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1132.715207546341</v>
+      </c>
+      <c r="D61" t="n">
+        <v>115</v>
+      </c>
+      <c r="E61" t="n">
+        <v>3.941337388</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.06738461900000001</v>
+      </c>
+      <c r="G61" t="n">
+        <v>13.026224887</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>100</v>
+      </c>
+      <c r="B62" t="n">
+        <v>391.6276427837835</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1135.152587779082</v>
+      </c>
+      <c r="D62" t="n">
+        <v>115</v>
+      </c>
+      <c r="E62" t="n">
+        <v>3.949742208</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.067249537</v>
+      </c>
+      <c r="G62" t="n">
+        <v>13.054254759</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>100</v>
+      </c>
+      <c r="B63" t="n">
+        <v>392.472165151139</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1137.600478698953</v>
+      </c>
+      <c r="D63" t="n">
+        <v>115</v>
+      </c>
+      <c r="E63" t="n">
+        <v>3.958183316</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.067114454</v>
+      </c>
+      <c r="G63" t="n">
+        <v>13.082405505</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>100</v>
+      </c>
+      <c r="B64" t="n">
+        <v>394.1721827112389</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1142.528065829678</v>
+      </c>
+      <c r="D64" t="n">
+        <v>115</v>
+      </c>
+      <c r="E64" t="n">
+        <v>3.97517534</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.06684429</v>
+      </c>
+      <c r="G64" t="n">
+        <v>13.139072757</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>100</v>
+      </c>
+      <c r="B65" t="n">
+        <v>393.3203373200595</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1140.058948753795</v>
+      </c>
+      <c r="D65" t="n">
+        <v>115</v>
+      </c>
+      <c r="E65" t="n">
+        <v>3.966660949</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.066979372</v>
+      </c>
+      <c r="G65" t="n">
+        <v>13.110677911</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>100</v>
+      </c>
+      <c r="B66" t="n">
+        <v>396.7476996602025</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1149.993942881967</v>
+      </c>
+      <c r="D66" t="n">
+        <v>114.9999389075683</v>
+      </c>
+      <c r="E66" t="n">
+        <v>4.000918496</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.06643940299999999</v>
+      </c>
+      <c r="G66" t="n">
+        <v>13.224923318</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>100</v>
+      </c>
+      <c r="B67" t="n">
+        <v>396.7479552982419</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1149.994673516617</v>
+      </c>
+      <c r="D67" t="n">
+        <v>114.9999399421595</v>
+      </c>
+      <c r="E67" t="n">
+        <v>4.000921051</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.066439363</v>
+      </c>
+      <c r="G67" t="n">
+        <v>13.224931839</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>100</v>
+      </c>
+      <c r="B68" t="n">
+        <v>396.7487222123432</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1149.996825396825</v>
+      </c>
+      <c r="D68" t="n">
+        <v>114.9999469898395</v>
+      </c>
+      <c r="E68" t="n">
+        <v>4.000928716</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.06643924399999999</v>
+      </c>
+      <c r="G68" t="n">
+        <v>13.224957403</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>100</v>
+      </c>
+      <c r="B69" t="n">
+        <v>396.7494891107847</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1149.999236473384</v>
+      </c>
+      <c r="D69" t="n">
+        <v>114.999928230386</v>
+      </c>
+      <c r="E69" t="n">
+        <v>4.000936382</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.066439124</v>
+      </c>
+      <c r="G69" t="n">
+        <v>13.224982966</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>120</v>
+      </c>
+      <c r="B70" t="n">
+        <v>390.3570678217424</v>
+      </c>
+      <c r="C70" t="n">
+        <v>942.8914681684597</v>
+      </c>
+      <c r="D70" t="n">
+        <v>115</v>
+      </c>
+      <c r="E70" t="n">
+        <v>3.947514179</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.06745385499999999</v>
+      </c>
+      <c r="G70" t="n">
+        <v>13.011902261</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>120</v>
+      </c>
+      <c r="B71" t="n">
+        <v>385.0000989867643</v>
+      </c>
+      <c r="C71" t="n">
+        <v>929.9519299197203</v>
+      </c>
+      <c r="D71" t="n">
+        <v>115</v>
+      </c>
+      <c r="E71" t="n">
+        <v>3.893965602</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.068330179</v>
+      </c>
+      <c r="G71" t="n">
+        <v>12.833336633</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>120</v>
+      </c>
+      <c r="B72" t="n">
+        <v>394.1812577050962</v>
+      </c>
+      <c r="C72" t="n">
+        <v>952.1286417997489</v>
+      </c>
+      <c r="D72" t="n">
+        <v>115</v>
+      </c>
+      <c r="E72" t="n">
+        <v>3.985742111</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.066842842</v>
+      </c>
+      <c r="G72" t="n">
+        <v>13.139375257</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>120</v>
+      </c>
+      <c r="B73" t="n">
+        <v>389.5365367232416</v>
+      </c>
+      <c r="C73" t="n">
+        <v>940.9095089933369</v>
+      </c>
+      <c r="D73" t="n">
+        <v>115</v>
+      </c>
+      <c r="E73" t="n">
+        <v>3.939311983</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.067586519</v>
+      </c>
+      <c r="G73" t="n">
+        <v>12.984551224</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>120</v>
+      </c>
+      <c r="B74" t="n">
+        <v>395.7142164508392</v>
+      </c>
+      <c r="C74" t="n">
+        <v>955.8314407025099</v>
+      </c>
+      <c r="D74" t="n">
+        <v>115</v>
+      </c>
+      <c r="E74" t="n">
+        <v>4.001066351</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.066601229</v>
+      </c>
+      <c r="G74" t="n">
+        <v>13.190473882</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>120</v>
+      </c>
+      <c r="B75" t="n">
+        <v>401.0713650799359</v>
+      </c>
+      <c r="C75" t="n">
+        <v>968.77141323656</v>
+      </c>
+      <c r="D75" t="n">
+        <v>115</v>
+      </c>
+      <c r="E75" t="n">
+        <v>4.054620248</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.065771379</v>
+      </c>
+      <c r="G75" t="n">
+        <v>13.369045503</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>120</v>
+      </c>
+      <c r="B76" t="n">
+        <v>406.4285137090327</v>
+      </c>
+      <c r="C76" t="n">
+        <v>981.7113857706101</v>
+      </c>
+      <c r="D76" t="n">
+        <v>115</v>
+      </c>
+      <c r="E76" t="n">
+        <v>4.108175803</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.064963406</v>
+      </c>
+      <c r="G76" t="n">
+        <v>13.547617124</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>120</v>
+      </c>
+      <c r="B77" t="n">
+        <v>411.7856623381294</v>
+      </c>
+      <c r="C77" t="n">
+        <v>994.6513583046601</v>
+      </c>
+      <c r="D77" t="n">
+        <v>115</v>
+      </c>
+      <c r="E77" t="n">
+        <v>4.161732951</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.06417645499999999</v>
+      </c>
+      <c r="G77" t="n">
+        <v>13.726188745</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>120</v>
+      </c>
+      <c r="B78" t="n">
+        <v>417.1428109672262</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1007.59133083871</v>
+      </c>
+      <c r="D78" t="n">
+        <v>115</v>
+      </c>
+      <c r="E78" t="n">
+        <v>4.215291631</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.063409717</v>
+      </c>
+      <c r="G78" t="n">
+        <v>13.904760366</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>120</v>
+      </c>
+      <c r="B79" t="n">
+        <v>449.2857014244269</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1085.231162860934</v>
+      </c>
+      <c r="D79" t="n">
+        <v>115</v>
+      </c>
+      <c r="E79" t="n">
+        <v>4.536672789</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.059193263</v>
+      </c>
+      <c r="G79" t="n">
+        <v>14.976190047</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>120</v>
+      </c>
+      <c r="B80" t="n">
+        <v>398.9380771857835</v>
+      </c>
+      <c r="C80" t="n">
+        <v>963.6185439270131</v>
+      </c>
+      <c r="D80" t="n">
+        <v>115</v>
+      </c>
+      <c r="E80" t="n">
+        <v>4.033294171</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.066099166</v>
+      </c>
+      <c r="G80" t="n">
+        <v>13.297935906</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>120</v>
+      </c>
+      <c r="B81" t="n">
+        <v>394.1812569221001</v>
+      </c>
+      <c r="C81" t="n">
+        <v>952.1286399084541</v>
+      </c>
+      <c r="D81" t="n">
+        <v>115</v>
+      </c>
+      <c r="E81" t="n">
+        <v>3.985742103</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.066842843</v>
+      </c>
+      <c r="G81" t="n">
+        <v>13.139375231</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>120</v>
+      </c>
+      <c r="B82" t="n">
+        <v>403.81110549649</v>
+      </c>
+      <c r="C82" t="n">
+        <v>975.3891437113282</v>
+      </c>
+      <c r="D82" t="n">
+        <v>115</v>
+      </c>
+      <c r="E82" t="n">
+        <v>4.082009302</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.065355489</v>
+      </c>
+      <c r="G82" t="n">
+        <v>13.460370183</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>120</v>
+      </c>
+      <c r="B83" t="n">
+        <v>398.9380781639437</v>
+      </c>
+      <c r="C83" t="n">
+        <v>963.6185462897188</v>
+      </c>
+      <c r="D83" t="n">
+        <v>115</v>
+      </c>
+      <c r="E83" t="n">
+        <v>4.033294181</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.066099166</v>
+      </c>
+      <c r="G83" t="n">
+        <v>13.297935939</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>120</v>
+      </c>
+      <c r="B84" t="n">
+        <v>408.804651148203</v>
+      </c>
+      <c r="C84" t="n">
+        <v>987.4508481840649</v>
+      </c>
+      <c r="D84" t="n">
+        <v>115</v>
+      </c>
+      <c r="E84" t="n">
+        <v>4.131930625</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.064611812</v>
+      </c>
+      <c r="G84" t="n">
+        <v>13.626821705</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>120</v>
+      </c>
+      <c r="B85" t="n">
+        <v>398.9380779197077</v>
+      </c>
+      <c r="C85" t="n">
+        <v>963.618545699777</v>
+      </c>
+      <c r="D85" t="n">
+        <v>115</v>
+      </c>
+      <c r="E85" t="n">
+        <v>4.033294178</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.066099166</v>
+      </c>
+      <c r="G85" t="n">
+        <v>13.297935931</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>120</v>
+      </c>
+      <c r="B86" t="n">
+        <v>413.9232421493239</v>
+      </c>
+      <c r="C86" t="n">
+        <v>999.8145945635841</v>
+      </c>
+      <c r="D86" t="n">
+        <v>115</v>
+      </c>
+      <c r="E86" t="n">
+        <v>4.183103459</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.06386813600000001</v>
+      </c>
+      <c r="G86" t="n">
+        <v>13.797441405</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>120</v>
+      </c>
+      <c r="B87" t="n">
+        <v>419.171635238777</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1012.491872557432</v>
+      </c>
+      <c r="D87" t="n">
+        <v>115</v>
+      </c>
+      <c r="E87" t="n">
+        <v>4.235575411</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.06312445899999999</v>
+      </c>
+      <c r="G87" t="n">
+        <v>13.972387841</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>120</v>
+      </c>
+      <c r="B88" t="n">
+        <v>453.6871096663411</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1095.862583735123</v>
+      </c>
+      <c r="D88" t="n">
+        <v>115</v>
+      </c>
+      <c r="E88" t="n">
+        <v>4.580683858</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.058662399</v>
+      </c>
+      <c r="G88" t="n">
+        <v>15.122903656</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>120</v>
+      </c>
+      <c r="B89" t="n">
+        <v>430.0780917460662</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1038.835970401126</v>
+      </c>
+      <c r="D89" t="n">
+        <v>115</v>
+      </c>
+      <c r="E89" t="n">
+        <v>4.344619482</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.061637106</v>
+      </c>
+      <c r="G89" t="n">
+        <v>14.335936392</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>120</v>
+      </c>
+      <c r="B90" t="n">
+        <v>454.6428510522798</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1098.171137807439</v>
+      </c>
+      <c r="D90" t="n">
+        <v>115</v>
+      </c>
+      <c r="E90" t="n">
+        <v>4.59024072</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.058548483</v>
+      </c>
+      <c r="G90" t="n">
+        <v>15.154761702</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>120</v>
+      </c>
+      <c r="B91" t="n">
+        <v>424.5548313429957</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1025.494761698057</v>
+      </c>
+      <c r="D91" t="n">
+        <v>115</v>
+      </c>
+      <c r="E91" t="n">
+        <v>4.289396533</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.062380782</v>
+      </c>
+      <c r="G91" t="n">
+        <v>14.151827711</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>120</v>
+      </c>
+      <c r="B92" t="n">
+        <v>422.4999595963229</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1020.53130337276</v>
+      </c>
+      <c r="D92" t="n">
+        <v>115</v>
+      </c>
+      <c r="E92" t="n">
+        <v>4.268851784</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.062662422</v>
+      </c>
+      <c r="G92" t="n">
+        <v>14.083331987</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>120</v>
+      </c>
+      <c r="B93" t="n">
+        <v>435.7469551075229</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1052.528877071311</v>
+      </c>
+      <c r="D93" t="n">
+        <v>115</v>
+      </c>
+      <c r="E93" t="n">
+        <v>4.401299692</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.060893429</v>
+      </c>
+      <c r="G93" t="n">
+        <v>14.524898504</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>120</v>
+      </c>
+      <c r="B94" t="n">
+        <v>460</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1111.111111111111</v>
+      </c>
+      <c r="D94" t="n">
+        <v>115</v>
+      </c>
+      <c r="E94" t="n">
+        <v>4.643809782</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.057918723</v>
+      </c>
+      <c r="G94" t="n">
+        <v>15.333333333</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>120</v>
+      </c>
+      <c r="B95" t="n">
+        <v>419.171635166277</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1012.491872382311</v>
+      </c>
+      <c r="D95" t="n">
+        <v>115</v>
+      </c>
+      <c r="E95" t="n">
+        <v>4.23557541</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.06312445899999999</v>
+      </c>
+      <c r="G95" t="n">
+        <v>13.972387839</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>120</v>
+      </c>
+      <c r="B96" t="n">
+        <v>441.5672559305755</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1066.587574711535</v>
+      </c>
+      <c r="D96" t="n">
+        <v>115</v>
+      </c>
+      <c r="E96" t="n">
+        <v>4.459495556</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.060149753</v>
+      </c>
+      <c r="G96" t="n">
+        <v>14.718908531</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>120</v>
+      </c>
+      <c r="B97" t="n">
+        <v>424.5548312785871</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1025.494761542481</v>
+      </c>
+      <c r="D97" t="n">
+        <v>115</v>
+      </c>
+      <c r="E97" t="n">
+        <v>4.289396532</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.062380782</v>
+      </c>
+      <c r="G97" t="n">
+        <v>14.151827709</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>120</v>
+      </c>
+      <c r="B98" t="n">
+        <v>435.7469550844243</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1052.528877015517</v>
+      </c>
+      <c r="D98" t="n">
+        <v>115</v>
+      </c>
+      <c r="E98" t="n">
+        <v>4.401299691</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.060893429</v>
+      </c>
+      <c r="G98" t="n">
+        <v>14.524898503</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>120</v>
+      </c>
+      <c r="B99" t="n">
+        <v>447.5451447461517</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1081.026919676695</v>
+      </c>
+      <c r="D99" t="n">
+        <v>115</v>
+      </c>
+      <c r="E99" t="n">
+        <v>4.519268633</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.059406076</v>
+      </c>
+      <c r="G99" t="n">
+        <v>14.918171492</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>120</v>
+      </c>
+      <c r="B100" t="n">
+        <v>459.9979093109744</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1111.106631943125</v>
+      </c>
+      <c r="D100" t="n">
+        <v>114.9999408880712</v>
+      </c>
+      <c r="E100" t="n">
+        <v>4.643788877</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.057918965</v>
+      </c>
+      <c r="G100" t="n">
+        <v>15.333263639</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>120</v>
+      </c>
+      <c r="B101" t="n">
+        <v>443.9285510473929</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1072.291186104814</v>
+      </c>
+      <c r="D101" t="n">
+        <v>115</v>
+      </c>
+      <c r="E101" t="n">
+        <v>4.48310603</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.059853603</v>
+      </c>
+      <c r="G101" t="n">
+        <v>14.797618368</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>120</v>
+      </c>
+      <c r="B102" t="n">
+        <v>447.5451447087339</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1081.026919586314</v>
+      </c>
+      <c r="D102" t="n">
+        <v>115</v>
+      </c>
+      <c r="E102" t="n">
+        <v>4.519268632</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.059406076</v>
+      </c>
+      <c r="G102" t="n">
+        <v>14.91817149</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>120</v>
+      </c>
+      <c r="B103" t="n">
+        <v>459.9977192118511</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1111.106172764252</v>
+      </c>
+      <c r="D103" t="n">
+        <v>114.999940888277</v>
+      </c>
+      <c r="E103" t="n">
+        <v>4.643786976</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.057918988</v>
+      </c>
+      <c r="G103" t="n">
+        <v>15.333257303</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>120</v>
+      </c>
+      <c r="B104" t="n">
+        <v>459.9975291127432</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1111.10571358574</v>
+      </c>
+      <c r="D104" t="n">
+        <v>114.9999408884496</v>
+      </c>
+      <c r="E104" t="n">
+        <v>4.643785076</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.05791901</v>
+      </c>
+      <c r="G104" t="n">
+        <v>15.333250966</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>120</v>
+      </c>
+      <c r="B105" t="n">
+        <v>433.2142568545163</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1046.41124844086</v>
+      </c>
+      <c r="D105" t="n">
+        <v>115</v>
+      </c>
+      <c r="E105" t="n">
+        <v>4.375976291</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.061223279</v>
+      </c>
+      <c r="G105" t="n">
+        <v>14.440475228</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>120</v>
+      </c>
+      <c r="B106" t="n">
+        <v>438.571405483613</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1059.351220974911</v>
+      </c>
+      <c r="D106" t="n">
+        <v>115</v>
+      </c>
+      <c r="E106" t="n">
+        <v>4.429540542</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.060530076</v>
+      </c>
+      <c r="G106" t="n">
+        <v>14.619046849</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>120</v>
+      </c>
+      <c r="B107" t="n">
+        <v>459.9973390165134</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1111.105254414444</v>
+      </c>
+      <c r="D107" t="n">
+        <v>114.9999408885959</v>
+      </c>
+      <c r="E107" t="n">
+        <v>4.643783175</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.057919032</v>
+      </c>
+      <c r="G107" t="n">
+        <v>15.333244629</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>120</v>
+      </c>
+      <c r="B108" t="n">
+        <v>427.8571082254196</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1033.47127590681</v>
+      </c>
+      <c r="D108" t="n">
+        <v>115</v>
+      </c>
+      <c r="E108" t="n">
+        <v>4.322413354</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.061933841</v>
+      </c>
+      <c r="G108" t="n">
+        <v>14.261903608</v>
       </c>
     </row>
   </sheetData>

--- a/raw_pareto_results.xlsx
+++ b/raw_pareto_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G108"/>
+  <dimension ref="A1:G247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,22 +521,22 @@
         <v>100</v>
       </c>
       <c r="B4" t="n">
-        <v>385.8392105371578</v>
+        <v>385.3936466528286</v>
       </c>
       <c r="C4" t="n">
-        <v>1118.374523296109</v>
+        <v>1117.083033776315</v>
       </c>
       <c r="D4" t="n">
         <v>115</v>
       </c>
       <c r="E4" t="n">
-        <v>3.8918873</v>
+        <v>3.887434015</v>
       </c>
       <c r="F4" t="n">
-        <v>0.068191315</v>
+        <v>0.068264981</v>
       </c>
       <c r="G4" t="n">
-        <v>12.861307018</v>
+        <v>12.846454888</v>
       </c>
     </row>
     <row r="5">
@@ -544,22 +544,22 @@
         <v>100</v>
       </c>
       <c r="B5" t="n">
-        <v>385.8162271062691</v>
+        <v>385.7880262517011</v>
       </c>
       <c r="C5" t="n">
-        <v>1118.307904655852</v>
+        <v>1118.226163048409</v>
       </c>
       <c r="D5" t="n">
         <v>115</v>
       </c>
       <c r="E5" t="n">
-        <v>3.891657587</v>
+        <v>3.891375727</v>
       </c>
       <c r="F5" t="n">
-        <v>0.068195111</v>
+        <v>0.06819976899999999</v>
       </c>
       <c r="G5" t="n">
-        <v>12.860540904</v>
+        <v>12.859600875</v>
       </c>
     </row>
     <row r="6">
@@ -567,22 +567,22 @@
         <v>100</v>
       </c>
       <c r="B6" t="n">
-        <v>386.6358488904485</v>
+        <v>386.1832136999367</v>
       </c>
       <c r="C6" t="n">
-        <v>1120.683619972314</v>
+        <v>1119.37163391286</v>
       </c>
       <c r="D6" t="n">
         <v>115</v>
       </c>
       <c r="E6" t="n">
-        <v>3.899849509</v>
+        <v>3.895325524</v>
       </c>
       <c r="F6" t="n">
-        <v>0.06806002899999999</v>
+        <v>0.068134557</v>
       </c>
       <c r="G6" t="n">
-        <v>12.88786163</v>
+        <v>12.87277379</v>
       </c>
     </row>
     <row r="7">
@@ -590,22 +590,22 @@
         <v>100</v>
       </c>
       <c r="B7" t="n">
-        <v>386.6785020342995</v>
+        <v>386.2154446565661</v>
       </c>
       <c r="C7" t="n">
-        <v>1120.807252273331</v>
+        <v>1119.465056975554</v>
       </c>
       <c r="D7" t="n">
         <v>115</v>
       </c>
       <c r="E7" t="n">
-        <v>3.900275818</v>
+        <v>3.895647665</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06805301499999999</v>
+        <v>0.06812924400000001</v>
       </c>
       <c r="G7" t="n">
-        <v>12.889283401</v>
+        <v>12.873848155</v>
       </c>
     </row>
     <row r="8">
@@ -613,22 +613,22 @@
         <v>100</v>
       </c>
       <c r="B8" t="n">
-        <v>387.5177935314412</v>
+        <v>387.0257950675995</v>
       </c>
       <c r="C8" t="n">
-        <v>1123.239981250554</v>
+        <v>1121.813898746665</v>
       </c>
       <c r="D8" t="n">
         <v>115</v>
       </c>
       <c r="E8" t="n">
-        <v>3.908664381</v>
+        <v>3.903746942</v>
       </c>
       <c r="F8" t="n">
-        <v>0.067915314</v>
+        <v>0.06799596300000001</v>
       </c>
       <c r="G8" t="n">
-        <v>12.917259784</v>
+        <v>12.900859836</v>
       </c>
     </row>
     <row r="9">
@@ -636,22 +636,22 @@
         <v>100</v>
       </c>
       <c r="B9" t="n">
-        <v>388.3570850285829</v>
+        <v>387.8361454786329</v>
       </c>
       <c r="C9" t="n">
-        <v>1125.672710227776</v>
+        <v>1124.162740517776</v>
       </c>
       <c r="D9" t="n">
         <v>115</v>
       </c>
       <c r="E9" t="n">
-        <v>3.917052989</v>
+        <v>3.911846262</v>
       </c>
       <c r="F9" t="n">
-        <v>0.06777820699999999</v>
+        <v>0.06786323800000001</v>
       </c>
       <c r="G9" t="n">
-        <v>12.945236168</v>
+        <v>12.927871516</v>
       </c>
     </row>
     <row r="10">
@@ -659,22 +659,22 @@
         <v>100</v>
       </c>
       <c r="B10" t="n">
-        <v>390.8749595200081</v>
+        <v>395.5344739381424</v>
       </c>
       <c r="C10" t="n">
-        <v>1132.970897159443</v>
+        <v>1146.476736052586</v>
       </c>
       <c r="D10" t="n">
         <v>115</v>
       </c>
       <c r="E10" t="n">
-        <v>3.942219081</v>
+        <v>3.988791847</v>
       </c>
       <c r="F10" t="n">
-        <v>0.067370421</v>
+        <v>0.06662947299999999</v>
       </c>
       <c r="G10" t="n">
-        <v>13.029165317</v>
+        <v>13.184482465</v>
       </c>
     </row>
     <row r="11">
@@ -682,22 +682,22 @@
         <v>100</v>
       </c>
       <c r="B11" t="n">
-        <v>391.7142510171498</v>
+        <v>386.5792114833259</v>
       </c>
       <c r="C11" t="n">
-        <v>1135.403626136666</v>
+        <v>1120.519453574857</v>
       </c>
       <c r="D11" t="n">
         <v>115</v>
       </c>
       <c r="E11" t="n">
-        <v>3.950607867</v>
+        <v>3.89928343</v>
       </c>
       <c r="F11" t="n">
-        <v>0.067235657</v>
+        <v>0.068069345</v>
       </c>
       <c r="G11" t="n">
-        <v>13.057141701</v>
+        <v>12.885973716</v>
       </c>
     </row>
     <row r="12">
@@ -705,22 +705,22 @@
         <v>100</v>
       </c>
       <c r="B12" t="n">
-        <v>393.3928305639287</v>
+        <v>386.9760220976577</v>
       </c>
       <c r="C12" t="n">
-        <v>1140.269074098344</v>
+        <v>1121.669629268573</v>
       </c>
       <c r="D12" t="n">
         <v>115</v>
       </c>
       <c r="E12" t="n">
-        <v>3.967385534</v>
+        <v>3.903249471</v>
       </c>
       <c r="F12" t="n">
-        <v>0.06696785399999999</v>
+        <v>0.06800413299999999</v>
       </c>
       <c r="G12" t="n">
-        <v>13.113094352</v>
+        <v>12.899200737</v>
       </c>
     </row>
     <row r="13">
@@ -728,22 +728,22 @@
         <v>100</v>
       </c>
       <c r="B13" t="n">
-        <v>394.2321235806088</v>
+        <v>387.3736480493271</v>
       </c>
       <c r="C13" t="n">
-        <v>1142.701807480025</v>
+        <v>1122.822168258919</v>
       </c>
       <c r="D13" t="n">
         <v>115</v>
       </c>
       <c r="E13" t="n">
-        <v>3.975774465</v>
+        <v>3.90722367</v>
       </c>
       <c r="F13" t="n">
-        <v>0.066834807</v>
+        <v>0.067938921</v>
       </c>
       <c r="G13" t="n">
-        <v>13.141070786</v>
+        <v>12.912454935</v>
       </c>
     </row>
     <row r="14">
@@ -751,22 +751,22 @@
         <v>100</v>
       </c>
       <c r="B14" t="n">
-        <v>395.9107082910981</v>
+        <v>387.7720918547699</v>
       </c>
       <c r="C14" t="n">
-        <v>1147.56727040898</v>
+        <v>1123.977077839912</v>
       </c>
       <c r="D14" t="n">
         <v>115</v>
       </c>
       <c r="E14" t="n">
-        <v>3.992552442</v>
+        <v>3.911206055</v>
       </c>
       <c r="F14" t="n">
-        <v>0.066570406</v>
+        <v>0.067873709</v>
       </c>
       <c r="G14" t="n">
-        <v>13.19702361</v>
+        <v>12.925736395</v>
       </c>
     </row>
     <row r="15">
@@ -774,22 +774,22 @@
         <v>100</v>
       </c>
       <c r="B15" t="n">
-        <v>387.4589599289005</v>
+        <v>386.5792115937114</v>
       </c>
       <c r="C15" t="n">
-        <v>1123.069449069277</v>
+        <v>1120.519453894815</v>
       </c>
       <c r="D15" t="n">
         <v>115</v>
       </c>
       <c r="E15" t="n">
-        <v>3.908076349</v>
+        <v>3.899283431</v>
       </c>
       <c r="F15" t="n">
-        <v>0.067924947</v>
+        <v>0.068069345</v>
       </c>
       <c r="G15" t="n">
-        <v>12.915298664</v>
+        <v>12.88597372</v>
       </c>
     </row>
     <row r="16">
@@ -797,22 +797,22 @@
         <v>100</v>
       </c>
       <c r="B16" t="n">
-        <v>388.2855825595739</v>
+        <v>388.1713560408616</v>
       </c>
       <c r="C16" t="n">
-        <v>1125.465456694417</v>
+        <v>1125.134365335831</v>
       </c>
       <c r="D16" t="n">
         <v>115</v>
       </c>
       <c r="E16" t="n">
-        <v>3.91633833</v>
+        <v>3.915196648</v>
       </c>
       <c r="F16" t="n">
-        <v>0.067789865</v>
+        <v>0.067808497</v>
       </c>
       <c r="G16" t="n">
-        <v>12.942852752</v>
+        <v>12.939045201</v>
       </c>
     </row>
     <row r="17">
@@ -820,22 +820,22 @@
         <v>100</v>
       </c>
       <c r="B17" t="n">
-        <v>389.1157393111544</v>
+        <v>386.9760222039484</v>
       </c>
       <c r="C17" t="n">
-        <v>1127.871708148273</v>
+        <v>1121.669629576662</v>
       </c>
       <c r="D17" t="n">
         <v>115</v>
       </c>
       <c r="E17" t="n">
-        <v>3.924635677</v>
+        <v>3.903249472</v>
       </c>
       <c r="F17" t="n">
-        <v>0.067654783</v>
+        <v>0.06800413299999999</v>
       </c>
       <c r="G17" t="n">
-        <v>12.970524644</v>
+        <v>12.89920074</v>
       </c>
     </row>
     <row r="18">
@@ -843,22 +843,22 @@
         <v>100</v>
       </c>
       <c r="B18" t="n">
-        <v>387.4589601062404</v>
+        <v>388.571443144895</v>
       </c>
       <c r="C18" t="n">
-        <v>1123.069449583305</v>
+        <v>1126.294038101145</v>
       </c>
       <c r="D18" t="n">
         <v>115</v>
       </c>
       <c r="E18" t="n">
-        <v>3.90807635</v>
+        <v>3.919195477</v>
       </c>
       <c r="F18" t="n">
-        <v>0.067924947</v>
+        <v>0.067743285</v>
       </c>
       <c r="G18" t="n">
-        <v>12.91529867</v>
+        <v>12.952381438</v>
       </c>
     </row>
     <row r="19">
@@ -866,22 +866,22 @@
         <v>100</v>
       </c>
       <c r="B19" t="n">
-        <v>389.9494529054676</v>
+        <v>387.3736481514169</v>
       </c>
       <c r="C19" t="n">
-        <v>1130.28826929121</v>
+        <v>1122.822168554831</v>
       </c>
       <c r="D19" t="n">
         <v>115</v>
       </c>
       <c r="E19" t="n">
-        <v>3.932968619</v>
+        <v>3.907223671</v>
       </c>
       <c r="F19" t="n">
-        <v>0.067519701</v>
+        <v>0.067938921</v>
       </c>
       <c r="G19" t="n">
-        <v>12.998315097</v>
+        <v>12.912454938</v>
       </c>
     </row>
     <row r="20">
@@ -889,22 +889,22 @@
         <v>100</v>
       </c>
       <c r="B20" t="n">
-        <v>388.2855827214961</v>
+        <v>387.3736482652351</v>
       </c>
       <c r="C20" t="n">
-        <v>1125.465457163757</v>
+        <v>1122.822168884739</v>
       </c>
       <c r="D20" t="n">
         <v>115</v>
       </c>
       <c r="E20" t="n">
-        <v>3.916338331</v>
+        <v>3.907223673</v>
       </c>
       <c r="F20" t="n">
-        <v>0.067789865</v>
+        <v>0.067938921</v>
       </c>
       <c r="G20" t="n">
-        <v>12.942852757</v>
+        <v>12.912454942</v>
       </c>
     </row>
     <row r="21">
@@ -912,22 +912,22 @@
         <v>100</v>
       </c>
       <c r="B21" t="n">
-        <v>388.2855828023116</v>
+        <v>388.9723557146328</v>
       </c>
       <c r="C21" t="n">
-        <v>1125.465457398004</v>
+        <v>1127.456103520674</v>
       </c>
       <c r="D21" t="n">
         <v>115</v>
       </c>
       <c r="E21" t="n">
-        <v>3.916338332</v>
+        <v>3.923202567</v>
       </c>
       <c r="F21" t="n">
-        <v>0.067789865</v>
+        <v>0.06767807300000001</v>
       </c>
       <c r="G21" t="n">
-        <v>12.94285276</v>
+        <v>12.96574519</v>
       </c>
     </row>
     <row r="22">
@@ -935,22 +935,22 @@
         <v>100</v>
       </c>
       <c r="B22" t="n">
-        <v>390.7867462594736</v>
+        <v>389.374096308363</v>
       </c>
       <c r="C22" t="n">
-        <v>1132.715206549198</v>
+        <v>1128.620569009747</v>
       </c>
       <c r="D22" t="n">
         <v>115</v>
       </c>
       <c r="E22" t="n">
-        <v>3.941337385</v>
+        <v>3.927217943</v>
       </c>
       <c r="F22" t="n">
-        <v>0.06738461900000001</v>
+        <v>0.067612861</v>
       </c>
       <c r="G22" t="n">
-        <v>13.026224875</v>
+        <v>12.979136544</v>
       </c>
     </row>
     <row r="23">
@@ -958,22 +958,22 @@
         <v>100</v>
       </c>
       <c r="B23" t="n">
-        <v>389.1157394574572</v>
+        <v>388.171356134465</v>
       </c>
       <c r="C23" t="n">
-        <v>1127.871708572339</v>
+        <v>1125.134365607145</v>
       </c>
       <c r="D23" t="n">
         <v>115</v>
       </c>
       <c r="E23" t="n">
-        <v>3.924635679</v>
+        <v>3.915196649</v>
       </c>
       <c r="F23" t="n">
-        <v>0.067654783</v>
+        <v>0.067808497</v>
       </c>
       <c r="G23" t="n">
-        <v>12.970524649</v>
+        <v>12.939045204</v>
       </c>
     </row>
     <row r="24">
@@ -981,22 +981,22 @@
         <v>100</v>
       </c>
       <c r="B24" t="n">
-        <v>389.1157396035764</v>
+        <v>388.1713562387909</v>
       </c>
       <c r="C24" t="n">
-        <v>1127.871708995873</v>
+        <v>1125.134365909539</v>
       </c>
       <c r="D24" t="n">
         <v>115</v>
       </c>
       <c r="E24" t="n">
-        <v>3.92463568</v>
+        <v>3.91519665</v>
       </c>
       <c r="F24" t="n">
-        <v>0.067654783</v>
+        <v>0.067808497</v>
       </c>
       <c r="G24" t="n">
-        <v>12.970524653</v>
+        <v>12.939045208</v>
       </c>
     </row>
     <row r="25">
@@ -1004,22 +1004,22 @@
         <v>100</v>
       </c>
       <c r="B25" t="n">
-        <v>391.6276424873662</v>
+        <v>388.1713563178518</v>
       </c>
       <c r="C25" t="n">
-        <v>1135.152586919902</v>
+        <v>1125.1343661387</v>
       </c>
       <c r="D25" t="n">
         <v>115</v>
       </c>
       <c r="E25" t="n">
-        <v>3.949742205</v>
+        <v>3.915196651</v>
       </c>
       <c r="F25" t="n">
-        <v>0.067249537</v>
+        <v>0.067808497</v>
       </c>
       <c r="G25" t="n">
-        <v>13.05425475</v>
+        <v>12.939045211</v>
       </c>
     </row>
     <row r="26">
@@ -1027,22 +1027,22 @@
         <v>100</v>
       </c>
       <c r="B26" t="n">
-        <v>389.9494531013556</v>
+        <v>389.7766674949523</v>
       </c>
       <c r="C26" t="n">
-        <v>1130.288269859002</v>
+        <v>1129.787442014354</v>
       </c>
       <c r="D26" t="n">
         <v>115</v>
       </c>
       <c r="E26" t="n">
-        <v>3.932968621</v>
+        <v>3.931241631</v>
       </c>
       <c r="F26" t="n">
-        <v>0.067519701</v>
+        <v>0.067547649</v>
       </c>
       <c r="G26" t="n">
-        <v>12.998315103</v>
+        <v>12.992555583</v>
       </c>
     </row>
     <row r="27">
@@ -1050,22 +1050,22 @@
         <v>100</v>
       </c>
       <c r="B27" t="n">
-        <v>389.9494531665966</v>
+        <v>388.5714432342461</v>
       </c>
       <c r="C27" t="n">
-        <v>1130.288270048106</v>
+        <v>1126.294038360134</v>
       </c>
       <c r="D27" t="n">
         <v>115</v>
       </c>
       <c r="E27" t="n">
-        <v>3.932968622</v>
+        <v>3.919195478</v>
       </c>
       <c r="F27" t="n">
-        <v>0.067519701</v>
+        <v>0.067743285</v>
       </c>
       <c r="G27" t="n">
-        <v>12.998315106</v>
+        <v>12.952381441</v>
       </c>
     </row>
     <row r="28">
@@ -1073,22 +1073,22 @@
         <v>100</v>
       </c>
       <c r="B28" t="n">
-        <v>392.4721649026994</v>
+        <v>388.571443333816</v>
       </c>
       <c r="C28" t="n">
-        <v>1137.600477978839</v>
+        <v>1126.294038648742</v>
       </c>
       <c r="D28" t="n">
         <v>115</v>
       </c>
       <c r="E28" t="n">
-        <v>3.958183314</v>
+        <v>3.919195479</v>
       </c>
       <c r="F28" t="n">
-        <v>0.067114454</v>
+        <v>0.067743285</v>
       </c>
       <c r="G28" t="n">
-        <v>13.082405497</v>
+        <v>12.952381444</v>
       </c>
     </row>
     <row r="29">
@@ -1096,22 +1096,22 @@
         <v>100</v>
       </c>
       <c r="B29" t="n">
-        <v>390.786746374355</v>
+        <v>388.9723557997145</v>
       </c>
       <c r="C29" t="n">
-        <v>1132.715206882188</v>
+        <v>1127.456103767288</v>
       </c>
       <c r="D29" t="n">
         <v>115</v>
       </c>
       <c r="E29" t="n">
-        <v>3.941337386</v>
+        <v>3.923202568</v>
       </c>
       <c r="F29" t="n">
-        <v>0.06738461900000001</v>
+        <v>0.06767807300000001</v>
       </c>
       <c r="G29" t="n">
-        <v>13.026224879</v>
+        <v>12.965745193</v>
       </c>
     </row>
     <row r="30">
@@ -1119,22 +1119,22 @@
         <v>100</v>
       </c>
       <c r="B30" t="n">
-        <v>390.7867464890213</v>
+        <v>390.5843119753985</v>
       </c>
       <c r="C30" t="n">
-        <v>1132.715207214554</v>
+        <v>1132.128440508401</v>
       </c>
       <c r="D30" t="n">
         <v>115</v>
       </c>
       <c r="E30" t="n">
-        <v>3.941337387</v>
+        <v>3.939314046</v>
       </c>
       <c r="F30" t="n">
-        <v>0.06738461900000001</v>
+        <v>0.067417225</v>
       </c>
       <c r="G30" t="n">
-        <v>13.026224883</v>
+        <v>13.019477066</v>
       </c>
     </row>
     <row r="31">
@@ -1142,22 +1142,22 @@
         <v>100</v>
       </c>
       <c r="B31" t="n">
-        <v>393.3203370205413</v>
+        <v>389.3740965473052</v>
       </c>
       <c r="C31" t="n">
-        <v>1140.058947885627</v>
+        <v>1128.620569702333</v>
       </c>
       <c r="D31" t="n">
         <v>115</v>
       </c>
       <c r="E31" t="n">
-        <v>3.966660946</v>
+        <v>3.927217945</v>
       </c>
       <c r="F31" t="n">
-        <v>0.066979372</v>
+        <v>0.067612861</v>
       </c>
       <c r="G31" t="n">
-        <v>13.110677901</v>
+        <v>12.979136552</v>
       </c>
     </row>
     <row r="32">
@@ -1165,22 +1165,22 @@
         <v>100</v>
       </c>
       <c r="B32" t="n">
-        <v>391.6276425863778</v>
+        <v>390.1800719260695</v>
       </c>
       <c r="C32" t="n">
-        <v>1135.152587206892</v>
+        <v>1130.956730220491</v>
       </c>
       <c r="D32" t="n">
         <v>115</v>
       </c>
       <c r="E32" t="n">
-        <v>3.949742206</v>
+        <v>3.935273657</v>
       </c>
       <c r="F32" t="n">
-        <v>0.067249537</v>
+        <v>0.06748243700000001</v>
       </c>
       <c r="G32" t="n">
-        <v>13.054254753</v>
+        <v>13.006002398</v>
       </c>
     </row>
     <row r="33">
@@ -1188,22 +1188,22 @@
         <v>100</v>
       </c>
       <c r="B33" t="n">
-        <v>391.6276426851717</v>
+        <v>390.5843121186259</v>
       </c>
       <c r="C33" t="n">
-        <v>1135.152587493251</v>
+        <v>1132.128440923553</v>
       </c>
       <c r="D33" t="n">
         <v>115</v>
       </c>
       <c r="E33" t="n">
-        <v>3.949742207</v>
+        <v>3.939314047</v>
       </c>
       <c r="F33" t="n">
-        <v>0.067249537</v>
+        <v>0.067417225</v>
       </c>
       <c r="G33" t="n">
-        <v>13.054254756</v>
+        <v>13.019477071</v>
       </c>
     </row>
     <row r="34">
@@ -1211,22 +1211,22 @@
         <v>100</v>
       </c>
       <c r="B34" t="n">
-        <v>391.6276428329647</v>
+        <v>392.2096822678877</v>
       </c>
       <c r="C34" t="n">
-        <v>1135.152587921636</v>
+        <v>1136.8396587475</v>
       </c>
       <c r="D34" t="n">
         <v>115</v>
       </c>
       <c r="E34" t="n">
-        <v>3.949742209</v>
+        <v>3.955559762</v>
       </c>
       <c r="F34" t="n">
-        <v>0.067249536</v>
+        <v>0.067156376</v>
       </c>
       <c r="G34" t="n">
-        <v>13.054254761</v>
+        <v>13.073656076</v>
       </c>
     </row>
     <row r="35">
@@ -1234,22 +1234,22 @@
         <v>100</v>
       </c>
       <c r="B35" t="n">
-        <v>392.4721650271688</v>
+        <v>390.9893905238505</v>
       </c>
       <c r="C35" t="n">
-        <v>1137.600478339619</v>
+        <v>1133.302581228552</v>
       </c>
       <c r="D35" t="n">
         <v>115</v>
       </c>
       <c r="E35" t="n">
-        <v>3.958183315</v>
+        <v>3.943362825</v>
       </c>
       <c r="F35" t="n">
-        <v>0.067114454</v>
+        <v>0.067352013</v>
       </c>
       <c r="G35" t="n">
-        <v>13.082405501</v>
+        <v>13.032979684</v>
       </c>
     </row>
     <row r="36">
@@ -1257,22 +1257,22 @@
         <v>100</v>
       </c>
       <c r="B36" t="n">
-        <v>392.4721652335217</v>
+        <v>392.6181404329789</v>
       </c>
       <c r="C36" t="n">
-        <v>1137.600478937743</v>
+        <v>1138.023595457909</v>
       </c>
       <c r="D36" t="n">
         <v>115</v>
       </c>
       <c r="E36" t="n">
-        <v>3.958183317</v>
+        <v>3.959642362</v>
       </c>
       <c r="F36" t="n">
-        <v>0.067114454</v>
+        <v>0.06709116399999999</v>
       </c>
       <c r="G36" t="n">
-        <v>13.082405508</v>
+        <v>13.087271348</v>
       </c>
     </row>
     <row r="37">
@@ -1280,22 +1280,22 @@
         <v>100</v>
       </c>
       <c r="B37" t="n">
-        <v>393.3203371542155</v>
+        <v>391.3953099796717</v>
       </c>
       <c r="C37" t="n">
-        <v>1140.058948273088</v>
+        <v>1134.479159361367</v>
       </c>
       <c r="D37" t="n">
         <v>115</v>
       </c>
       <c r="E37" t="n">
-        <v>3.966660947</v>
+        <v>3.94742002</v>
       </c>
       <c r="F37" t="n">
-        <v>0.066979372</v>
+        <v>0.06728680099999999</v>
       </c>
       <c r="G37" t="n">
-        <v>13.110677905</v>
+        <v>13.046510333</v>
       </c>
     </row>
     <row r="38">
@@ -1303,22 +1303,22 @@
         <v>100</v>
       </c>
       <c r="B38" t="n">
-        <v>393.3203372538832</v>
+        <v>391.3953100951593</v>
       </c>
       <c r="C38" t="n">
-        <v>1140.05894856198</v>
+        <v>1134.479159696114</v>
       </c>
       <c r="D38" t="n">
         <v>115</v>
       </c>
       <c r="E38" t="n">
-        <v>3.966660948</v>
+        <v>3.947420021</v>
       </c>
       <c r="F38" t="n">
-        <v>0.066979372</v>
+        <v>0.06728680099999999</v>
       </c>
       <c r="G38" t="n">
-        <v>13.110677908</v>
+        <v>13.046510337</v>
       </c>
     </row>
     <row r="39">
@@ -1326,22 +1326,22 @@
         <v>100</v>
       </c>
       <c r="B39" t="n">
-        <v>394.1721826104086</v>
+        <v>393.0274501293491</v>
       </c>
       <c r="C39" t="n">
-        <v>1142.528065537416</v>
+        <v>1139.210000374924</v>
       </c>
       <c r="D39" t="n">
         <v>115</v>
       </c>
       <c r="E39" t="n">
-        <v>3.975175339</v>
+        <v>3.963733484</v>
       </c>
       <c r="F39" t="n">
-        <v>0.06684429</v>
+        <v>0.067025952</v>
       </c>
       <c r="G39" t="n">
-        <v>13.139072754</v>
+        <v>13.100915004</v>
       </c>
     </row>
     <row r="40">
@@ -1349,22 +1349,22 @@
         <v>100</v>
       </c>
       <c r="B40" t="n">
-        <v>394.1721827862685</v>
+        <v>391.8020730332809</v>
       </c>
       <c r="C40" t="n">
-        <v>1142.528066047155</v>
+        <v>1135.658182705162</v>
       </c>
       <c r="D40" t="n">
         <v>115</v>
       </c>
       <c r="E40" t="n">
-        <v>3.975175341</v>
+        <v>3.951485657</v>
       </c>
       <c r="F40" t="n">
-        <v>0.06684429</v>
+        <v>0.067221589</v>
       </c>
       <c r="G40" t="n">
-        <v>13.13907276</v>
+        <v>13.060069101</v>
       </c>
     </row>
     <row r="41">
@@ -1372,22 +1372,22 @@
         <v>100</v>
       </c>
       <c r="B41" t="n">
-        <v>396.7464214946575</v>
+        <v>391.8020731632096</v>
       </c>
       <c r="C41" t="n">
-        <v>1149.990279496916</v>
+        <v>1135.658183081767</v>
       </c>
       <c r="D41" t="n">
-        <v>114.9999347629829</v>
+        <v>115</v>
       </c>
       <c r="E41" t="n">
-        <v>4.00090572</v>
+        <v>3.951485658</v>
       </c>
       <c r="F41" t="n">
-        <v>0.066439603</v>
+        <v>0.067221588</v>
       </c>
       <c r="G41" t="n">
-        <v>13.224880712</v>
+        <v>13.060069105</v>
       </c>
     </row>
     <row r="42">
@@ -1395,22 +1395,22 @@
         <v>100</v>
       </c>
       <c r="B42" t="n">
-        <v>395.0277254963007</v>
+        <v>393.0274502342882</v>
       </c>
       <c r="C42" t="n">
-        <v>1145.007899989277</v>
+        <v>1139.210000679096</v>
       </c>
       <c r="D42" t="n">
         <v>115</v>
       </c>
       <c r="E42" t="n">
-        <v>3.983726732</v>
+        <v>3.963733485</v>
       </c>
       <c r="F42" t="n">
-        <v>0.06670920800000001</v>
+        <v>0.067025952</v>
       </c>
       <c r="G42" t="n">
-        <v>13.16759085</v>
+        <v>13.100915008</v>
       </c>
     </row>
     <row r="43">
@@ -1418,22 +1418,22 @@
         <v>100</v>
       </c>
       <c r="B43" t="n">
-        <v>395.0277255979357</v>
+        <v>394.6732577267563</v>
       </c>
       <c r="C43" t="n">
-        <v>1145.007900283871</v>
+        <v>1143.980457179003</v>
       </c>
       <c r="D43" t="n">
         <v>115</v>
       </c>
       <c r="E43" t="n">
-        <v>3.983726733</v>
+        <v>3.980183721</v>
       </c>
       <c r="F43" t="n">
-        <v>0.06670920800000001</v>
+        <v>0.06676510400000001</v>
       </c>
       <c r="G43" t="n">
-        <v>13.167590853</v>
+        <v>13.155775258</v>
       </c>
     </row>
     <row r="44">
@@ -1441,22 +1441,22 @@
         <v>100</v>
       </c>
       <c r="B44" t="n">
-        <v>395.027725631365</v>
+        <v>393.4376140605314</v>
       </c>
       <c r="C44" t="n">
-        <v>1145.007900380768</v>
+        <v>1140.398881334873</v>
       </c>
       <c r="D44" t="n">
         <v>115</v>
       </c>
       <c r="E44" t="n">
-        <v>3.983726734</v>
+        <v>3.967833154</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06670920800000001</v>
+        <v>0.06696074</v>
       </c>
       <c r="G44" t="n">
-        <v>13.167590854</v>
+        <v>13.114587135</v>
       </c>
     </row>
     <row r="45">
@@ -1464,22 +1464,22 @@
         <v>100</v>
       </c>
       <c r="B45" t="n">
-        <v>389.1963765257246</v>
+        <v>395.0868653019809</v>
       </c>
       <c r="C45" t="n">
-        <v>1128.105439204999</v>
+        <v>1145.179319715886</v>
       </c>
       <c r="D45" t="n">
         <v>115</v>
       </c>
       <c r="E45" t="n">
-        <v>3.925441642</v>
+        <v>3.984317853</v>
       </c>
       <c r="F45" t="n">
-        <v>0.067641692</v>
+        <v>0.066699892</v>
       </c>
       <c r="G45" t="n">
-        <v>12.973212551</v>
+        <v>13.169562177</v>
       </c>
     </row>
     <row r="46">
@@ -1487,22 +1487,22 @@
         <v>100</v>
       </c>
       <c r="B46" t="n">
-        <v>395.8869898706364</v>
+        <v>393.8486348258659</v>
       </c>
       <c r="C46" t="n">
-        <v>1147.498521364163</v>
+        <v>1141.590245872075</v>
       </c>
       <c r="D46" t="n">
         <v>115</v>
       </c>
       <c r="E46" t="n">
-        <v>3.992315367</v>
+        <v>3.971941399</v>
       </c>
       <c r="F46" t="n">
-        <v>0.066574126</v>
+        <v>0.066895528</v>
       </c>
       <c r="G46" t="n">
-        <v>13.196232996</v>
+        <v>13.128287828</v>
       </c>
     </row>
     <row r="47">
@@ -1510,22 +1510,22 @@
         <v>100</v>
       </c>
       <c r="B47" t="n">
-        <v>395.8869899132777</v>
+        <v>394.2605151751117</v>
       </c>
       <c r="C47" t="n">
-        <v>1147.498521487761</v>
+        <v>1142.784101956845</v>
       </c>
       <c r="D47" t="n">
         <v>115</v>
       </c>
       <c r="E47" t="n">
-        <v>3.992315368</v>
+        <v>3.976058246</v>
       </c>
       <c r="F47" t="n">
-        <v>0.066574126</v>
+        <v>0.066830316</v>
       </c>
       <c r="G47" t="n">
-        <v>13.196232997</v>
+        <v>13.142017173</v>
       </c>
     </row>
     <row r="48">
@@ -1533,22 +1533,22 @@
         <v>100</v>
       </c>
       <c r="B48" t="n">
-        <v>390.0356680228663</v>
+        <v>396.7464214946575</v>
       </c>
       <c r="C48" t="n">
-        <v>1130.538168182221</v>
+        <v>1149.990279496916</v>
       </c>
       <c r="D48" t="n">
-        <v>115</v>
+        <v>114.9999347629829</v>
       </c>
       <c r="E48" t="n">
-        <v>3.933830339</v>
+        <v>4.00090572</v>
       </c>
       <c r="F48" t="n">
-        <v>0.067505765</v>
+        <v>0.066439603</v>
       </c>
       <c r="G48" t="n">
-        <v>13.001188934</v>
+        <v>13.224880712</v>
       </c>
     </row>
     <row r="49">
@@ -1556,22 +1556,22 @@
         <v>100</v>
       </c>
       <c r="B49" t="n">
-        <v>396.7469327460807</v>
+        <v>395.5013406008109</v>
       </c>
       <c r="C49" t="n">
-        <v>1149.991746175139</v>
+        <v>1146.380697393654</v>
       </c>
       <c r="D49" t="n">
-        <v>114.9999362840991</v>
+        <v>115</v>
       </c>
       <c r="E49" t="n">
-        <v>4.00091083</v>
+        <v>3.988460668</v>
       </c>
       <c r="F49" t="n">
-        <v>0.066439523</v>
+        <v>0.06663468</v>
       </c>
       <c r="G49" t="n">
-        <v>13.224897754</v>
+        <v>13.18337802</v>
       </c>
     </row>
     <row r="50">
@@ -1579,22 +1579,22 @@
         <v>100</v>
       </c>
       <c r="B50" t="n">
-        <v>396.7471883841217</v>
+        <v>385.4050942455327</v>
       </c>
       <c r="C50" t="n">
-        <v>1149.992478912448</v>
+        <v>1117.116215204442</v>
       </c>
       <c r="D50" t="n">
-        <v>114.9999371084156</v>
+        <v>115</v>
       </c>
       <c r="E50" t="n">
-        <v>4.000913385</v>
+        <v>3.88754843</v>
       </c>
       <c r="F50" t="n">
-        <v>0.06643948299999999</v>
+        <v>0.068263086</v>
       </c>
       <c r="G50" t="n">
-        <v>13.224906275</v>
+        <v>12.846836475</v>
       </c>
     </row>
     <row r="51">
@@ -1602,22 +1602,22 @@
         <v>100</v>
       </c>
       <c r="B51" t="n">
-        <v>396.7482109362788</v>
+        <v>395.9166863858625</v>
       </c>
       <c r="C51" t="n">
-        <v>1149.995392759073</v>
+        <v>1147.584598219891</v>
       </c>
       <c r="D51" t="n">
-        <v>114.9999421159647</v>
+        <v>115</v>
       </c>
       <c r="E51" t="n">
-        <v>4.000923606</v>
+        <v>3.992612195</v>
       </c>
       <c r="F51" t="n">
-        <v>0.06643932299999999</v>
+        <v>0.06656946800000001</v>
       </c>
       <c r="G51" t="n">
-        <v>13.22494036</v>
+        <v>13.19722288</v>
       </c>
     </row>
     <row r="52">
@@ -1625,22 +1625,22 @@
         <v>100</v>
       </c>
       <c r="B52" t="n">
-        <v>396.7474440221624</v>
+        <v>396.3329052206713</v>
       </c>
       <c r="C52" t="n">
-        <v>1149.993211157248</v>
+        <v>1148.791029625134</v>
       </c>
       <c r="D52" t="n">
-        <v>114.9999379819866</v>
+        <v>115</v>
       </c>
       <c r="E52" t="n">
-        <v>4.000915941</v>
+        <v>3.996772458</v>
       </c>
       <c r="F52" t="n">
-        <v>0.066439443</v>
+        <v>0.066504256</v>
       </c>
       <c r="G52" t="n">
-        <v>13.224914796</v>
+        <v>13.211096841</v>
       </c>
     </row>
     <row r="53">
@@ -1648,22 +1648,22 @@
         <v>100</v>
       </c>
       <c r="B53" t="n">
-        <v>396.7484665743131</v>
+        <v>396.7467917044029</v>
       </c>
       <c r="C53" t="n">
-        <v>1149.996110886447</v>
+        <v>1149.991341724025</v>
       </c>
       <c r="D53" t="n">
-        <v>114.9999444012849</v>
+        <v>114.9999358475306</v>
       </c>
       <c r="E53" t="n">
-        <v>4.000926161</v>
+        <v>4.00090942</v>
       </c>
       <c r="F53" t="n">
-        <v>0.066439283</v>
+        <v>0.066439545</v>
       </c>
       <c r="G53" t="n">
-        <v>13.224948881</v>
+        <v>13.224893052</v>
       </c>
     </row>
     <row r="54">
@@ -1671,22 +1671,22 @@
         <v>100</v>
       </c>
       <c r="B54" t="n">
-        <v>396.748977850366</v>
+        <v>396.7470385273391</v>
       </c>
       <c r="C54" t="n">
-        <v>1149.997533938493</v>
+        <v>1149.992049428681</v>
       </c>
       <c r="D54" t="n">
-        <v>114.999950292195</v>
+        <v>114.9999366200055</v>
       </c>
       <c r="E54" t="n">
-        <v>4.000931272</v>
+        <v>4.000911888</v>
       </c>
       <c r="F54" t="n">
-        <v>0.066439204</v>
+        <v>0.066439506</v>
       </c>
       <c r="G54" t="n">
-        <v>13.224965924</v>
+        <v>13.22490128</v>
       </c>
     </row>
     <row r="55">
@@ -1694,22 +1694,22 @@
         <v>100</v>
       </c>
       <c r="B55" t="n">
-        <v>396.7492334883596</v>
+        <v>396.7472853502751</v>
       </c>
       <c r="C55" t="n">
-        <v>1149.998225735288</v>
+        <v>1149.992756734294</v>
       </c>
       <c r="D55" t="n">
-        <v>114.9999552105535</v>
+        <v>114.9999374323876</v>
       </c>
       <c r="E55" t="n">
-        <v>4.000933827</v>
+        <v>4.000914355</v>
       </c>
       <c r="F55" t="n">
-        <v>0.066439164</v>
+        <v>0.066439468</v>
       </c>
       <c r="G55" t="n">
-        <v>13.224974445</v>
+        <v>13.224909507</v>
       </c>
     </row>
     <row r="56">
@@ -1717,22 +1717,22 @@
         <v>100</v>
       </c>
       <c r="B56" t="n">
-        <v>396.7462009479572</v>
+        <v>396.7444977441606</v>
       </c>
       <c r="C56" t="n">
-        <v>1149.989646270708</v>
+        <v>1149.984746425306</v>
       </c>
       <c r="D56" t="n">
-        <v>114.999934158975</v>
+        <v>114.9999304609139</v>
       </c>
       <c r="E56" t="n">
-        <v>4.000903516</v>
+        <v>4.000886492</v>
       </c>
       <c r="F56" t="n">
-        <v>0.066439637</v>
+        <v>0.06643990299999999</v>
       </c>
       <c r="G56" t="n">
-        <v>13.224873361</v>
+        <v>13.224816587</v>
       </c>
     </row>
     <row r="57">
@@ -1740,22 +1740,22 @@
         <v>100</v>
       </c>
       <c r="B57" t="n">
-        <v>392.5535425142915</v>
+        <v>387.4309702731162</v>
       </c>
       <c r="C57" t="n">
-        <v>1137.836355113888</v>
+        <v>1122.988319632221</v>
       </c>
       <c r="D57" t="n">
         <v>115</v>
       </c>
       <c r="E57" t="n">
-        <v>3.958996696</v>
+        <v>3.907796597</v>
       </c>
       <c r="F57" t="n">
-        <v>0.067101469</v>
+        <v>0.067929531</v>
       </c>
       <c r="G57" t="n">
-        <v>13.085118084</v>
+        <v>12.914365676</v>
       </c>
     </row>
     <row r="58">
@@ -1763,22 +1763,22 @@
         <v>100</v>
       </c>
       <c r="B58" t="n">
-        <v>395.0714161537961</v>
+        <v>391.4827223282831</v>
       </c>
       <c r="C58" t="n">
-        <v>1145.13453957622</v>
+        <v>1134.732528487777</v>
       </c>
       <c r="D58" t="n">
         <v>115</v>
       </c>
       <c r="E58" t="n">
-        <v>3.984163434</v>
+        <v>3.948293714</v>
       </c>
       <c r="F58" t="n">
-        <v>0.06670232500000001</v>
+        <v>0.06727277500000001</v>
       </c>
       <c r="G58" t="n">
-        <v>13.169047205</v>
+        <v>13.049424078</v>
       </c>
     </row>
     <row r="59">
@@ -1786,22 +1786,22 @@
         <v>100</v>
       </c>
       <c r="B59" t="n">
-        <v>396.75</v>
+        <v>391.8878975337998</v>
       </c>
       <c r="C59" t="n">
-        <v>1150</v>
+        <v>1135.906949373332</v>
       </c>
       <c r="D59" t="n">
         <v>115</v>
       </c>
       <c r="E59" t="n">
-        <v>4.000941487</v>
+        <v>3.952343483</v>
       </c>
       <c r="F59" t="n">
-        <v>0.066439044</v>
+        <v>0.067207846</v>
       </c>
       <c r="G59" t="n">
-        <v>13.225</v>
+        <v>13.062929918</v>
       </c>
     </row>
     <row r="60">
@@ -1809,22 +1809,22 @@
         <v>100</v>
       </c>
       <c r="B60" t="n">
-        <v>389.9494532317019</v>
+        <v>387.7720921030418</v>
       </c>
       <c r="C60" t="n">
-        <v>1130.288270236817</v>
+        <v>1123.977078559541</v>
       </c>
       <c r="D60" t="n">
         <v>115</v>
       </c>
       <c r="E60" t="n">
-        <v>3.932968623</v>
+        <v>3.911206057</v>
       </c>
       <c r="F60" t="n">
-        <v>0.067519701</v>
+        <v>0.067873709</v>
       </c>
       <c r="G60" t="n">
-        <v>12.998315108</v>
+        <v>12.925736403</v>
       </c>
     </row>
     <row r="61">
@@ -1832,22 +1832,22 @@
         <v>100</v>
       </c>
       <c r="B61" t="n">
-        <v>390.7867466034877</v>
+        <v>388.972355930405</v>
       </c>
       <c r="C61" t="n">
-        <v>1132.715207546341</v>
+        <v>1127.456104146101</v>
       </c>
       <c r="D61" t="n">
         <v>115</v>
       </c>
       <c r="E61" t="n">
-        <v>3.941337388</v>
+        <v>3.923202569</v>
       </c>
       <c r="F61" t="n">
-        <v>0.06738461900000001</v>
+        <v>0.06767807300000001</v>
       </c>
       <c r="G61" t="n">
-        <v>13.026224887</v>
+        <v>12.965745198</v>
       </c>
     </row>
     <row r="62">
@@ -1855,22 +1855,22 @@
         <v>100</v>
       </c>
       <c r="B62" t="n">
-        <v>391.6276427837835</v>
+        <v>390.1800720367594</v>
       </c>
       <c r="C62" t="n">
-        <v>1135.152587779082</v>
+        <v>1130.956730541331</v>
       </c>
       <c r="D62" t="n">
         <v>115</v>
       </c>
       <c r="E62" t="n">
-        <v>3.949742208</v>
+        <v>3.935273658</v>
       </c>
       <c r="F62" t="n">
-        <v>0.067249537</v>
+        <v>0.06748243700000001</v>
       </c>
       <c r="G62" t="n">
-        <v>13.054254759</v>
+        <v>13.006002401</v>
       </c>
     </row>
     <row r="63">
@@ -1878,22 +1878,22 @@
         <v>100</v>
       </c>
       <c r="B63" t="n">
-        <v>392.472165151139</v>
+        <v>390.9893906211554</v>
       </c>
       <c r="C63" t="n">
-        <v>1137.600478698953</v>
+        <v>1133.302581510595</v>
       </c>
       <c r="D63" t="n">
         <v>115</v>
       </c>
       <c r="E63" t="n">
-        <v>3.958183316</v>
+        <v>3.943362826</v>
       </c>
       <c r="F63" t="n">
-        <v>0.067114454</v>
+        <v>0.067352013</v>
       </c>
       <c r="G63" t="n">
-        <v>13.082405505</v>
+        <v>13.032979687</v>
       </c>
     </row>
     <row r="64">
@@ -1901,22 +1901,22 @@
         <v>100</v>
       </c>
       <c r="B64" t="n">
-        <v>394.1721827112389</v>
+        <v>391.8020733470271</v>
       </c>
       <c r="C64" t="n">
-        <v>1142.528065829678</v>
+        <v>1135.658183614571</v>
       </c>
       <c r="D64" t="n">
         <v>115</v>
       </c>
       <c r="E64" t="n">
-        <v>3.97517534</v>
+        <v>3.95148566</v>
       </c>
       <c r="F64" t="n">
-        <v>0.06684429</v>
+        <v>0.067221588</v>
       </c>
       <c r="G64" t="n">
-        <v>13.139072757</v>
+        <v>13.060069112</v>
       </c>
     </row>
     <row r="65">
@@ -1924,22 +1924,22 @@
         <v>100</v>
       </c>
       <c r="B65" t="n">
-        <v>393.3203373200595</v>
+        <v>392.2096823952714</v>
       </c>
       <c r="C65" t="n">
-        <v>1140.058948753795</v>
+        <v>1136.839659116728</v>
       </c>
       <c r="D65" t="n">
         <v>115</v>
       </c>
       <c r="E65" t="n">
-        <v>3.966660949</v>
+        <v>3.955559763</v>
       </c>
       <c r="F65" t="n">
-        <v>0.066979372</v>
+        <v>0.067156376</v>
       </c>
       <c r="G65" t="n">
-        <v>13.110677911</v>
+        <v>13.07365608</v>
       </c>
     </row>
     <row r="66">
@@ -1947,22 +1947,22 @@
         <v>100</v>
       </c>
       <c r="B66" t="n">
-        <v>396.7476996602025</v>
+        <v>392.2096826276096</v>
       </c>
       <c r="C66" t="n">
-        <v>1149.993942881967</v>
+        <v>1136.839659790172</v>
       </c>
       <c r="D66" t="n">
-        <v>114.9999389075683</v>
+        <v>115</v>
       </c>
       <c r="E66" t="n">
-        <v>4.000918496</v>
+        <v>3.955559766</v>
       </c>
       <c r="F66" t="n">
-        <v>0.06643940299999999</v>
+        <v>0.067156376</v>
       </c>
       <c r="G66" t="n">
-        <v>13.224923318</v>
+        <v>13.073656088</v>
       </c>
     </row>
     <row r="67">
@@ -1970,22 +1970,22 @@
         <v>100</v>
       </c>
       <c r="B67" t="n">
-        <v>396.7479552982419</v>
+        <v>392.2096826065607</v>
       </c>
       <c r="C67" t="n">
-        <v>1149.994673516617</v>
+        <v>1136.839659729161</v>
       </c>
       <c r="D67" t="n">
-        <v>114.9999399421595</v>
+        <v>115</v>
       </c>
       <c r="E67" t="n">
-        <v>4.000921051</v>
+        <v>3.955559765</v>
       </c>
       <c r="F67" t="n">
-        <v>0.066439363</v>
+        <v>0.067156376</v>
       </c>
       <c r="G67" t="n">
-        <v>13.224931839</v>
+        <v>13.073656087</v>
       </c>
     </row>
     <row r="68">
@@ -1993,22 +1993,22 @@
         <v>100</v>
       </c>
       <c r="B68" t="n">
-        <v>396.7487222123432</v>
+        <v>392.6181405491587</v>
       </c>
       <c r="C68" t="n">
-        <v>1149.996825396825</v>
+        <v>1138.023595794662</v>
       </c>
       <c r="D68" t="n">
-        <v>114.9999469898395</v>
+        <v>115</v>
       </c>
       <c r="E68" t="n">
-        <v>4.000928716</v>
+        <v>3.959642363</v>
       </c>
       <c r="F68" t="n">
-        <v>0.06643924399999999</v>
+        <v>0.06709116399999999</v>
       </c>
       <c r="G68" t="n">
-        <v>13.224957403</v>
+        <v>13.087271352</v>
       </c>
     </row>
     <row r="69">
@@ -2016,919 +2016,4116 @@
         <v>100</v>
       </c>
       <c r="B69" t="n">
-        <v>396.7494891107847</v>
+        <v>392.6181407801262</v>
       </c>
       <c r="C69" t="n">
-        <v>1149.999236473384</v>
+        <v>1138.023596464134</v>
       </c>
       <c r="D69" t="n">
-        <v>114.999928230386</v>
+        <v>115</v>
       </c>
       <c r="E69" t="n">
-        <v>4.000936382</v>
+        <v>3.959642366</v>
       </c>
       <c r="F69" t="n">
-        <v>0.066439124</v>
+        <v>0.06709116399999999</v>
       </c>
       <c r="G69" t="n">
-        <v>13.224982966</v>
+        <v>13.087271359</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B70" t="n">
-        <v>390.3570678217424</v>
+        <v>392.6181407417699</v>
       </c>
       <c r="C70" t="n">
-        <v>942.8914681684597</v>
+        <v>1138.023596352956</v>
       </c>
       <c r="D70" t="n">
         <v>115</v>
       </c>
       <c r="E70" t="n">
-        <v>3.947514179</v>
+        <v>3.959642365</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06745385499999999</v>
+        <v>0.06709116399999999</v>
       </c>
       <c r="G70" t="n">
-        <v>13.011902261</v>
+        <v>13.087271358</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B71" t="n">
-        <v>385.0000989867643</v>
+        <v>395.0868654215337</v>
       </c>
       <c r="C71" t="n">
-        <v>929.9519299197203</v>
+        <v>1145.179320062416</v>
       </c>
       <c r="D71" t="n">
         <v>115</v>
       </c>
       <c r="E71" t="n">
-        <v>3.893965602</v>
+        <v>3.984317854</v>
       </c>
       <c r="F71" t="n">
-        <v>0.068330179</v>
+        <v>0.066699892</v>
       </c>
       <c r="G71" t="n">
-        <v>12.833336633</v>
+        <v>13.169562181</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B72" t="n">
-        <v>394.1812577050962</v>
+        <v>385.8102694510495</v>
       </c>
       <c r="C72" t="n">
-        <v>952.1286417997489</v>
+        <v>1118.290636089998</v>
       </c>
       <c r="D72" t="n">
         <v>115</v>
       </c>
       <c r="E72" t="n">
-        <v>3.985742111</v>
+        <v>3.891598042</v>
       </c>
       <c r="F72" t="n">
-        <v>0.066842842</v>
+        <v>0.068196095</v>
       </c>
       <c r="G72" t="n">
-        <v>13.139375257</v>
+        <v>12.860342315</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B73" t="n">
-        <v>389.5365367232416</v>
+        <v>395.9166863461063</v>
       </c>
       <c r="C73" t="n">
-        <v>940.9095089933369</v>
+        <v>1147.584598104656</v>
       </c>
       <c r="D73" t="n">
         <v>115</v>
       </c>
       <c r="E73" t="n">
-        <v>3.939311983</v>
+        <v>3.992612194</v>
       </c>
       <c r="F73" t="n">
-        <v>0.067586519</v>
+        <v>0.06656946800000001</v>
       </c>
       <c r="G73" t="n">
-        <v>12.984551224</v>
+        <v>13.197222878</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B74" t="n">
-        <v>395.7142164508392</v>
+        <v>396.7471619388071</v>
       </c>
       <c r="C74" t="n">
-        <v>955.8314407025099</v>
+        <v>1149.99240313198</v>
       </c>
       <c r="D74" t="n">
-        <v>115</v>
+        <v>114.999937021147</v>
       </c>
       <c r="E74" t="n">
-        <v>4.001066351</v>
+        <v>4.000913121</v>
       </c>
       <c r="F74" t="n">
-        <v>0.066601229</v>
+        <v>0.06643948700000001</v>
       </c>
       <c r="G74" t="n">
-        <v>13.190473882</v>
+        <v>13.224905394</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B75" t="n">
-        <v>401.0713650799359</v>
+        <v>396.7485194649403</v>
       </c>
       <c r="C75" t="n">
-        <v>968.77141323656</v>
+        <v>1149.996259178711</v>
       </c>
       <c r="D75" t="n">
-        <v>115</v>
+        <v>114.9999449026916</v>
       </c>
       <c r="E75" t="n">
-        <v>4.054620248</v>
+        <v>4.00092669</v>
       </c>
       <c r="F75" t="n">
-        <v>0.065771379</v>
+        <v>0.06643927500000001</v>
       </c>
       <c r="G75" t="n">
-        <v>13.369045503</v>
+        <v>13.224950644</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B76" t="n">
-        <v>406.4285137090327</v>
+        <v>396.7483960534763</v>
       </c>
       <c r="C76" t="n">
-        <v>981.7113857706101</v>
+        <v>1149.995912976058</v>
       </c>
       <c r="D76" t="n">
-        <v>115</v>
+        <v>114.9999437514799</v>
       </c>
       <c r="E76" t="n">
-        <v>4.108175803</v>
+        <v>4.000925456</v>
       </c>
       <c r="F76" t="n">
-        <v>0.064963406</v>
+        <v>0.066439294</v>
       </c>
       <c r="G76" t="n">
-        <v>13.547617124</v>
+        <v>13.224946531</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B77" t="n">
-        <v>411.7856623381294</v>
+        <v>389.051671095183</v>
       </c>
       <c r="C77" t="n">
-        <v>994.6513583046601</v>
+        <v>1127.686003174443</v>
       </c>
       <c r="D77" t="n">
         <v>115</v>
       </c>
       <c r="E77" t="n">
-        <v>4.161732951</v>
+        <v>3.923995319</v>
       </c>
       <c r="F77" t="n">
-        <v>0.06417645499999999</v>
+        <v>0.067665187</v>
       </c>
       <c r="G77" t="n">
-        <v>13.726188745</v>
+        <v>12.968389037</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B78" t="n">
-        <v>417.1428109672262</v>
+        <v>394.7241227285338</v>
       </c>
       <c r="C78" t="n">
-        <v>1007.59133083871</v>
+        <v>1144.127891966764</v>
       </c>
       <c r="D78" t="n">
         <v>115</v>
       </c>
       <c r="E78" t="n">
-        <v>4.215291631</v>
+        <v>3.980692132</v>
       </c>
       <c r="F78" t="n">
-        <v>0.063409717</v>
+        <v>0.066757077</v>
       </c>
       <c r="G78" t="n">
-        <v>13.904760366</v>
+        <v>13.157470758</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B79" t="n">
-        <v>449.2857014244269</v>
+        <v>393.9137711096628</v>
       </c>
       <c r="C79" t="n">
-        <v>1085.231162860934</v>
+        <v>1141.779046694674</v>
       </c>
       <c r="D79" t="n">
         <v>115</v>
       </c>
       <c r="E79" t="n">
-        <v>4.536672789</v>
+        <v>3.972592452</v>
       </c>
       <c r="F79" t="n">
-        <v>0.059193263</v>
+        <v>0.066885206</v>
       </c>
       <c r="G79" t="n">
-        <v>14.976190047</v>
+        <v>13.130459037</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B80" t="n">
-        <v>398.9380771857835</v>
+        <v>389.3740966494571</v>
       </c>
       <c r="C80" t="n">
-        <v>963.6185439270131</v>
+        <v>1128.620569998426</v>
       </c>
       <c r="D80" t="n">
         <v>115</v>
       </c>
       <c r="E80" t="n">
-        <v>4.033294171</v>
+        <v>3.927217946</v>
       </c>
       <c r="F80" t="n">
-        <v>0.066099166</v>
+        <v>0.067612861</v>
       </c>
       <c r="G80" t="n">
-        <v>13.297935906</v>
+        <v>12.979136555</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B81" t="n">
-        <v>394.1812569221001</v>
+        <v>392.2096825010705</v>
       </c>
       <c r="C81" t="n">
-        <v>952.1286399084541</v>
+        <v>1136.839659423393</v>
       </c>
       <c r="D81" t="n">
         <v>115</v>
       </c>
       <c r="E81" t="n">
-        <v>3.985742103</v>
+        <v>3.955559764</v>
       </c>
       <c r="F81" t="n">
-        <v>0.066842843</v>
+        <v>0.067156376</v>
       </c>
       <c r="G81" t="n">
-        <v>13.139375231</v>
+        <v>13.073656083</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B82" t="n">
-        <v>403.81110549649</v>
+        <v>393.8486349167433</v>
       </c>
       <c r="C82" t="n">
-        <v>975.3891437113282</v>
+        <v>1141.590246135488</v>
       </c>
       <c r="D82" t="n">
         <v>115</v>
       </c>
       <c r="E82" t="n">
-        <v>4.082009302</v>
+        <v>3.9719414</v>
       </c>
       <c r="F82" t="n">
-        <v>0.065355489</v>
+        <v>0.066895528</v>
       </c>
       <c r="G82" t="n">
-        <v>13.460370183</v>
+        <v>13.128287831</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B83" t="n">
-        <v>398.9380781639437</v>
+        <v>394.2605153857351</v>
       </c>
       <c r="C83" t="n">
-        <v>963.6185462897188</v>
+        <v>1142.784102567348</v>
       </c>
       <c r="D83" t="n">
         <v>115</v>
       </c>
       <c r="E83" t="n">
-        <v>4.033294181</v>
+        <v>3.976058248</v>
       </c>
       <c r="F83" t="n">
-        <v>0.066099166</v>
+        <v>0.066830316</v>
       </c>
       <c r="G83" t="n">
-        <v>13.297935939</v>
+        <v>13.14201718</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B84" t="n">
-        <v>408.804651148203</v>
+        <v>394.6732578159864</v>
       </c>
       <c r="C84" t="n">
-        <v>987.4508481840649</v>
+        <v>1143.980457437641</v>
       </c>
       <c r="D84" t="n">
         <v>115</v>
       </c>
       <c r="E84" t="n">
-        <v>4.131930625</v>
+        <v>3.980183722</v>
       </c>
       <c r="F84" t="n">
-        <v>0.064611812</v>
+        <v>0.06676510400000001</v>
       </c>
       <c r="G84" t="n">
-        <v>13.626821705</v>
+        <v>13.155775261</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B85" t="n">
-        <v>398.9380779197077</v>
+        <v>394.6732579526687</v>
       </c>
       <c r="C85" t="n">
-        <v>963.618545699777</v>
+        <v>1143.980457833822</v>
       </c>
       <c r="D85" t="n">
         <v>115</v>
       </c>
       <c r="E85" t="n">
-        <v>4.033294178</v>
+        <v>3.980183724</v>
       </c>
       <c r="F85" t="n">
-        <v>0.066099166</v>
+        <v>0.06676510400000001</v>
       </c>
       <c r="G85" t="n">
-        <v>13.297935931</v>
+        <v>13.155775265</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B86" t="n">
-        <v>413.9232421493239</v>
+        <v>395.0868654840825</v>
       </c>
       <c r="C86" t="n">
-        <v>999.8145945635841</v>
+        <v>1145.179320243717</v>
       </c>
       <c r="D86" t="n">
         <v>115</v>
       </c>
       <c r="E86" t="n">
-        <v>4.183103459</v>
+        <v>3.984317855</v>
       </c>
       <c r="F86" t="n">
-        <v>0.06386813600000001</v>
+        <v>0.066699892</v>
       </c>
       <c r="G86" t="n">
-        <v>13.797441405</v>
+        <v>13.169562183</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B87" t="n">
-        <v>419.171635238777</v>
+        <v>395.5013407085627</v>
       </c>
       <c r="C87" t="n">
-        <v>1012.491872557432</v>
+        <v>1146.380697705978</v>
       </c>
       <c r="D87" t="n">
         <v>115</v>
       </c>
       <c r="E87" t="n">
-        <v>4.235575411</v>
+        <v>3.988460669</v>
       </c>
       <c r="F87" t="n">
-        <v>0.06312445899999999</v>
+        <v>0.06663468</v>
       </c>
       <c r="G87" t="n">
-        <v>13.972387841</v>
+        <v>13.183378024</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B88" t="n">
-        <v>453.6871096663411</v>
+        <v>386.6206198620829</v>
       </c>
       <c r="C88" t="n">
-        <v>1095.862583735123</v>
+        <v>1120.639477861109</v>
       </c>
       <c r="D88" t="n">
         <v>115</v>
       </c>
       <c r="E88" t="n">
-        <v>4.580683858</v>
+        <v>3.899697298</v>
       </c>
       <c r="F88" t="n">
-        <v>0.058662399</v>
+        <v>0.06806253399999999</v>
       </c>
       <c r="G88" t="n">
-        <v>15.122903656</v>
+        <v>12.887353995</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B89" t="n">
-        <v>430.0780917460662</v>
+        <v>396.7476555846785</v>
       </c>
       <c r="C89" t="n">
-        <v>1038.835970401126</v>
+        <v>1149.993816765362</v>
       </c>
       <c r="D89" t="n">
-        <v>115</v>
+        <v>114.9999387437022</v>
       </c>
       <c r="E89" t="n">
-        <v>4.344619482</v>
+        <v>4.000918055</v>
       </c>
       <c r="F89" t="n">
-        <v>0.061637106</v>
+        <v>0.06643941</v>
       </c>
       <c r="G89" t="n">
-        <v>14.335936392</v>
+        <v>13.224921848</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B90" t="n">
-        <v>454.6428510522798</v>
+        <v>396.7493833343023</v>
       </c>
       <c r="C90" t="n">
-        <v>1098.171137807439</v>
+        <v>1149.999068848268</v>
       </c>
       <c r="D90" t="n">
-        <v>115</v>
+        <v>114.9999143329401</v>
       </c>
       <c r="E90" t="n">
-        <v>4.59024072</v>
+        <v>4.000935325</v>
       </c>
       <c r="F90" t="n">
-        <v>0.058548483</v>
+        <v>0.06643913999999999</v>
       </c>
       <c r="G90" t="n">
-        <v>15.154761702</v>
+        <v>13.22497944</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B91" t="n">
-        <v>424.5548313429957</v>
+        <v>396.7491365222359</v>
       </c>
       <c r="C91" t="n">
-        <v>1025.494761698057</v>
+        <v>1149.997966189067</v>
       </c>
       <c r="D91" t="n">
-        <v>115</v>
+        <v>114.9999530590282</v>
       </c>
       <c r="E91" t="n">
-        <v>4.289396533</v>
+        <v>4.000932857</v>
       </c>
       <c r="F91" t="n">
-        <v>0.062380782</v>
+        <v>0.066439179</v>
       </c>
       <c r="G91" t="n">
-        <v>14.151827711</v>
+        <v>13.224971213</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B92" t="n">
-        <v>422.4999595963229</v>
+        <v>390.6723719172497</v>
       </c>
       <c r="C92" t="n">
-        <v>1020.53130337276</v>
+        <v>1132.383686716666</v>
       </c>
       <c r="D92" t="n">
         <v>115</v>
       </c>
       <c r="E92" t="n">
-        <v>4.268851784</v>
+        <v>3.940194208</v>
       </c>
       <c r="F92" t="n">
-        <v>0.062662422</v>
+        <v>0.067403037</v>
       </c>
       <c r="G92" t="n">
-        <v>14.083331987</v>
+        <v>13.022412397</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B93" t="n">
-        <v>435.7469551075229</v>
+        <v>396.75</v>
       </c>
       <c r="C93" t="n">
-        <v>1052.528877071311</v>
+        <v>1150</v>
       </c>
       <c r="D93" t="n">
         <v>115</v>
       </c>
       <c r="E93" t="n">
-        <v>4.401299692</v>
+        <v>4.000941487</v>
       </c>
       <c r="F93" t="n">
-        <v>0.060893429</v>
+        <v>0.066439044</v>
       </c>
       <c r="G93" t="n">
-        <v>14.524898504</v>
+        <v>13.225</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B94" t="n">
-        <v>460</v>
+        <v>390.267196711733</v>
       </c>
       <c r="C94" t="n">
-        <v>1111.111111111111</v>
+        <v>1131.20926583111</v>
       </c>
       <c r="D94" t="n">
         <v>115</v>
       </c>
       <c r="E94" t="n">
-        <v>4.643809782</v>
+        <v>3.936144471</v>
       </c>
       <c r="F94" t="n">
-        <v>0.057918723</v>
+        <v>0.06746837</v>
       </c>
       <c r="G94" t="n">
-        <v>15.333333333</v>
+        <v>13.008906557</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B95" t="n">
-        <v>419.171635166277</v>
+        <v>386.9760222775737</v>
       </c>
       <c r="C95" t="n">
-        <v>1012.491872382311</v>
+        <v>1121.669629790068</v>
       </c>
       <c r="D95" t="n">
         <v>115</v>
       </c>
       <c r="E95" t="n">
-        <v>4.23557541</v>
+        <v>3.903249473</v>
       </c>
       <c r="F95" t="n">
-        <v>0.06312445899999999</v>
+        <v>0.06800413299999999</v>
       </c>
       <c r="G95" t="n">
-        <v>13.972387839</v>
+        <v>12.899200743</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B96" t="n">
-        <v>441.5672559305755</v>
+        <v>387.373648222094</v>
       </c>
       <c r="C96" t="n">
-        <v>1066.587574711535</v>
+        <v>1122.822168759692</v>
       </c>
       <c r="D96" t="n">
         <v>115</v>
       </c>
       <c r="E96" t="n">
-        <v>4.459495556</v>
+        <v>3.907223672</v>
       </c>
       <c r="F96" t="n">
-        <v>0.060149753</v>
+        <v>0.067938921</v>
       </c>
       <c r="G96" t="n">
-        <v>14.718908531</v>
+        <v>12.912454941</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B97" t="n">
-        <v>424.5548312785871</v>
+        <v>387.7720920203519</v>
       </c>
       <c r="C97" t="n">
-        <v>1025.494761542481</v>
+        <v>1123.97707831986</v>
       </c>
       <c r="D97" t="n">
         <v>115</v>
       </c>
       <c r="E97" t="n">
-        <v>4.289396532</v>
+        <v>3.911206056</v>
       </c>
       <c r="F97" t="n">
-        <v>0.062380782</v>
+        <v>0.067873709</v>
       </c>
       <c r="G97" t="n">
-        <v>14.151827709</v>
+        <v>12.925736401</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B98" t="n">
-        <v>435.7469550844243</v>
+        <v>389.3740964449431</v>
       </c>
       <c r="C98" t="n">
-        <v>1052.528877015517</v>
+        <v>1128.620569405632</v>
       </c>
       <c r="D98" t="n">
         <v>115</v>
       </c>
       <c r="E98" t="n">
-        <v>4.401299691</v>
+        <v>3.927217944</v>
       </c>
       <c r="F98" t="n">
-        <v>0.060893429</v>
+        <v>0.067612861</v>
       </c>
       <c r="G98" t="n">
-        <v>14.524898503</v>
+        <v>12.979136548</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B99" t="n">
-        <v>447.5451447461517</v>
+        <v>389.7766676242314</v>
       </c>
       <c r="C99" t="n">
-        <v>1081.026919676695</v>
+        <v>1129.787442389076</v>
       </c>
       <c r="D99" t="n">
         <v>115</v>
       </c>
       <c r="E99" t="n">
-        <v>4.519268633</v>
+        <v>3.931241632</v>
       </c>
       <c r="F99" t="n">
-        <v>0.059406076</v>
+        <v>0.067547649</v>
       </c>
       <c r="G99" t="n">
-        <v>14.918171492</v>
+        <v>12.992555587</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B100" t="n">
-        <v>459.9979093109744</v>
+        <v>390.5843123471435</v>
       </c>
       <c r="C100" t="n">
-        <v>1111.106631943125</v>
+        <v>1132.128441585923</v>
       </c>
       <c r="D100" t="n">
-        <v>114.9999408880712</v>
+        <v>115</v>
       </c>
       <c r="E100" t="n">
-        <v>4.643788877</v>
+        <v>3.93931405</v>
       </c>
       <c r="F100" t="n">
-        <v>0.057918965</v>
+        <v>0.067417225</v>
       </c>
       <c r="G100" t="n">
-        <v>15.333263639</v>
+        <v>13.019477078</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>443.9285510473929</v>
+        <v>390.9893908081689</v>
       </c>
       <c r="C101" t="n">
-        <v>1072.291186104814</v>
+        <v>1133.302582052663</v>
       </c>
       <c r="D101" t="n">
         <v>115</v>
       </c>
       <c r="E101" t="n">
-        <v>4.48310603</v>
+        <v>3.943362828</v>
       </c>
       <c r="F101" t="n">
-        <v>0.059853603</v>
+        <v>0.067352013</v>
       </c>
       <c r="G101" t="n">
-        <v>14.797618368</v>
+        <v>13.032979694</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>447.5451447087339</v>
+        <v>393.0274503561261</v>
       </c>
       <c r="C102" t="n">
-        <v>1081.026919586314</v>
+        <v>1139.210001032249</v>
       </c>
       <c r="D102" t="n">
         <v>115</v>
       </c>
       <c r="E102" t="n">
-        <v>4.519268632</v>
+        <v>3.963733486</v>
       </c>
       <c r="F102" t="n">
-        <v>0.059406076</v>
+        <v>0.067025952</v>
       </c>
       <c r="G102" t="n">
-        <v>14.91817149</v>
+        <v>13.100915012</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B103" t="n">
-        <v>459.9977192118511</v>
+        <v>394.2605152692469</v>
       </c>
       <c r="C103" t="n">
-        <v>1111.106172764252</v>
+        <v>1142.784102229701</v>
       </c>
       <c r="D103" t="n">
-        <v>114.999940888277</v>
+        <v>115</v>
       </c>
       <c r="E103" t="n">
-        <v>4.643786976</v>
+        <v>3.976058247</v>
       </c>
       <c r="F103" t="n">
-        <v>0.057918988</v>
+        <v>0.066830316</v>
       </c>
       <c r="G103" t="n">
-        <v>15.333257303</v>
+        <v>13.142017176</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B104" t="n">
-        <v>459.9975291127432</v>
+        <v>396.7469151158709</v>
       </c>
       <c r="C104" t="n">
-        <v>1111.10571358574</v>
+        <v>1149.991695625808</v>
       </c>
       <c r="D104" t="n">
-        <v>114.9999408884496</v>
+        <v>114.9999362288222</v>
       </c>
       <c r="E104" t="n">
-        <v>4.643785076</v>
+        <v>4.000910654</v>
       </c>
       <c r="F104" t="n">
-        <v>0.05791901</v>
+        <v>0.066439526</v>
       </c>
       <c r="G104" t="n">
-        <v>15.333250966</v>
+        <v>13.224897166</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B105" t="n">
-        <v>433.2142568545163</v>
+        <v>388.2413206841496</v>
       </c>
       <c r="C105" t="n">
-        <v>1046.41124844086</v>
+        <v>1125.337161403332</v>
       </c>
       <c r="D105" t="n">
         <v>115</v>
       </c>
       <c r="E105" t="n">
-        <v>4.375976291</v>
+        <v>3.915895937</v>
       </c>
       <c r="F105" t="n">
-        <v>0.061223279</v>
+        <v>0.06779708299999999</v>
       </c>
       <c r="G105" t="n">
-        <v>14.440475228</v>
+        <v>12.941377356</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B106" t="n">
-        <v>438.571405483613</v>
+        <v>396.7481492305461</v>
       </c>
       <c r="C106" t="n">
-        <v>1059.351220974911</v>
+        <v>1149.995219206606</v>
       </c>
       <c r="D106" t="n">
-        <v>115</v>
+        <v>114.9999415854742</v>
       </c>
       <c r="E106" t="n">
-        <v>4.429540542</v>
+        <v>4.000922989</v>
       </c>
       <c r="F106" t="n">
-        <v>0.060530076</v>
+        <v>0.066439333</v>
       </c>
       <c r="G106" t="n">
-        <v>14.619046849</v>
+        <v>13.224938303</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B107" t="n">
-        <v>459.9973390165134</v>
+        <v>396.7480258190798</v>
       </c>
       <c r="C107" t="n">
-        <v>1111.105254414444</v>
+        <v>1149.9948719789</v>
       </c>
       <c r="D107" t="n">
-        <v>114.9999408885959</v>
+        <v>114.9999405367719</v>
       </c>
       <c r="E107" t="n">
-        <v>4.643783175</v>
+        <v>4.000921756</v>
       </c>
       <c r="F107" t="n">
-        <v>0.057919032</v>
+        <v>0.06643935199999999</v>
       </c>
       <c r="G107" t="n">
-        <v>15.333244629</v>
+        <v>13.22493419</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B108" t="n">
-        <v>427.8571082254196</v>
+        <v>393.1034231503499</v>
       </c>
       <c r="C108" t="n">
-        <v>1033.47127590681</v>
+        <v>1139.430212029999</v>
       </c>
       <c r="D108" t="n">
         <v>115</v>
       </c>
       <c r="E108" t="n">
-        <v>4.322413354</v>
+        <v>3.964492849</v>
       </c>
       <c r="F108" t="n">
-        <v>0.061933841</v>
+        <v>0.06701386300000001</v>
       </c>
       <c r="G108" t="n">
-        <v>14.261903608</v>
+        <v>13.103447438</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>100</v>
+      </c>
+      <c r="B109" t="n">
+        <v>393.5085951446044</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1140.604623607549</v>
+      </c>
+      <c r="D109" t="n">
+        <v>115</v>
+      </c>
+      <c r="E109" t="n">
+        <v>3.968542626</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.066949469</v>
+      </c>
+      <c r="G109" t="n">
+        <v>13.116953171</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>100</v>
+      </c>
+      <c r="B110" t="n">
+        <v>388.5714434469401</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1126.294038976637</v>
+      </c>
+      <c r="D110" t="n">
+        <v>115</v>
+      </c>
+      <c r="E110" t="n">
+        <v>3.91919548</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.067743285</v>
+      </c>
+      <c r="G110" t="n">
+        <v>12.952381448</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>100</v>
+      </c>
+      <c r="B111" t="n">
+        <v>389.7766677533654</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1129.787442763378</v>
+      </c>
+      <c r="D111" t="n">
+        <v>115</v>
+      </c>
+      <c r="E111" t="n">
+        <v>3.931241633</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.067547649</v>
+      </c>
+      <c r="G111" t="n">
+        <v>12.992555592</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>100</v>
+      </c>
+      <c r="B112" t="n">
+        <v>393.4376143185747</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1140.398882082825</v>
+      </c>
+      <c r="D112" t="n">
+        <v>115</v>
+      </c>
+      <c r="E112" t="n">
+        <v>3.967833157</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.06696074</v>
+      </c>
+      <c r="G112" t="n">
+        <v>13.114587144</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>100</v>
+      </c>
+      <c r="B113" t="n">
+        <v>393.8486350795552</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1141.590246607406</v>
+      </c>
+      <c r="D113" t="n">
+        <v>115</v>
+      </c>
+      <c r="E113" t="n">
+        <v>3.971941402</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.066895528</v>
+      </c>
+      <c r="G113" t="n">
+        <v>13.128287836</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>100</v>
+      </c>
+      <c r="B114" t="n">
+        <v>394.6732579138783</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1143.980457721386</v>
+      </c>
+      <c r="D114" t="n">
+        <v>115</v>
+      </c>
+      <c r="E114" t="n">
+        <v>3.980183723</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.06676510400000001</v>
+      </c>
+      <c r="G114" t="n">
+        <v>13.155775264</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>100</v>
+      </c>
+      <c r="B115" t="n">
+        <v>396.7474087617429</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1149.993110188715</v>
+      </c>
+      <c r="D115" t="n">
+        <v>114.9999378584188</v>
+      </c>
+      <c r="E115" t="n">
+        <v>4.000915588</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.066439449</v>
+      </c>
+      <c r="G115" t="n">
+        <v>13.224913621</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>100</v>
+      </c>
+      <c r="B116" t="n">
+        <v>389.8620215062164</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1130.034844945554</v>
+      </c>
+      <c r="D116" t="n">
+        <v>115</v>
+      </c>
+      <c r="E116" t="n">
+        <v>3.932094743</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.06753384</v>
+      </c>
+      <c r="G116" t="n">
+        <v>12.995400717</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>100</v>
+      </c>
+      <c r="B117" t="n">
+        <v>396.7488896993248</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1149.997291028893</v>
+      </c>
+      <c r="D117" t="n">
+        <v>114.9999490321025</v>
+      </c>
+      <c r="E117" t="n">
+        <v>4.00093039</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.06643921699999999</v>
+      </c>
+      <c r="G117" t="n">
+        <v>13.224962986</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>100</v>
+      </c>
+      <c r="B118" t="n">
+        <v>396.749013110782</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1149.997630621306</v>
+      </c>
+      <c r="D118" t="n">
+        <v>114.9999508443343</v>
+      </c>
+      <c r="E118" t="n">
+        <v>4.000931624</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.066439198</v>
+      </c>
+      <c r="G118" t="n">
+        <v>13.224967099</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>100</v>
+      </c>
+      <c r="B119" t="n">
+        <v>389.4568463006997</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1128.860424059999</v>
+      </c>
+      <c r="D119" t="n">
+        <v>115</v>
+      </c>
+      <c r="E119" t="n">
+        <v>3.928045026</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.06759944499999999</v>
+      </c>
+      <c r="G119" t="n">
+        <v>12.981894877</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>100</v>
+      </c>
+      <c r="B120" t="n">
+        <v>395.9396493915972</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1147.651157656803</v>
+      </c>
+      <c r="D120" t="n">
+        <v>115</v>
+      </c>
+      <c r="E120" t="n">
+        <v>3.992841718</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.066565867</v>
+      </c>
+      <c r="G120" t="n">
+        <v>13.197988313</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>100</v>
+      </c>
+      <c r="B121" t="n">
+        <v>390.1800722191761</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1130.956731070075</v>
+      </c>
+      <c r="D121" t="n">
+        <v>115</v>
+      </c>
+      <c r="E121" t="n">
+        <v>3.93527366</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.06748243700000001</v>
+      </c>
+      <c r="G121" t="n">
+        <v>13.006002407</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>100</v>
+      </c>
+      <c r="B122" t="n">
+        <v>390.584312318635</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1132.128441503289</v>
+      </c>
+      <c r="D122" t="n">
+        <v>115</v>
+      </c>
+      <c r="E122" t="n">
+        <v>3.939314049</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.067417225</v>
+      </c>
+      <c r="G122" t="n">
+        <v>13.019477077</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>100</v>
+      </c>
+      <c r="B123" t="n">
+        <v>389.7766678500045</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1129.787443043491</v>
+      </c>
+      <c r="D123" t="n">
+        <v>115</v>
+      </c>
+      <c r="E123" t="n">
+        <v>3.931241634</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.067547649</v>
+      </c>
+      <c r="G123" t="n">
+        <v>12.992555595</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>100</v>
+      </c>
+      <c r="B124" t="n">
+        <v>391.8020732552174</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1135.658183348456</v>
+      </c>
+      <c r="D124" t="n">
+        <v>115</v>
+      </c>
+      <c r="E124" t="n">
+        <v>3.951485659</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.067221588</v>
+      </c>
+      <c r="G124" t="n">
+        <v>13.060069109</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>100</v>
+      </c>
+      <c r="B125" t="n">
+        <v>391.3953101946411</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1134.479159984467</v>
+      </c>
+      <c r="D125" t="n">
+        <v>115</v>
+      </c>
+      <c r="E125" t="n">
+        <v>3.947420022</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.06728680099999999</v>
+      </c>
+      <c r="G125" t="n">
+        <v>13.04651034</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>100</v>
+      </c>
+      <c r="B126" t="n">
+        <v>392.6181406456197</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1138.02359607426</v>
+      </c>
+      <c r="D126" t="n">
+        <v>115</v>
+      </c>
+      <c r="E126" t="n">
+        <v>3.959642364</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.06709116399999999</v>
+      </c>
+      <c r="G126" t="n">
+        <v>13.087271355</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>100</v>
+      </c>
+      <c r="B127" t="n">
+        <v>396.7479024076132</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1149.99452272291</v>
+      </c>
+      <c r="D127" t="n">
+        <v>114.999939690898</v>
+      </c>
+      <c r="E127" t="n">
+        <v>4.000920522</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.066439372</v>
+      </c>
+      <c r="G127" t="n">
+        <v>13.224930076</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>100</v>
+      </c>
+      <c r="B128" t="n">
+        <v>392.2930727393165</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1137.081370258888</v>
+      </c>
+      <c r="D128" t="n">
+        <v>115</v>
+      </c>
+      <c r="E128" t="n">
+        <v>3.956393261</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.06714305199999999</v>
+      </c>
+      <c r="G128" t="n">
+        <v>13.076435758</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>100</v>
+      </c>
+      <c r="B129" t="n">
+        <v>396.3322590606259</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1148.789156697466</v>
+      </c>
+      <c r="D129" t="n">
+        <v>115</v>
+      </c>
+      <c r="E129" t="n">
+        <v>3.996765999</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.06650434700000001</v>
+      </c>
+      <c r="G129" t="n">
+        <v>13.211075302</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>100</v>
+      </c>
+      <c r="B130" t="n">
+        <v>396.7477789961459</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1149.994169838441</v>
+      </c>
+      <c r="D130" t="n">
+        <v>114.9999392078693</v>
+      </c>
+      <c r="E130" t="n">
+        <v>4.000919289</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.066439391</v>
+      </c>
+      <c r="G130" t="n">
+        <v>13.224925962</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>100</v>
+      </c>
+      <c r="B131" t="n">
+        <v>396.7463319636338</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1149.99002247616</v>
+      </c>
+      <c r="D131" t="n">
+        <v>114.999934514017</v>
+      </c>
+      <c r="E131" t="n">
+        <v>4.000904825</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.06643961700000001</v>
+      </c>
+      <c r="G131" t="n">
+        <v>13.224877728</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>100</v>
+      </c>
+      <c r="B132" t="n">
+        <v>392.6982479448332</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1138.255791144444</v>
+      </c>
+      <c r="D132" t="n">
+        <v>115</v>
+      </c>
+      <c r="E132" t="n">
+        <v>3.96044305</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.067078391</v>
+      </c>
+      <c r="G132" t="n">
+        <v>13.089941598</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>100</v>
+      </c>
+      <c r="B133" t="n">
+        <v>393.0274504600566</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1139.210001333497</v>
+      </c>
+      <c r="D133" t="n">
+        <v>115</v>
+      </c>
+      <c r="E133" t="n">
+        <v>3.963733487</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.067025952</v>
+      </c>
+      <c r="G133" t="n">
+        <v>13.100915015</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>100</v>
+      </c>
+      <c r="B134" t="n">
+        <v>393.8486350390475</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1141.590246489992</v>
+      </c>
+      <c r="D134" t="n">
+        <v>115</v>
+      </c>
+      <c r="E134" t="n">
+        <v>3.971941401</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.066895528</v>
+      </c>
+      <c r="G134" t="n">
+        <v>13.128287835</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>100</v>
+      </c>
+      <c r="B135" t="n">
+        <v>396.7486428764033</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1149.996604566292</v>
+      </c>
+      <c r="D135" t="n">
+        <v>114.9999461354106</v>
+      </c>
+      <c r="E135" t="n">
+        <v>4.000927923</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.066439256</v>
+      </c>
+      <c r="G135" t="n">
+        <v>13.224954758</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>100</v>
+      </c>
+      <c r="B136" t="n">
+        <v>388.6464958896663</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1126.511582288887</v>
+      </c>
+      <c r="D136" t="n">
+        <v>115</v>
+      </c>
+      <c r="E136" t="n">
+        <v>3.919945623</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.06773106700000001</v>
+      </c>
+      <c r="G136" t="n">
+        <v>12.954883196</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>100</v>
+      </c>
+      <c r="B137" t="n">
+        <v>396.748766287865</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1149.996948717547</v>
+      </c>
+      <c r="D137" t="n">
+        <v>114.9999474917617</v>
+      </c>
+      <c r="E137" t="n">
+        <v>4.000929157</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.066439237</v>
+      </c>
+      <c r="G137" t="n">
+        <v>13.224958872</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>100</v>
+      </c>
+      <c r="B138" t="n">
+        <v>395.1292983840692</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1145.302314156722</v>
+      </c>
+      <c r="D138" t="n">
+        <v>115</v>
+      </c>
+      <c r="E138" t="n">
+        <v>3.984741985</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.06669321</v>
+      </c>
+      <c r="G138" t="n">
+        <v>13.170976613</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>100</v>
+      </c>
+      <c r="B139" t="n">
+        <v>388.9723560380518</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1127.456104458121</v>
+      </c>
+      <c r="D139" t="n">
+        <v>115</v>
+      </c>
+      <c r="E139" t="n">
+        <v>3.92320257</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.06767807300000001</v>
+      </c>
+      <c r="G139" t="n">
+        <v>12.965745201</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>100</v>
+      </c>
+      <c r="B140" t="n">
+        <v>390.180072128068</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1130.956730805994</v>
+      </c>
+      <c r="D140" t="n">
+        <v>115</v>
+      </c>
+      <c r="E140" t="n">
+        <v>3.935273659</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.06748243700000001</v>
+      </c>
+      <c r="G140" t="n">
+        <v>13.006002404</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>100</v>
+      </c>
+      <c r="B141" t="n">
+        <v>390.5843122329816</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1132.128441255019</v>
+      </c>
+      <c r="D141" t="n">
+        <v>115</v>
+      </c>
+      <c r="E141" t="n">
+        <v>3.939314048</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.067417225</v>
+      </c>
+      <c r="G141" t="n">
+        <v>13.019477074</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>100</v>
+      </c>
+      <c r="B142" t="n">
+        <v>390.9893907013727</v>
+      </c>
+      <c r="C142" t="n">
+        <v>1133.302581743109</v>
+      </c>
+      <c r="D142" t="n">
+        <v>115</v>
+      </c>
+      <c r="E142" t="n">
+        <v>3.943362827</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.067352013</v>
+      </c>
+      <c r="G142" t="n">
+        <v>13.03297969</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>100</v>
+      </c>
+      <c r="B143" t="n">
+        <v>393.4376141638976</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1140.398881634485</v>
+      </c>
+      <c r="D143" t="n">
+        <v>115</v>
+      </c>
+      <c r="E143" t="n">
+        <v>3.967833155</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.06696074</v>
+      </c>
+      <c r="G143" t="n">
+        <v>13.114587139</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>100</v>
+      </c>
+      <c r="B144" t="n">
+        <v>396.7475321732108</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1149.993463539107</v>
+      </c>
+      <c r="D144" t="n">
+        <v>114.9999382948534</v>
+      </c>
+      <c r="E144" t="n">
+        <v>4.000916822</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.06643942899999999</v>
+      </c>
+      <c r="G144" t="n">
+        <v>13.224917735</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>100</v>
+      </c>
+      <c r="B145" t="n">
+        <v>391.0775471227664</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1133.558107602221</v>
+      </c>
+      <c r="D145" t="n">
+        <v>115</v>
+      </c>
+      <c r="E145" t="n">
+        <v>3.944243956</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.067337839</v>
+      </c>
+      <c r="G145" t="n">
+        <v>13.035918237</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>100</v>
+      </c>
+      <c r="B146" t="n">
+        <v>396.7495067400562</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1149.999263994851</v>
+      </c>
+      <c r="D146" t="n">
+        <v>114.9999305882026</v>
+      </c>
+      <c r="E146" t="n">
+        <v>4.000936558</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.066439121</v>
+      </c>
+      <c r="G146" t="n">
+        <v>13.224983554</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>100</v>
+      </c>
+      <c r="B147" t="n">
+        <v>391.3953102939258</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1134.479160272248</v>
+      </c>
+      <c r="D147" t="n">
+        <v>115</v>
+      </c>
+      <c r="E147" t="n">
+        <v>3.947420023</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.06728680099999999</v>
+      </c>
+      <c r="G147" t="n">
+        <v>13.046510343</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>100</v>
+      </c>
+      <c r="B148" t="n">
+        <v>393.4376142568543</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1140.398881903925</v>
+      </c>
+      <c r="D148" t="n">
+        <v>115</v>
+      </c>
+      <c r="E148" t="n">
+        <v>3.967833156</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.06696074</v>
+      </c>
+      <c r="G148" t="n">
+        <v>13.114587142</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>100</v>
+      </c>
+      <c r="B149" t="n">
+        <v>396.7482726420115</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1149.995566251246</v>
+      </c>
+      <c r="D149" t="n">
+        <v>114.999942652485</v>
+      </c>
+      <c r="E149" t="n">
+        <v>4.000924223</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.066439314</v>
+      </c>
+      <c r="G149" t="n">
+        <v>13.224942417</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>100</v>
+      </c>
+      <c r="B150" t="n">
+        <v>394.3189469706844</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1142.953469480244</v>
+      </c>
+      <c r="D150" t="n">
+        <v>115</v>
+      </c>
+      <c r="E150" t="n">
+        <v>3.976642287</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.06682107599999999</v>
+      </c>
+      <c r="G150" t="n">
+        <v>13.143964899</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>100</v>
+      </c>
+      <c r="B151" t="n">
+        <v>396.7492599336671</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1149.998295687662</v>
+      </c>
+      <c r="D151" t="n">
+        <v>114.9999558806291</v>
+      </c>
+      <c r="E151" t="n">
+        <v>4.000934091</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.06643916</v>
+      </c>
+      <c r="G151" t="n">
+        <v>13.224975327</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>100</v>
+      </c>
+      <c r="B152" t="n">
+        <v>396.3448247944834</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1148.825579114444</v>
+      </c>
+      <c r="D152" t="n">
+        <v>115</v>
+      </c>
+      <c r="E152" t="n">
+        <v>3.996891596</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.066502344</v>
+      </c>
+      <c r="G152" t="n">
+        <v>13.21149416</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>100</v>
+      </c>
+      <c r="B153" t="n">
+        <v>396.7481657805238</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1149.994683421809</v>
+      </c>
+      <c r="D153" t="n">
+        <v>115</v>
+      </c>
+      <c r="E153" t="n">
+        <v>4.000923153</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.06643933</v>
+      </c>
+      <c r="G153" t="n">
+        <v>13.224938859</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>120</v>
+      </c>
+      <c r="B154" t="n">
+        <v>385.0000989867643</v>
+      </c>
+      <c r="C154" t="n">
+        <v>929.9519299197203</v>
+      </c>
+      <c r="D154" t="n">
+        <v>115</v>
+      </c>
+      <c r="E154" t="n">
+        <v>3.893965602</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.068330179</v>
+      </c>
+      <c r="G154" t="n">
+        <v>12.833336633</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>120</v>
+      </c>
+      <c r="B155" t="n">
+        <v>387.1767850835324</v>
+      </c>
+      <c r="C155" t="n">
+        <v>935.2096258056336</v>
+      </c>
+      <c r="D155" t="n">
+        <v>115</v>
+      </c>
+      <c r="E155" t="n">
+        <v>3.915723663</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.06797117900000001</v>
+      </c>
+      <c r="G155" t="n">
+        <v>12.905892836</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>120</v>
+      </c>
+      <c r="B156" t="n">
+        <v>389.3783254389941</v>
+      </c>
+      <c r="C156" t="n">
+        <v>940.5273561328358</v>
+      </c>
+      <c r="D156" t="n">
+        <v>115</v>
+      </c>
+      <c r="E156" t="n">
+        <v>3.937730476</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.067612163</v>
+      </c>
+      <c r="G156" t="n">
+        <v>12.979277515</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>120</v>
+      </c>
+      <c r="B157" t="n">
+        <v>391.6050450282949</v>
+      </c>
+      <c r="C157" t="n">
+        <v>945.9059058654462</v>
+      </c>
+      <c r="D157" t="n">
+        <v>115</v>
+      </c>
+      <c r="E157" t="n">
+        <v>3.959989294</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0.067253147</v>
+      </c>
+      <c r="G157" t="n">
+        <v>13.053501501</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>120</v>
+      </c>
+      <c r="B158" t="n">
+        <v>392.7585482416823</v>
+      </c>
+      <c r="C158" t="n">
+        <v>948.6921455113098</v>
+      </c>
+      <c r="D158" t="n">
+        <v>115</v>
+      </c>
+      <c r="E158" t="n">
+        <v>3.971520107</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0.067068767</v>
+      </c>
+      <c r="G158" t="n">
+        <v>13.091951608</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>120</v>
+      </c>
+      <c r="B159" t="n">
+        <v>418.6206450718045</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1011.16097843431</v>
+      </c>
+      <c r="D159" t="n">
+        <v>115</v>
+      </c>
+      <c r="E159" t="n">
+        <v>4.230066701</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0.06320165599999999</v>
+      </c>
+      <c r="G159" t="n">
+        <v>13.954021502</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>120</v>
+      </c>
+      <c r="B160" t="n">
+        <v>393.8573783177025</v>
+      </c>
+      <c r="C160" t="n">
+        <v>951.3463244388945</v>
+      </c>
+      <c r="D160" t="n">
+        <v>115</v>
+      </c>
+      <c r="E160" t="n">
+        <v>3.982504465</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0.066894131</v>
+      </c>
+      <c r="G160" t="n">
+        <v>13.128579277</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>120</v>
+      </c>
+      <c r="B161" t="n">
+        <v>396.1357698266527</v>
+      </c>
+      <c r="C161" t="n">
+        <v>956.8496855716246</v>
+      </c>
+      <c r="D161" t="n">
+        <v>115</v>
+      </c>
+      <c r="E161" t="n">
+        <v>4.005280439</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0.06653511400000001</v>
+      </c>
+      <c r="G161" t="n">
+        <v>13.204525661</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>120</v>
+      </c>
+      <c r="B162" t="n">
+        <v>398.4406760832629</v>
+      </c>
+      <c r="C162" t="n">
+        <v>962.4170919885574</v>
+      </c>
+      <c r="D162" t="n">
+        <v>115</v>
+      </c>
+      <c r="E162" t="n">
+        <v>4.028321784</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.066176098</v>
+      </c>
+      <c r="G162" t="n">
+        <v>13.281355869</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>120</v>
+      </c>
+      <c r="B163" t="n">
+        <v>400.7725594992115</v>
+      </c>
+      <c r="C163" t="n">
+        <v>968.0496606261145</v>
+      </c>
+      <c r="D163" t="n">
+        <v>115</v>
+      </c>
+      <c r="E163" t="n">
+        <v>4.051633129</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.065817081</v>
+      </c>
+      <c r="G163" t="n">
+        <v>13.359085317</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>120</v>
+      </c>
+      <c r="B164" t="n">
+        <v>393.8573794563146</v>
+      </c>
+      <c r="C164" t="n">
+        <v>951.3463271891654</v>
+      </c>
+      <c r="D164" t="n">
+        <v>115</v>
+      </c>
+      <c r="E164" t="n">
+        <v>3.982504476</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0.06689413</v>
+      </c>
+      <c r="G164" t="n">
+        <v>13.128579315</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>120</v>
+      </c>
+      <c r="B165" t="n">
+        <v>403.1318980526016</v>
+      </c>
+      <c r="C165" t="n">
+        <v>973.7485460207764</v>
+      </c>
+      <c r="D165" t="n">
+        <v>115</v>
+      </c>
+      <c r="E165" t="n">
+        <v>4.075219258</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.065458065</v>
+      </c>
+      <c r="G165" t="n">
+        <v>13.437729935</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>120</v>
+      </c>
+      <c r="B166" t="n">
+        <v>396.1357709317921</v>
+      </c>
+      <c r="C166" t="n">
+        <v>956.8496882410435</v>
+      </c>
+      <c r="D166" t="n">
+        <v>115</v>
+      </c>
+      <c r="E166" t="n">
+        <v>4.00528045</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.06653511400000001</v>
+      </c>
+      <c r="G166" t="n">
+        <v>13.204525698</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>120</v>
+      </c>
+      <c r="B167" t="n">
+        <v>405.5191793466723</v>
+      </c>
+      <c r="C167" t="n">
+        <v>979.5149259581456</v>
+      </c>
+      <c r="D167" t="n">
+        <v>115</v>
+      </c>
+      <c r="E167" t="n">
+        <v>4.09908505</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.06509904900000001</v>
+      </c>
+      <c r="G167" t="n">
+        <v>13.517305978</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>120</v>
+      </c>
+      <c r="B168" t="n">
+        <v>398.4406754911278</v>
+      </c>
+      <c r="C168" t="n">
+        <v>962.4170905582794</v>
+      </c>
+      <c r="D168" t="n">
+        <v>115</v>
+      </c>
+      <c r="E168" t="n">
+        <v>4.028321778</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.066176098</v>
+      </c>
+      <c r="G168" t="n">
+        <v>13.28135585</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>120</v>
+      </c>
+      <c r="B169" t="n">
+        <v>407.9349028389971</v>
+      </c>
+      <c r="C169" t="n">
+        <v>985.3500068574806</v>
+      </c>
+      <c r="D169" t="n">
+        <v>115</v>
+      </c>
+      <c r="E169" t="n">
+        <v>4.123235505</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.064740033</v>
+      </c>
+      <c r="G169" t="n">
+        <v>13.597830095</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>120</v>
+      </c>
+      <c r="B170" t="n">
+        <v>421.2068547548167</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1017.40786172661</v>
+      </c>
+      <c r="D170" t="n">
+        <v>115</v>
+      </c>
+      <c r="E170" t="n">
+        <v>4.255923339</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.062841063</v>
+      </c>
+      <c r="G170" t="n">
+        <v>14.040228492</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>120</v>
+      </c>
+      <c r="B171" t="n">
+        <v>410.3795798832339</v>
+      </c>
+      <c r="C171" t="n">
+        <v>991.2550238725453</v>
+      </c>
+      <c r="D171" t="n">
+        <v>115</v>
+      </c>
+      <c r="E171" t="n">
+        <v>4.147675739</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0.064381016</v>
+      </c>
+      <c r="G171" t="n">
+        <v>13.679319329</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>120</v>
+      </c>
+      <c r="B172" t="n">
+        <v>412.8537341646671</v>
+      </c>
+      <c r="C172" t="n">
+        <v>997.2312419436402</v>
+      </c>
+      <c r="D172" t="n">
+        <v>115</v>
+      </c>
+      <c r="E172" t="n">
+        <v>4.172410996</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.064022</v>
+      </c>
+      <c r="G172" t="n">
+        <v>13.761791139</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>120</v>
+      </c>
+      <c r="B173" t="n">
+        <v>415.3579020741543</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1003.279956700855</v>
+      </c>
+      <c r="D173" t="n">
+        <v>115</v>
+      </c>
+      <c r="E173" t="n">
+        <v>4.197446642</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0.06366298400000001</v>
+      </c>
+      <c r="G173" t="n">
+        <v>13.845263402</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>120</v>
+      </c>
+      <c r="B174" t="n">
+        <v>417.8926330958039</v>
+      </c>
+      <c r="C174" t="n">
+        <v>1009.402495400492</v>
+      </c>
+      <c r="D174" t="n">
+        <v>115</v>
+      </c>
+      <c r="E174" t="n">
+        <v>4.222788178</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0.063303967</v>
+      </c>
+      <c r="G174" t="n">
+        <v>13.929754437</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>120</v>
+      </c>
+      <c r="B175" t="n">
+        <v>428.3486591822919</v>
+      </c>
+      <c r="C175" t="n">
+        <v>1034.658597058676</v>
+      </c>
+      <c r="D175" t="n">
+        <v>115</v>
+      </c>
+      <c r="E175" t="n">
+        <v>4.327328023</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0.061867902</v>
+      </c>
+      <c r="G175" t="n">
+        <v>14.278288639</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>120</v>
+      </c>
+      <c r="B176" t="n">
+        <v>420.4584902720661</v>
+      </c>
+      <c r="C176" t="n">
+        <v>1015.600218048469</v>
+      </c>
+      <c r="D176" t="n">
+        <v>115</v>
+      </c>
+      <c r="E176" t="n">
+        <v>4.248441239</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0.062944951</v>
+      </c>
+      <c r="G176" t="n">
+        <v>14.015283009</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>120</v>
+      </c>
+      <c r="B177" t="n">
+        <v>431.0449352803309</v>
+      </c>
+      <c r="C177" t="n">
+        <v>1041.171341256838</v>
+      </c>
+      <c r="D177" t="n">
+        <v>115</v>
+      </c>
+      <c r="E177" t="n">
+        <v>4.354286376</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0.061508886</v>
+      </c>
+      <c r="G177" t="n">
+        <v>14.368164509</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>120</v>
+      </c>
+      <c r="B178" t="n">
+        <v>423.0560501552255</v>
+      </c>
+      <c r="C178" t="n">
+        <v>1021.874517283153</v>
+      </c>
+      <c r="D178" t="n">
+        <v>115</v>
+      </c>
+      <c r="E178" t="n">
+        <v>4.274411595</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0.062585935</v>
+      </c>
+      <c r="G178" t="n">
+        <v>14.101868339</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>120</v>
+      </c>
+      <c r="B179" t="n">
+        <v>433.7753699435513</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1047.766594066549</v>
+      </c>
+      <c r="D179" t="n">
+        <v>115</v>
+      </c>
+      <c r="E179" t="n">
+        <v>4.381586603</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0.061149869</v>
+      </c>
+      <c r="G179" t="n">
+        <v>14.459178998</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>120</v>
+      </c>
+      <c r="B180" t="n">
+        <v>425.685904282296</v>
+      </c>
+      <c r="C180" t="n">
+        <v>1028.226821937913</v>
+      </c>
+      <c r="D180" t="n">
+        <v>115</v>
+      </c>
+      <c r="E180" t="n">
+        <v>4.300705166</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0.062226918</v>
+      </c>
+      <c r="G180" t="n">
+        <v>14.189530143</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>120</v>
+      </c>
+      <c r="B181" t="n">
+        <v>436.5406164453967</v>
+      </c>
+      <c r="C181" t="n">
+        <v>1054.445933442987</v>
+      </c>
+      <c r="D181" t="n">
+        <v>115</v>
+      </c>
+      <c r="E181" t="n">
+        <v>4.409235242</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0.060790853</v>
+      </c>
+      <c r="G181" t="n">
+        <v>14.551353882</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>120</v>
+      </c>
+      <c r="B182" t="n">
+        <v>428.3486586837353</v>
+      </c>
+      <c r="C182" t="n">
+        <v>1034.658595854433</v>
+      </c>
+      <c r="D182" t="n">
+        <v>115</v>
+      </c>
+      <c r="E182" t="n">
+        <v>4.327328018</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0.061867902</v>
+      </c>
+      <c r="G182" t="n">
+        <v>14.278288623</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>120</v>
+      </c>
+      <c r="B183" t="n">
+        <v>439.3413448241349</v>
+      </c>
+      <c r="C183" t="n">
+        <v>1061.210977836074</v>
+      </c>
+      <c r="D183" t="n">
+        <v>115</v>
+      </c>
+      <c r="E183" t="n">
+        <v>4.437239001</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0.060431837</v>
+      </c>
+      <c r="G183" t="n">
+        <v>14.644711494</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>120</v>
+      </c>
+      <c r="B184" t="n">
+        <v>434.1379031698779</v>
+      </c>
+      <c r="C184" t="n">
+        <v>1048.642278188111</v>
+      </c>
+      <c r="D184" t="n">
+        <v>115</v>
+      </c>
+      <c r="E184" t="n">
+        <v>4.385211414</v>
+      </c>
+      <c r="F184" t="n">
+        <v>0.061102541</v>
+      </c>
+      <c r="G184" t="n">
+        <v>14.471263439</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>120</v>
+      </c>
+      <c r="B185" t="n">
+        <v>442.1782424241244</v>
+      </c>
+      <c r="C185" t="n">
+        <v>1068.063387497885</v>
+      </c>
+      <c r="D185" t="n">
+        <v>115</v>
+      </c>
+      <c r="E185" t="n">
+        <v>4.465604757</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0.06007282</v>
+      </c>
+      <c r="G185" t="n">
+        <v>14.739274747</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>120</v>
+      </c>
+      <c r="B186" t="n">
+        <v>445.0520144581864</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1075.00486584103</v>
+      </c>
+      <c r="D186" t="n">
+        <v>115</v>
+      </c>
+      <c r="E186" t="n">
+        <v>4.49433957</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0.059713804</v>
+      </c>
+      <c r="G186" t="n">
+        <v>14.835067149</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>120</v>
+      </c>
+      <c r="B187" t="n">
+        <v>447.9633845920504</v>
+      </c>
+      <c r="C187" t="n">
+        <v>1082.037160850363</v>
+      </c>
+      <c r="D187" t="n">
+        <v>115</v>
+      </c>
+      <c r="E187" t="n">
+        <v>4.523450681</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0.059354788</v>
+      </c>
+      <c r="G187" t="n">
+        <v>14.93211282</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>120</v>
+      </c>
+      <c r="B188" t="n">
+        <v>423.0560503806961</v>
+      </c>
+      <c r="C188" t="n">
+        <v>1021.874517827768</v>
+      </c>
+      <c r="D188" t="n">
+        <v>115</v>
+      </c>
+      <c r="E188" t="n">
+        <v>4.274411597</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0.062585935</v>
+      </c>
+      <c r="G188" t="n">
+        <v>14.101868346</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>120</v>
+      </c>
+      <c r="B189" t="n">
+        <v>453.9019097560224</v>
+      </c>
+      <c r="C189" t="n">
+        <v>1096.381424531455</v>
+      </c>
+      <c r="D189" t="n">
+        <v>115</v>
+      </c>
+      <c r="E189" t="n">
+        <v>4.582831731</v>
+      </c>
+      <c r="F189" t="n">
+        <v>0.058636755</v>
+      </c>
+      <c r="G189" t="n">
+        <v>15.130063659</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>120</v>
+      </c>
+      <c r="B190" t="n">
+        <v>425.6859044930109</v>
+      </c>
+      <c r="C190" t="n">
+        <v>1028.226822446886</v>
+      </c>
+      <c r="D190" t="n">
+        <v>115</v>
+      </c>
+      <c r="E190" t="n">
+        <v>4.300705168</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0.062226918</v>
+      </c>
+      <c r="G190" t="n">
+        <v>14.18953015</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>120</v>
+      </c>
+      <c r="B191" t="n">
+        <v>428.3486588793327</v>
+      </c>
+      <c r="C191" t="n">
+        <v>1034.65859632689</v>
+      </c>
+      <c r="D191" t="n">
+        <v>115</v>
+      </c>
+      <c r="E191" t="n">
+        <v>4.32732802</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0.061867902</v>
+      </c>
+      <c r="G191" t="n">
+        <v>14.278288629</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>120</v>
+      </c>
+      <c r="B192" t="n">
+        <v>459.9973390165134</v>
+      </c>
+      <c r="C192" t="n">
+        <v>1111.105254414444</v>
+      </c>
+      <c r="D192" t="n">
+        <v>114.9999408885959</v>
+      </c>
+      <c r="E192" t="n">
+        <v>4.643783175</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0.057919032</v>
+      </c>
+      <c r="G192" t="n">
+        <v>15.333244629</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>120</v>
+      </c>
+      <c r="B193" t="n">
+        <v>431.5516934868656</v>
+      </c>
+      <c r="C193" t="n">
+        <v>1042.39539489581</v>
+      </c>
+      <c r="D193" t="n">
+        <v>115</v>
+      </c>
+      <c r="E193" t="n">
+        <v>4.359353167</v>
+      </c>
+      <c r="F193" t="n">
+        <v>0.06144191</v>
+      </c>
+      <c r="G193" t="n">
+        <v>14.38505645</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>120</v>
+      </c>
+      <c r="B194" t="n">
+        <v>387.5861288756579</v>
+      </c>
+      <c r="C194" t="n">
+        <v>936.1983789267098</v>
+      </c>
+      <c r="D194" t="n">
+        <v>115</v>
+      </c>
+      <c r="E194" t="n">
+        <v>3.919815481</v>
+      </c>
+      <c r="F194" t="n">
+        <v>0.067904117</v>
+      </c>
+      <c r="G194" t="n">
+        <v>12.919537629</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>120</v>
+      </c>
+      <c r="B195" t="n">
+        <v>389.3783258401537</v>
+      </c>
+      <c r="C195" t="n">
+        <v>940.5273571018204</v>
+      </c>
+      <c r="D195" t="n">
+        <v>115</v>
+      </c>
+      <c r="E195" t="n">
+        <v>3.93773048</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0.067612163</v>
+      </c>
+      <c r="G195" t="n">
+        <v>12.979277528</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>120</v>
+      </c>
+      <c r="B196" t="n">
+        <v>391.6050454188082</v>
+      </c>
+      <c r="C196" t="n">
+        <v>945.9059068087153</v>
+      </c>
+      <c r="D196" t="n">
+        <v>115</v>
+      </c>
+      <c r="E196" t="n">
+        <v>3.959989298</v>
+      </c>
+      <c r="F196" t="n">
+        <v>0.067253147</v>
+      </c>
+      <c r="G196" t="n">
+        <v>13.053501514</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>120</v>
+      </c>
+      <c r="B197" t="n">
+        <v>393.8573786973392</v>
+      </c>
+      <c r="C197" t="n">
+        <v>951.3463253558916</v>
+      </c>
+      <c r="D197" t="n">
+        <v>115</v>
+      </c>
+      <c r="E197" t="n">
+        <v>3.982504469</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0.066894131</v>
+      </c>
+      <c r="G197" t="n">
+        <v>13.12857929</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>120</v>
+      </c>
+      <c r="B198" t="n">
+        <v>396.1357701951485</v>
+      </c>
+      <c r="C198" t="n">
+        <v>956.8496864617111</v>
+      </c>
+      <c r="D198" t="n">
+        <v>115</v>
+      </c>
+      <c r="E198" t="n">
+        <v>4.005280442</v>
+      </c>
+      <c r="F198" t="n">
+        <v>0.06653511400000001</v>
+      </c>
+      <c r="G198" t="n">
+        <v>13.204525673</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>120</v>
+      </c>
+      <c r="B199" t="n">
+        <v>398.4406747772756</v>
+      </c>
+      <c r="C199" t="n">
+        <v>962.4170888339988</v>
+      </c>
+      <c r="D199" t="n">
+        <v>115</v>
+      </c>
+      <c r="E199" t="n">
+        <v>4.028321771</v>
+      </c>
+      <c r="F199" t="n">
+        <v>0.066176098</v>
+      </c>
+      <c r="G199" t="n">
+        <v>13.281355826</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>120</v>
+      </c>
+      <c r="B200" t="n">
+        <v>390.1723385586702</v>
+      </c>
+      <c r="C200" t="n">
+        <v>942.4452622190098</v>
+      </c>
+      <c r="D200" t="n">
+        <v>115</v>
+      </c>
+      <c r="E200" t="n">
+        <v>3.945667584</v>
+      </c>
+      <c r="F200" t="n">
+        <v>0.06748367399999999</v>
+      </c>
+      <c r="G200" t="n">
+        <v>13.005744619</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>120</v>
+      </c>
+      <c r="B201" t="n">
+        <v>391.6050458092218</v>
+      </c>
+      <c r="C201" t="n">
+        <v>945.9059077517433</v>
+      </c>
+      <c r="D201" t="n">
+        <v>115</v>
+      </c>
+      <c r="E201" t="n">
+        <v>3.959989301</v>
+      </c>
+      <c r="F201" t="n">
+        <v>0.067253147</v>
+      </c>
+      <c r="G201" t="n">
+        <v>13.053501527</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>120</v>
+      </c>
+      <c r="B202" t="n">
+        <v>393.8573790768575</v>
+      </c>
+      <c r="C202" t="n">
+        <v>951.3463262726024</v>
+      </c>
+      <c r="D202" t="n">
+        <v>115</v>
+      </c>
+      <c r="E202" t="n">
+        <v>3.982504472</v>
+      </c>
+      <c r="F202" t="n">
+        <v>0.06689413</v>
+      </c>
+      <c r="G202" t="n">
+        <v>13.128579303</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>120</v>
+      </c>
+      <c r="B203" t="n">
+        <v>447.0689496393051</v>
+      </c>
+      <c r="C203" t="n">
+        <v>1079.876689950012</v>
+      </c>
+      <c r="D203" t="n">
+        <v>115</v>
+      </c>
+      <c r="E203" t="n">
+        <v>4.514507089</v>
+      </c>
+      <c r="F203" t="n">
+        <v>0.059464588</v>
+      </c>
+      <c r="G203" t="n">
+        <v>14.902298321</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>120</v>
+      </c>
+      <c r="B204" t="n">
+        <v>396.1357705635362</v>
+      </c>
+      <c r="C204" t="n">
+        <v>956.8496873515365</v>
+      </c>
+      <c r="D204" t="n">
+        <v>115</v>
+      </c>
+      <c r="E204" t="n">
+        <v>4.005280446</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0.06653511400000001</v>
+      </c>
+      <c r="G204" t="n">
+        <v>13.204525685</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>120</v>
+      </c>
+      <c r="B205" t="n">
+        <v>398.4406751342627</v>
+      </c>
+      <c r="C205" t="n">
+        <v>962.4170896962866</v>
+      </c>
+      <c r="D205" t="n">
+        <v>115</v>
+      </c>
+      <c r="E205" t="n">
+        <v>4.028321775</v>
+      </c>
+      <c r="F205" t="n">
+        <v>0.066176098</v>
+      </c>
+      <c r="G205" t="n">
+        <v>13.281355838</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>120</v>
+      </c>
+      <c r="B206" t="n">
+        <v>395.3447579246946</v>
+      </c>
+      <c r="C206" t="n">
+        <v>954.9390288036099</v>
+      </c>
+      <c r="D206" t="n">
+        <v>115</v>
+      </c>
+      <c r="E206" t="n">
+        <v>3.997373041</v>
+      </c>
+      <c r="F206" t="n">
+        <v>0.066659289</v>
+      </c>
+      <c r="G206" t="n">
+        <v>13.178158597</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>120</v>
+      </c>
+      <c r="B207" t="n">
+        <v>441.8965282791428</v>
+      </c>
+      <c r="C207" t="n">
+        <v>1067.382918548654</v>
+      </c>
+      <c r="D207" t="n">
+        <v>115</v>
+      </c>
+      <c r="E207" t="n">
+        <v>4.46278792</v>
+      </c>
+      <c r="F207" t="n">
+        <v>0.060108266</v>
+      </c>
+      <c r="G207" t="n">
+        <v>14.729884276</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>120</v>
+      </c>
+      <c r="B208" t="n">
+        <v>396.1357712999838</v>
+      </c>
+      <c r="C208" t="n">
+        <v>956.8496891303954</v>
+      </c>
+      <c r="D208" t="n">
+        <v>115</v>
+      </c>
+      <c r="E208" t="n">
+        <v>4.005280453</v>
+      </c>
+      <c r="F208" t="n">
+        <v>0.06653511400000001</v>
+      </c>
+      <c r="G208" t="n">
+        <v>13.20452571</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>120</v>
+      </c>
+      <c r="B209" t="n">
+        <v>398.4406758478597</v>
+      </c>
+      <c r="C209" t="n">
+        <v>962.4170914199508</v>
+      </c>
+      <c r="D209" t="n">
+        <v>115</v>
+      </c>
+      <c r="E209" t="n">
+        <v>4.028321782</v>
+      </c>
+      <c r="F209" t="n">
+        <v>0.066176098</v>
+      </c>
+      <c r="G209" t="n">
+        <v>13.281355862</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>120</v>
+      </c>
+      <c r="B210" t="n">
+        <v>400.517177290719</v>
+      </c>
+      <c r="C210" t="n">
+        <v>967.43279538821</v>
+      </c>
+      <c r="D210" t="n">
+        <v>115</v>
+      </c>
+      <c r="E210" t="n">
+        <v>4.049080112</v>
+      </c>
+      <c r="F210" t="n">
+        <v>0.06585619600000001</v>
+      </c>
+      <c r="G210" t="n">
+        <v>13.350572576</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>120</v>
+      </c>
+      <c r="B211" t="n">
+        <v>405.6895966567434</v>
+      </c>
+      <c r="C211" t="n">
+        <v>979.9265619728098</v>
+      </c>
+      <c r="D211" t="n">
+        <v>115</v>
+      </c>
+      <c r="E211" t="n">
+        <v>4.100788734</v>
+      </c>
+      <c r="F211" t="n">
+        <v>0.065073582</v>
+      </c>
+      <c r="G211" t="n">
+        <v>13.522986555</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>120</v>
+      </c>
+      <c r="B212" t="n">
+        <v>410.8620160227679</v>
+      </c>
+      <c r="C212" t="n">
+        <v>992.4203285574101</v>
+      </c>
+      <c r="D212" t="n">
+        <v>115</v>
+      </c>
+      <c r="E212" t="n">
+        <v>4.152498849</v>
+      </c>
+      <c r="F212" t="n">
+        <v>0.064310672</v>
+      </c>
+      <c r="G212" t="n">
+        <v>13.695400534</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>120</v>
+      </c>
+      <c r="B213" t="n">
+        <v>447.9633843777717</v>
+      </c>
+      <c r="C213" t="n">
+        <v>1082.037160332781</v>
+      </c>
+      <c r="D213" t="n">
+        <v>115</v>
+      </c>
+      <c r="E213" t="n">
+        <v>4.523450679</v>
+      </c>
+      <c r="F213" t="n">
+        <v>0.059354788</v>
+      </c>
+      <c r="G213" t="n">
+        <v>14.932112813</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>120</v>
+      </c>
+      <c r="B214" t="n">
+        <v>403.1033869737313</v>
+      </c>
+      <c r="C214" t="n">
+        <v>973.6796786805101</v>
+      </c>
+      <c r="D214" t="n">
+        <v>115</v>
+      </c>
+      <c r="E214" t="n">
+        <v>4.074934233</v>
+      </c>
+      <c r="F214" t="n">
+        <v>0.065462379</v>
+      </c>
+      <c r="G214" t="n">
+        <v>13.436779566</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>120</v>
+      </c>
+      <c r="B215" t="n">
+        <v>450.913095578069</v>
+      </c>
+      <c r="C215" t="n">
+        <v>1089.162066613693</v>
+      </c>
+      <c r="D215" t="n">
+        <v>115</v>
+      </c>
+      <c r="E215" t="n">
+        <v>4.552945525</v>
+      </c>
+      <c r="F215" t="n">
+        <v>0.058995772</v>
+      </c>
+      <c r="G215" t="n">
+        <v>15.030436519</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>120</v>
+      </c>
+      <c r="B216" t="n">
+        <v>459.9940547728336</v>
+      </c>
+      <c r="C216" t="n">
+        <v>1111.096750659019</v>
+      </c>
+      <c r="D216" t="n">
+        <v>115</v>
+      </c>
+      <c r="E216" t="n">
+        <v>4.643750331</v>
+      </c>
+      <c r="F216" t="n">
+        <v>0.057919413</v>
+      </c>
+      <c r="G216" t="n">
+        <v>15.333135159</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>120</v>
+      </c>
+      <c r="B217" t="n">
+        <v>416.0344353887923</v>
+      </c>
+      <c r="C217" t="n">
+        <v>1004.91409514201</v>
+      </c>
+      <c r="D217" t="n">
+        <v>115</v>
+      </c>
+      <c r="E217" t="n">
+        <v>4.204210402</v>
+      </c>
+      <c r="F217" t="n">
+        <v>0.063566732</v>
+      </c>
+      <c r="G217" t="n">
+        <v>13.867814513</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>120</v>
+      </c>
+      <c r="B218" t="n">
+        <v>454.8275803372832</v>
+      </c>
+      <c r="C218" t="n">
+        <v>1098.617343809862</v>
+      </c>
+      <c r="D218" t="n">
+        <v>115</v>
+      </c>
+      <c r="E218" t="n">
+        <v>4.59208791</v>
+      </c>
+      <c r="F218" t="n">
+        <v>0.058526521</v>
+      </c>
+      <c r="G218" t="n">
+        <v>15.160919345</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>120</v>
+      </c>
+      <c r="B219" t="n">
+        <v>413.4482257057801</v>
+      </c>
+      <c r="C219" t="n">
+        <v>998.6672118497102</v>
+      </c>
+      <c r="D219" t="n">
+        <v>115</v>
+      </c>
+      <c r="E219" t="n">
+        <v>4.178354449</v>
+      </c>
+      <c r="F219" t="n">
+        <v>0.063936375</v>
+      </c>
+      <c r="G219" t="n">
+        <v>13.781607524</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>120</v>
+      </c>
+      <c r="B220" t="n">
+        <v>428.9654838038534</v>
+      </c>
+      <c r="C220" t="n">
+        <v>1036.148511603511</v>
+      </c>
+      <c r="D220" t="n">
+        <v>115</v>
+      </c>
+      <c r="E220" t="n">
+        <v>4.333495231</v>
+      </c>
+      <c r="F220" t="n">
+        <v>0.061785372</v>
+      </c>
+      <c r="G220" t="n">
+        <v>14.29884946</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>120</v>
+      </c>
+      <c r="B221" t="n">
+        <v>417.8926331414573</v>
+      </c>
+      <c r="C221" t="n">
+        <v>1009.402495510766</v>
+      </c>
+      <c r="D221" t="n">
+        <v>115</v>
+      </c>
+      <c r="E221" t="n">
+        <v>4.222788179</v>
+      </c>
+      <c r="F221" t="n">
+        <v>0.063303967</v>
+      </c>
+      <c r="G221" t="n">
+        <v>13.929754438</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>120</v>
+      </c>
+      <c r="B222" t="n">
+        <v>420.4584900320376</v>
+      </c>
+      <c r="C222" t="n">
+        <v>1015.60021746869</v>
+      </c>
+      <c r="D222" t="n">
+        <v>115</v>
+      </c>
+      <c r="E222" t="n">
+        <v>4.248441237</v>
+      </c>
+      <c r="F222" t="n">
+        <v>0.062944951</v>
+      </c>
+      <c r="G222" t="n">
+        <v>14.015283001</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>120</v>
+      </c>
+      <c r="B223" t="n">
+        <v>423.0560499296048</v>
+      </c>
+      <c r="C223" t="n">
+        <v>1021.874516738176</v>
+      </c>
+      <c r="D223" t="n">
+        <v>115</v>
+      </c>
+      <c r="E223" t="n">
+        <v>4.274411593</v>
+      </c>
+      <c r="F223" t="n">
+        <v>0.062585935</v>
+      </c>
+      <c r="G223" t="n">
+        <v>14.101868331</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>120</v>
+      </c>
+      <c r="B224" t="n">
+        <v>425.6859040714346</v>
+      </c>
+      <c r="C224" t="n">
+        <v>1028.226821428586</v>
+      </c>
+      <c r="D224" t="n">
+        <v>115</v>
+      </c>
+      <c r="E224" t="n">
+        <v>4.300705164</v>
+      </c>
+      <c r="F224" t="n">
+        <v>0.062226918</v>
+      </c>
+      <c r="G224" t="n">
+        <v>14.189530136</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>120</v>
+      </c>
+      <c r="B225" t="n">
+        <v>428.3486584879904</v>
+      </c>
+      <c r="C225" t="n">
+        <v>1034.658595381619</v>
+      </c>
+      <c r="D225" t="n">
+        <v>115</v>
+      </c>
+      <c r="E225" t="n">
+        <v>4.327328016</v>
+      </c>
+      <c r="F225" t="n">
+        <v>0.061867902</v>
+      </c>
+      <c r="G225" t="n">
+        <v>14.278288616</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>120</v>
+      </c>
+      <c r="B226" t="n">
+        <v>426.3792741208412</v>
+      </c>
+      <c r="C226" t="n">
+        <v>1029.901628311211</v>
+      </c>
+      <c r="D226" t="n">
+        <v>115</v>
+      </c>
+      <c r="E226" t="n">
+        <v>4.30763761</v>
+      </c>
+      <c r="F226" t="n">
+        <v>0.062133</v>
+      </c>
+      <c r="G226" t="n">
+        <v>14.212642471</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>120</v>
+      </c>
+      <c r="B227" t="n">
+        <v>444.4827390543338</v>
+      </c>
+      <c r="C227" t="n">
+        <v>1073.629804479067</v>
+      </c>
+      <c r="D227" t="n">
+        <v>115</v>
+      </c>
+      <c r="E227" t="n">
+        <v>4.488647364</v>
+      </c>
+      <c r="F227" t="n">
+        <v>0.059784554</v>
+      </c>
+      <c r="G227" t="n">
+        <v>14.816091302</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>120</v>
+      </c>
+      <c r="B228" t="n">
+        <v>459.9976223097555</v>
+      </c>
+      <c r="C228" t="n">
+        <v>1111.105938700203</v>
+      </c>
+      <c r="D228" t="n">
+        <v>114.9999408883687</v>
+      </c>
+      <c r="E228" t="n">
+        <v>4.643786007</v>
+      </c>
+      <c r="F228" t="n">
+        <v>0.057918999</v>
+      </c>
+      <c r="G228" t="n">
+        <v>15.333254073</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>120</v>
+      </c>
+      <c r="B229" t="n">
+        <v>428.348659270075</v>
+      </c>
+      <c r="C229" t="n">
+        <v>1034.658597270712</v>
+      </c>
+      <c r="D229" t="n">
+        <v>115</v>
+      </c>
+      <c r="E229" t="n">
+        <v>4.327328024</v>
+      </c>
+      <c r="F229" t="n">
+        <v>0.061867902</v>
+      </c>
+      <c r="G229" t="n">
+        <v>14.278288642</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>120</v>
+      </c>
+      <c r="B230" t="n">
+        <v>436.7241128528901</v>
+      </c>
+      <c r="C230" t="n">
+        <v>1054.889161480411</v>
+      </c>
+      <c r="D230" t="n">
+        <v>115</v>
+      </c>
+      <c r="E230" t="n">
+        <v>4.411069965</v>
+      </c>
+      <c r="F230" t="n">
+        <v>0.06076719</v>
+      </c>
+      <c r="G230" t="n">
+        <v>14.557470428</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>120</v>
+      </c>
+      <c r="B231" t="n">
+        <v>452.2413702727058</v>
+      </c>
+      <c r="C231" t="n">
+        <v>1092.370459595908</v>
+      </c>
+      <c r="D231" t="n">
+        <v>115</v>
+      </c>
+      <c r="E231" t="n">
+        <v>4.566227367</v>
+      </c>
+      <c r="F231" t="n">
+        <v>0.058835633</v>
+      </c>
+      <c r="G231" t="n">
+        <v>15.074712342</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>120</v>
+      </c>
+      <c r="B232" t="n">
+        <v>397.9309676077068</v>
+      </c>
+      <c r="C232" t="n">
+        <v>961.1859120959099</v>
+      </c>
+      <c r="D232" t="n">
+        <v>115</v>
+      </c>
+      <c r="E232" t="n">
+        <v>4.023226379</v>
+      </c>
+      <c r="F232" t="n">
+        <v>0.06625513299999999</v>
+      </c>
+      <c r="G232" t="n">
+        <v>13.264365587</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>120</v>
+      </c>
+      <c r="B233" t="n">
+        <v>398.4406752338759</v>
+      </c>
+      <c r="C233" t="n">
+        <v>962.4170899368982</v>
+      </c>
+      <c r="D233" t="n">
+        <v>115</v>
+      </c>
+      <c r="E233" t="n">
+        <v>4.028321776</v>
+      </c>
+      <c r="F233" t="n">
+        <v>0.066176098</v>
+      </c>
+      <c r="G233" t="n">
+        <v>13.281355841</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>120</v>
+      </c>
+      <c r="B234" t="n">
+        <v>408.2758063397557</v>
+      </c>
+      <c r="C234" t="n">
+        <v>986.1734452651101</v>
+      </c>
+      <c r="D234" t="n">
+        <v>115</v>
+      </c>
+      <c r="E234" t="n">
+        <v>4.126643609</v>
+      </c>
+      <c r="F234" t="n">
+        <v>0.064689711</v>
+      </c>
+      <c r="G234" t="n">
+        <v>13.609193545</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>120</v>
+      </c>
+      <c r="B235" t="n">
+        <v>423.793064437829</v>
+      </c>
+      <c r="C235" t="n">
+        <v>1023.65474501891</v>
+      </c>
+      <c r="D235" t="n">
+        <v>115</v>
+      </c>
+      <c r="E235" t="n">
+        <v>4.281780311</v>
+      </c>
+      <c r="F235" t="n">
+        <v>0.062484871</v>
+      </c>
+      <c r="G235" t="n">
+        <v>14.126435481</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>120</v>
+      </c>
+      <c r="B236" t="n">
+        <v>453.9019098112544</v>
+      </c>
+      <c r="C236" t="n">
+        <v>1096.381424664866</v>
+      </c>
+      <c r="D236" t="n">
+        <v>115</v>
+      </c>
+      <c r="E236" t="n">
+        <v>4.582831732</v>
+      </c>
+      <c r="F236" t="n">
+        <v>0.058636755</v>
+      </c>
+      <c r="G236" t="n">
+        <v>15.13006366</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>120</v>
+      </c>
+      <c r="B237" t="n">
+        <v>456.9306099784139</v>
+      </c>
+      <c r="C237" t="n">
+        <v>1103.697125551724</v>
+      </c>
+      <c r="D237" t="n">
+        <v>115</v>
+      </c>
+      <c r="E237" t="n">
+        <v>4.613117135</v>
+      </c>
+      <c r="F237" t="n">
+        <v>0.058277739</v>
+      </c>
+      <c r="G237" t="n">
+        <v>15.231020333</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>120</v>
+      </c>
+      <c r="B238" t="n">
+        <v>459.9964332641972</v>
+      </c>
+      <c r="C238" t="n">
+        <v>1111.103066601352</v>
+      </c>
+      <c r="D238" t="n">
+        <v>114.9999408890534</v>
+      </c>
+      <c r="E238" t="n">
+        <v>4.643774117</v>
+      </c>
+      <c r="F238" t="n">
+        <v>0.057919137</v>
+      </c>
+      <c r="G238" t="n">
+        <v>15.333214438</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>120</v>
+      </c>
+      <c r="B239" t="n">
+        <v>460</v>
+      </c>
+      <c r="C239" t="n">
+        <v>1111.111111111111</v>
+      </c>
+      <c r="D239" t="n">
+        <v>115</v>
+      </c>
+      <c r="E239" t="n">
+        <v>4.643809782</v>
+      </c>
+      <c r="F239" t="n">
+        <v>0.057918723</v>
+      </c>
+      <c r="G239" t="n">
+        <v>15.333333333</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>120</v>
+      </c>
+      <c r="B240" t="n">
+        <v>425.6859047035728</v>
+      </c>
+      <c r="C240" t="n">
+        <v>1028.22682295549</v>
+      </c>
+      <c r="D240" t="n">
+        <v>115</v>
+      </c>
+      <c r="E240" t="n">
+        <v>4.30070517</v>
+      </c>
+      <c r="F240" t="n">
+        <v>0.062226918</v>
+      </c>
+      <c r="G240" t="n">
+        <v>14.189530157</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>120</v>
+      </c>
+      <c r="B241" t="n">
+        <v>428.3486590747815</v>
+      </c>
+      <c r="C241" t="n">
+        <v>1034.658596798989</v>
+      </c>
+      <c r="D241" t="n">
+        <v>115</v>
+      </c>
+      <c r="E241" t="n">
+        <v>4.327328022</v>
+      </c>
+      <c r="F241" t="n">
+        <v>0.061867902</v>
+      </c>
+      <c r="G241" t="n">
+        <v>14.278288636</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>120</v>
+      </c>
+      <c r="B242" t="n">
+        <v>439.3103225359023</v>
+      </c>
+      <c r="C242" t="n">
+        <v>1061.136044772711</v>
+      </c>
+      <c r="D242" t="n">
+        <v>115</v>
+      </c>
+      <c r="E242" t="n">
+        <v>4.436928815</v>
+      </c>
+      <c r="F242" t="n">
+        <v>0.060435788</v>
+      </c>
+      <c r="G242" t="n">
+        <v>14.643677418</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>120</v>
+      </c>
+      <c r="B243" t="n">
+        <v>449.6551600426786</v>
+      </c>
+      <c r="C243" t="n">
+        <v>1086.123574982315</v>
+      </c>
+      <c r="D243" t="n">
+        <v>115</v>
+      </c>
+      <c r="E243" t="n">
+        <v>4.540367092</v>
+      </c>
+      <c r="F243" t="n">
+        <v>0.059148302</v>
+      </c>
+      <c r="G243" t="n">
+        <v>14.988505335</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>120</v>
+      </c>
+      <c r="B244" t="n">
+        <v>450.9130956368081</v>
+      </c>
+      <c r="C244" t="n">
+        <v>1089.162066755575</v>
+      </c>
+      <c r="D244" t="n">
+        <v>115</v>
+      </c>
+      <c r="E244" t="n">
+        <v>4.552945526</v>
+      </c>
+      <c r="F244" t="n">
+        <v>0.058995771</v>
+      </c>
+      <c r="G244" t="n">
+        <v>15.030436521</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>120</v>
+      </c>
+      <c r="B245" t="n">
+        <v>459.9952442187328</v>
+      </c>
+      <c r="C245" t="n">
+        <v>1111.100194508549</v>
+      </c>
+      <c r="D245" t="n">
+        <v>114.9999408891512</v>
+      </c>
+      <c r="E245" t="n">
+        <v>4.643762227</v>
+      </c>
+      <c r="F245" t="n">
+        <v>0.057919275</v>
+      </c>
+      <c r="G245" t="n">
+        <v>15.333174803</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>120</v>
+      </c>
+      <c r="B246" t="n">
+        <v>457.4137903169878</v>
+      </c>
+      <c r="C246" t="n">
+        <v>1104.864227818811</v>
+      </c>
+      <c r="D246" t="n">
+        <v>115</v>
+      </c>
+      <c r="E246" t="n">
+        <v>4.617948714</v>
+      </c>
+      <c r="F246" t="n">
+        <v>0.058220857</v>
+      </c>
+      <c r="G246" t="n">
+        <v>15.247126344</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>120</v>
+      </c>
+      <c r="B247" t="n">
+        <v>459.9988113563048</v>
+      </c>
+      <c r="C247" t="n">
+        <v>1111.108810815711</v>
+      </c>
+      <c r="D247" t="n">
+        <v>114.9999408862349</v>
+      </c>
+      <c r="E247" t="n">
+        <v>4.643797898</v>
+      </c>
+      <c r="F247" t="n">
+        <v>0.057918861</v>
+      </c>
+      <c r="G247" t="n">
+        <v>15.333293707</v>
       </c>
     </row>
   </sheetData>

--- a/raw_pareto_results.xlsx
+++ b/raw_pareto_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G247"/>
+  <dimension ref="A1:G252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,505 +475,505 @@
         <v>80</v>
       </c>
       <c r="B2" t="n">
-        <v>385</v>
+        <v>391.6389539792443</v>
       </c>
       <c r="C2" t="n">
         <v>1150</v>
       </c>
       <c r="D2" t="n">
-        <v>115</v>
+        <v>108.6603134682367</v>
       </c>
       <c r="E2" t="n">
-        <v>3.879040295</v>
+        <v>3.945772259</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08288255999999999</v>
+        <v>0.087817041</v>
       </c>
       <c r="G2" t="n">
-        <v>10.58</v>
+        <v>9.996748839</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B3" t="n">
-        <v>385.0001124891448</v>
+        <v>385</v>
       </c>
       <c r="C3" t="n">
-        <v>1115.942355040999</v>
+        <v>1150</v>
       </c>
       <c r="D3" t="n">
-        <v>115</v>
+        <v>108.0011272801731</v>
       </c>
       <c r="E3" t="n">
-        <v>3.883500762</v>
+        <v>3.879420631</v>
       </c>
       <c r="F3" t="n">
-        <v>0.068330187</v>
+        <v>0.08825345800000001</v>
       </c>
       <c r="G3" t="n">
-        <v>12.833337083</v>
+        <v>9.936103709999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B4" t="n">
-        <v>385.3936466528286</v>
+        <v>385.4841964206963</v>
       </c>
       <c r="C4" t="n">
-        <v>1117.083033776315</v>
+        <v>1150</v>
       </c>
       <c r="D4" t="n">
-        <v>115</v>
+        <v>108.0587409991605</v>
       </c>
       <c r="E4" t="n">
-        <v>3.887434015</v>
+        <v>3.884259263</v>
       </c>
       <c r="F4" t="n">
-        <v>0.068264981</v>
+        <v>0.088213662</v>
       </c>
       <c r="G4" t="n">
-        <v>12.846454888</v>
+        <v>9.941404172</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B5" t="n">
-        <v>385.7880262517011</v>
+        <v>387.1057269957163</v>
       </c>
       <c r="C5" t="n">
-        <v>1118.226163048409</v>
+        <v>1150</v>
       </c>
       <c r="D5" t="n">
-        <v>115</v>
+        <v>108.2407626693097</v>
       </c>
       <c r="E5" t="n">
-        <v>3.891375727</v>
+        <v>3.900464065</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06819976899999999</v>
+        <v>0.088089586</v>
       </c>
       <c r="G5" t="n">
-        <v>12.859600875</v>
+        <v>9.958150165999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B6" t="n">
-        <v>386.1832136999367</v>
+        <v>388.9508757188796</v>
       </c>
       <c r="C6" t="n">
-        <v>1119.37163391286</v>
+        <v>1150</v>
       </c>
       <c r="D6" t="n">
-        <v>115</v>
+        <v>108.4274150857037</v>
       </c>
       <c r="E6" t="n">
-        <v>3.895325524</v>
+        <v>3.918904818</v>
       </c>
       <c r="F6" t="n">
-        <v>0.068134557</v>
+        <v>0.08796551</v>
       </c>
       <c r="G6" t="n">
-        <v>12.87277379</v>
+        <v>9.975322188</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B7" t="n">
-        <v>386.2154446565661</v>
+        <v>391.1456670566092</v>
       </c>
       <c r="C7" t="n">
-        <v>1119.465056975554</v>
+        <v>1150</v>
       </c>
       <c r="D7" t="n">
-        <v>115</v>
+        <v>108.6210415062644</v>
       </c>
       <c r="E7" t="n">
-        <v>3.895647665</v>
+        <v>3.940841635</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06812924400000001</v>
+        <v>0.087841435</v>
       </c>
       <c r="G7" t="n">
-        <v>12.873848155</v>
+        <v>9.993135819000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B8" t="n">
-        <v>387.0257950675995</v>
+        <v>394.0153876076038</v>
       </c>
       <c r="C8" t="n">
-        <v>1121.813898746665</v>
+        <v>1150</v>
       </c>
       <c r="D8" t="n">
-        <v>115</v>
+        <v>108.8276776732374</v>
       </c>
       <c r="E8" t="n">
-        <v>3.903746942</v>
+        <v>3.969527042</v>
       </c>
       <c r="F8" t="n">
-        <v>0.06799596300000001</v>
+        <v>0.08771735899999999</v>
       </c>
       <c r="G8" t="n">
-        <v>12.900859836</v>
+        <v>10.012146346</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B9" t="n">
-        <v>387.8361454786329</v>
+        <v>400.7793774032374</v>
       </c>
       <c r="C9" t="n">
-        <v>1124.162740517776</v>
+        <v>1149.995422353817</v>
       </c>
       <c r="D9" t="n">
-        <v>115</v>
+        <v>109.1068797284202</v>
       </c>
       <c r="E9" t="n">
-        <v>3.911846262</v>
+        <v>4.037151085</v>
       </c>
       <c r="F9" t="n">
-        <v>0.06786323800000001</v>
+        <v>0.08759365199999999</v>
       </c>
       <c r="G9" t="n">
-        <v>12.927871516</v>
+        <v>10.037792979</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B10" t="n">
-        <v>395.5344739381424</v>
+        <v>388.9508682060826</v>
       </c>
       <c r="C10" t="n">
-        <v>1146.476736052586</v>
+        <v>1150</v>
       </c>
       <c r="D10" t="n">
-        <v>115</v>
+        <v>108.4274149465905</v>
       </c>
       <c r="E10" t="n">
-        <v>3.988791847</v>
+        <v>3.918904743</v>
       </c>
       <c r="F10" t="n">
-        <v>0.06662947299999999</v>
+        <v>0.08796551</v>
       </c>
       <c r="G10" t="n">
-        <v>13.184482465</v>
+        <v>9.975322175000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B11" t="n">
-        <v>386.5792114833259</v>
+        <v>400.8320268939349</v>
       </c>
       <c r="C11" t="n">
-        <v>1120.519453574857</v>
+        <v>1150</v>
       </c>
       <c r="D11" t="n">
-        <v>115</v>
+        <v>109.1077936545711</v>
       </c>
       <c r="E11" t="n">
-        <v>3.89928343</v>
+        <v>4.037677513</v>
       </c>
       <c r="F11" t="n">
-        <v>0.068069345</v>
+        <v>0.087593351</v>
       </c>
       <c r="G11" t="n">
-        <v>12.885973716</v>
+        <v>10.037917016</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B12" t="n">
-        <v>386.9760220976577</v>
+        <v>400.7746979238137</v>
       </c>
       <c r="C12" t="n">
-        <v>1121.669629268573</v>
+        <v>1149.995928794115</v>
       </c>
       <c r="D12" t="n">
-        <v>115</v>
+        <v>109.1067725524411</v>
       </c>
       <c r="E12" t="n">
-        <v>3.903249471</v>
+        <v>4.037104295</v>
       </c>
       <c r="F12" t="n">
-        <v>0.06800413299999999</v>
+        <v>0.08759363000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>12.899200737</v>
+        <v>10.037787539</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B13" t="n">
-        <v>387.3736480493271</v>
+        <v>385</v>
       </c>
       <c r="C13" t="n">
-        <v>1122.822168258919</v>
+        <v>1150</v>
       </c>
       <c r="D13" t="n">
-        <v>115</v>
+        <v>108.0011271454286</v>
       </c>
       <c r="E13" t="n">
-        <v>3.90722367</v>
+        <v>3.879420631</v>
       </c>
       <c r="F13" t="n">
-        <v>0.067938921</v>
+        <v>0.08825345699999999</v>
       </c>
       <c r="G13" t="n">
-        <v>12.912454935</v>
+        <v>9.936103697</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B14" t="n">
-        <v>387.7720918547699</v>
+        <v>403.8953158743336</v>
       </c>
       <c r="C14" t="n">
-        <v>1123.977077839912</v>
+        <v>1150</v>
       </c>
       <c r="D14" t="n">
-        <v>115</v>
+        <v>109.1378793483849</v>
       </c>
       <c r="E14" t="n">
-        <v>3.911206055</v>
+        <v>4.068308697</v>
       </c>
       <c r="F14" t="n">
-        <v>0.067873709</v>
+        <v>0.08761466399999999</v>
       </c>
       <c r="G14" t="n">
-        <v>12.925736395</v>
+        <v>10.0406849</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B15" t="n">
-        <v>386.5792115937114</v>
+        <v>388.0790212533851</v>
       </c>
       <c r="C15" t="n">
-        <v>1120.519453894815</v>
+        <v>1150.000000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>115</v>
+        <v>108.3419362148046</v>
       </c>
       <c r="E15" t="n">
-        <v>3.899283431</v>
+        <v>3.910191185</v>
       </c>
       <c r="F15" t="n">
-        <v>0.068069345</v>
+        <v>0.088021877</v>
       </c>
       <c r="G15" t="n">
-        <v>12.88597372</v>
+        <v>9.967458132000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B16" t="n">
-        <v>388.1713560408616</v>
+        <v>396.8187203777454</v>
       </c>
       <c r="C16" t="n">
-        <v>1125.134365335831</v>
+        <v>1150</v>
       </c>
       <c r="D16" t="n">
-        <v>115</v>
+        <v>108.9786907216688</v>
       </c>
       <c r="E16" t="n">
-        <v>3.915196648</v>
+        <v>3.997551776</v>
       </c>
       <c r="F16" t="n">
-        <v>0.067808497</v>
+        <v>0.08763747299999999</v>
       </c>
       <c r="G16" t="n">
-        <v>12.939045201</v>
+        <v>10.026039546</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B17" t="n">
-        <v>386.9760222039484</v>
+        <v>400.4337412365215</v>
       </c>
       <c r="C17" t="n">
-        <v>1121.669629576662</v>
+        <v>1150</v>
       </c>
       <c r="D17" t="n">
-        <v>115</v>
+        <v>109.0995462058164</v>
       </c>
       <c r="E17" t="n">
-        <v>3.903249472</v>
+        <v>4.033695124</v>
       </c>
       <c r="F17" t="n">
-        <v>0.06800413299999999</v>
+        <v>0.08759406</v>
       </c>
       <c r="G17" t="n">
-        <v>12.89920074</v>
+        <v>10.037158251</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B18" t="n">
-        <v>388.571443144895</v>
+        <v>393.8861051376407</v>
       </c>
       <c r="C18" t="n">
-        <v>1126.294038101145</v>
+        <v>1150</v>
       </c>
       <c r="D18" t="n">
-        <v>115</v>
+        <v>108.8195020949528</v>
       </c>
       <c r="E18" t="n">
-        <v>3.919195477</v>
+        <v>3.968234684</v>
       </c>
       <c r="F18" t="n">
-        <v>0.067743285</v>
+        <v>0.087722025</v>
       </c>
       <c r="G18" t="n">
-        <v>12.952381438</v>
+        <v>10.011394193</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B19" t="n">
-        <v>387.3736481514169</v>
+        <v>385.1870288489462</v>
       </c>
       <c r="C19" t="n">
-        <v>1122.822168554831</v>
+        <v>1150</v>
       </c>
       <c r="D19" t="n">
-        <v>115</v>
+        <v>108.0235589613725</v>
       </c>
       <c r="E19" t="n">
-        <v>3.907223671</v>
+        <v>3.881289621</v>
       </c>
       <c r="F19" t="n">
-        <v>0.067938921</v>
+        <v>0.088237936</v>
       </c>
       <c r="G19" t="n">
-        <v>12.912454938</v>
+        <v>9.938167424</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B20" t="n">
-        <v>387.3736482652351</v>
+        <v>394.015372241882</v>
       </c>
       <c r="C20" t="n">
-        <v>1122.822168884739</v>
+        <v>1150</v>
       </c>
       <c r="D20" t="n">
-        <v>115</v>
+        <v>108.827677428507</v>
       </c>
       <c r="E20" t="n">
-        <v>3.907223673</v>
+        <v>3.969526889</v>
       </c>
       <c r="F20" t="n">
-        <v>0.067938921</v>
+        <v>0.08771735899999999</v>
       </c>
       <c r="G20" t="n">
-        <v>12.912454942</v>
+        <v>10.012146323</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B21" t="n">
-        <v>388.9723557146328</v>
+        <v>400.6015039867368</v>
       </c>
       <c r="C21" t="n">
-        <v>1127.456103520674</v>
+        <v>1150</v>
       </c>
       <c r="D21" t="n">
-        <v>115</v>
+        <v>109.1031435219044</v>
       </c>
       <c r="E21" t="n">
-        <v>3.923202567</v>
+        <v>4.035372548</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06767807300000001</v>
+        <v>0.087593663</v>
       </c>
       <c r="G21" t="n">
-        <v>12.96574519</v>
+        <v>10.037489204</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B22" t="n">
-        <v>389.374096308363</v>
+        <v>389.7459889014414</v>
       </c>
       <c r="C22" t="n">
-        <v>1128.620569009747</v>
+        <v>1150</v>
       </c>
       <c r="D22" t="n">
-        <v>115</v>
+        <v>108.5011248415206</v>
       </c>
       <c r="E22" t="n">
-        <v>3.927217943</v>
+        <v>3.926851721</v>
       </c>
       <c r="F22" t="n">
-        <v>0.067612861</v>
+        <v>0.087917622</v>
       </c>
       <c r="G22" t="n">
-        <v>12.979136544</v>
+        <v>9.982103485</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B23" t="n">
-        <v>388.171356134465</v>
+        <v>386.5723623826688</v>
       </c>
       <c r="C23" t="n">
-        <v>1125.134365607145</v>
+        <v>1150</v>
       </c>
       <c r="D23" t="n">
-        <v>115</v>
+        <v>108.1827475880885</v>
       </c>
       <c r="E23" t="n">
-        <v>3.915196649</v>
+        <v>3.895133763</v>
       </c>
       <c r="F23" t="n">
-        <v>0.067808497</v>
+        <v>0.08812884</v>
       </c>
       <c r="G23" t="n">
-        <v>12.939045204</v>
+        <v>9.952812778</v>
       </c>
     </row>
     <row r="24">
@@ -981,22 +981,22 @@
         <v>100</v>
       </c>
       <c r="B24" t="n">
-        <v>388.1713562387909</v>
+        <v>385.0066074614948</v>
       </c>
       <c r="C24" t="n">
-        <v>1125.134365909539</v>
+        <v>940.1248867881</v>
       </c>
       <c r="D24" t="n">
         <v>115</v>
       </c>
       <c r="E24" t="n">
-        <v>3.91519665</v>
+        <v>3.884031046</v>
       </c>
       <c r="F24" t="n">
-        <v>0.067808497</v>
+        <v>0.081108482</v>
       </c>
       <c r="G24" t="n">
-        <v>12.939045208</v>
+        <v>10.811436198</v>
       </c>
     </row>
     <row r="25">
@@ -1004,22 +1004,22 @@
         <v>100</v>
       </c>
       <c r="B25" t="n">
-        <v>388.1713563178518</v>
+        <v>385.5964494722209</v>
       </c>
       <c r="C25" t="n">
-        <v>1125.1343661387</v>
+        <v>940.7741947649279</v>
       </c>
       <c r="D25" t="n">
         <v>115</v>
       </c>
       <c r="E25" t="n">
-        <v>3.915196651</v>
+        <v>3.889927125</v>
       </c>
       <c r="F25" t="n">
-        <v>0.067808497</v>
+        <v>0.081060628</v>
       </c>
       <c r="G25" t="n">
-        <v>12.939045211</v>
+        <v>10.81890324</v>
       </c>
     </row>
     <row r="26">
@@ -1027,22 +1027,22 @@
         <v>100</v>
       </c>
       <c r="B26" t="n">
-        <v>389.7766674949523</v>
+        <v>386.2035704578133</v>
       </c>
       <c r="C26" t="n">
-        <v>1129.787442014354</v>
+        <v>941.4310904334634</v>
       </c>
       <c r="D26" t="n">
         <v>115</v>
       </c>
       <c r="E26" t="n">
-        <v>3.931241631</v>
+        <v>3.895995972</v>
       </c>
       <c r="F26" t="n">
-        <v>0.067547649</v>
+        <v>0.081012424</v>
       </c>
       <c r="G26" t="n">
-        <v>12.992555583</v>
+        <v>10.82645754</v>
       </c>
     </row>
     <row r="27">
@@ -1050,22 +1050,22 @@
         <v>100</v>
       </c>
       <c r="B27" t="n">
-        <v>388.5714432342461</v>
+        <v>386.8246014555069</v>
       </c>
       <c r="C27" t="n">
-        <v>1126.294038360134</v>
+        <v>942.0909944097332</v>
       </c>
       <c r="D27" t="n">
         <v>115</v>
       </c>
       <c r="E27" t="n">
-        <v>3.919195478</v>
+        <v>3.902203915</v>
       </c>
       <c r="F27" t="n">
-        <v>0.067743285</v>
+        <v>0.080964221</v>
       </c>
       <c r="G27" t="n">
-        <v>12.952381441</v>
+        <v>10.834046436</v>
       </c>
     </row>
     <row r="28">
@@ -1073,22 +1073,22 @@
         <v>100</v>
       </c>
       <c r="B28" t="n">
-        <v>388.571443333816</v>
+        <v>386.4590462570133</v>
       </c>
       <c r="C28" t="n">
-        <v>1126.294038648742</v>
+        <v>941.7040192304773</v>
       </c>
       <c r="D28" t="n">
         <v>115</v>
       </c>
       <c r="E28" t="n">
-        <v>3.919195479</v>
+        <v>3.89854975</v>
       </c>
       <c r="F28" t="n">
-        <v>0.067743285</v>
+        <v>0.080992461</v>
       </c>
       <c r="G28" t="n">
-        <v>12.952381444</v>
+        <v>10.829596221</v>
       </c>
     </row>
     <row r="29">
@@ -1096,22 +1096,22 @@
         <v>100</v>
       </c>
       <c r="B29" t="n">
-        <v>388.9723557997145</v>
+        <v>387.9776710441071</v>
       </c>
       <c r="C29" t="n">
-        <v>1127.456103767288</v>
+        <v>943.2831516728547</v>
       </c>
       <c r="D29" t="n">
         <v>115</v>
       </c>
       <c r="E29" t="n">
-        <v>3.923202568</v>
+        <v>3.913730347</v>
       </c>
       <c r="F29" t="n">
-        <v>0.06767807300000001</v>
+        <v>0.08087773700000001</v>
       </c>
       <c r="G29" t="n">
-        <v>12.965745193</v>
+        <v>10.847756244</v>
       </c>
     </row>
     <row r="30">
@@ -1119,22 +1119,22 @@
         <v>100</v>
       </c>
       <c r="B30" t="n">
-        <v>390.5843119753985</v>
+        <v>389.5737496731263</v>
       </c>
       <c r="C30" t="n">
-        <v>1132.128440508401</v>
+        <v>944.8622841152323</v>
       </c>
       <c r="D30" t="n">
         <v>115</v>
       </c>
       <c r="E30" t="n">
-        <v>3.939314046</v>
+        <v>3.929685515</v>
       </c>
       <c r="F30" t="n">
-        <v>0.067417225</v>
+        <v>0.080764459</v>
       </c>
       <c r="G30" t="n">
-        <v>13.019477066</v>
+        <v>10.865916267</v>
       </c>
     </row>
     <row r="31">
@@ -1142,22 +1142,22 @@
         <v>100</v>
       </c>
       <c r="B31" t="n">
-        <v>389.3740965473052</v>
+        <v>392.14758404959</v>
       </c>
       <c r="C31" t="n">
-        <v>1128.620569702333</v>
+        <v>947.2309827787982</v>
       </c>
       <c r="D31" t="n">
         <v>115</v>
       </c>
       <c r="E31" t="n">
-        <v>3.927217945</v>
+        <v>3.95541549</v>
       </c>
       <c r="F31" t="n">
-        <v>0.067612861</v>
+        <v>0.080597708</v>
       </c>
       <c r="G31" t="n">
-        <v>12.979136552</v>
+        <v>10.893156302</v>
       </c>
     </row>
     <row r="32">
@@ -1165,22 +1165,22 @@
         <v>100</v>
       </c>
       <c r="B32" t="n">
-        <v>390.1800719260695</v>
+        <v>394.0163597047276</v>
       </c>
       <c r="C32" t="n">
-        <v>1130.956730220491</v>
+        <v>948.8101152211756</v>
       </c>
       <c r="D32" t="n">
         <v>115</v>
       </c>
       <c r="E32" t="n">
-        <v>3.935273657</v>
+        <v>3.974097707</v>
       </c>
       <c r="F32" t="n">
-        <v>0.06748243700000001</v>
+        <v>0.080489092</v>
       </c>
       <c r="G32" t="n">
-        <v>13.006002398</v>
+        <v>10.911316325</v>
       </c>
     </row>
     <row r="33">
@@ -1188,22 +1188,22 @@
         <v>100</v>
       </c>
       <c r="B33" t="n">
-        <v>390.5843121186259</v>
+        <v>398.3015285737779</v>
       </c>
       <c r="C33" t="n">
-        <v>1132.128440923553</v>
+        <v>951.9683801059304</v>
       </c>
       <c r="D33" t="n">
         <v>115</v>
       </c>
       <c r="E33" t="n">
-        <v>3.939314047</v>
+        <v>4.016938412</v>
       </c>
       <c r="F33" t="n">
-        <v>0.067417225</v>
+        <v>0.08028039200000001</v>
       </c>
       <c r="G33" t="n">
-        <v>13.019477071</v>
+        <v>10.947636371</v>
       </c>
     </row>
     <row r="34">
@@ -1211,22 +1211,22 @@
         <v>100</v>
       </c>
       <c r="B34" t="n">
-        <v>392.2096822678877</v>
+        <v>400.8793967519495</v>
       </c>
       <c r="C34" t="n">
-        <v>1136.8396587475</v>
+        <v>953.5475125483077</v>
       </c>
       <c r="D34" t="n">
         <v>115</v>
       </c>
       <c r="E34" t="n">
-        <v>3.955559762</v>
+        <v>4.042711648</v>
       </c>
       <c r="F34" t="n">
-        <v>0.067156376</v>
+        <v>0.080182475</v>
       </c>
       <c r="G34" t="n">
-        <v>13.073656076</v>
+        <v>10.965796394</v>
       </c>
     </row>
     <row r="35">
@@ -1234,22 +1234,22 @@
         <v>100</v>
       </c>
       <c r="B35" t="n">
-        <v>390.9893905238505</v>
+        <v>408.4264245032152</v>
       </c>
       <c r="C35" t="n">
-        <v>1133.302581228552</v>
+        <v>956.7057774330625</v>
       </c>
       <c r="D35" t="n">
         <v>115</v>
       </c>
       <c r="E35" t="n">
-        <v>3.943362825</v>
+        <v>4.118171128</v>
       </c>
       <c r="F35" t="n">
-        <v>0.067352013</v>
+        <v>0.080019996</v>
       </c>
       <c r="G35" t="n">
-        <v>13.032979684</v>
+        <v>11.00211644</v>
       </c>
     </row>
     <row r="36">
@@ -1257,22 +1257,22 @@
         <v>100</v>
       </c>
       <c r="B36" t="n">
-        <v>392.6181404329789</v>
+        <v>414.7457940043727</v>
       </c>
       <c r="C36" t="n">
-        <v>1138.023595457909</v>
+        <v>1150</v>
       </c>
       <c r="D36" t="n">
-        <v>115</v>
+        <v>95.98640423178175</v>
       </c>
       <c r="E36" t="n">
-        <v>3.959642362</v>
+        <v>4.181829488</v>
       </c>
       <c r="F36" t="n">
-        <v>0.06709116399999999</v>
+        <v>0.079842015</v>
       </c>
       <c r="G36" t="n">
-        <v>13.087271348</v>
+        <v>11.038436487</v>
       </c>
     </row>
     <row r="37">
@@ -1280,22 +1280,22 @@
         <v>100</v>
       </c>
       <c r="B37" t="n">
-        <v>391.3953099796717</v>
+        <v>387.4605108583171</v>
       </c>
       <c r="C37" t="n">
-        <v>1134.479159361367</v>
+        <v>942.7540684139038</v>
       </c>
       <c r="D37" t="n">
-        <v>115</v>
+        <v>114.9999998316694</v>
       </c>
       <c r="E37" t="n">
-        <v>3.94742002</v>
+        <v>3.908560635</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06728680099999999</v>
+        <v>0.08091601800000001</v>
       </c>
       <c r="G37" t="n">
-        <v>13.046510333</v>
+        <v>10.841671771</v>
       </c>
     </row>
     <row r="38">
@@ -1303,22 +1303,22 @@
         <v>100</v>
       </c>
       <c r="B38" t="n">
-        <v>391.3953100951593</v>
+        <v>388.1133738349115</v>
       </c>
       <c r="C38" t="n">
-        <v>1134.479159696114</v>
+        <v>943.4206462586294</v>
       </c>
       <c r="D38" t="n">
         <v>115</v>
       </c>
       <c r="E38" t="n">
-        <v>3.947420021</v>
+        <v>3.915086885</v>
       </c>
       <c r="F38" t="n">
-        <v>0.06728680099999999</v>
+        <v>0.080867814</v>
       </c>
       <c r="G38" t="n">
-        <v>13.046510337</v>
+        <v>10.849337432</v>
       </c>
     </row>
     <row r="39">
@@ -1326,22 +1326,22 @@
         <v>100</v>
       </c>
       <c r="B39" t="n">
-        <v>393.0274501293491</v>
+        <v>388.7832236941717</v>
       </c>
       <c r="C39" t="n">
-        <v>1139.210000374924</v>
+        <v>944.0907445788604</v>
       </c>
       <c r="D39" t="n">
         <v>115</v>
       </c>
       <c r="E39" t="n">
-        <v>3.963733484</v>
+        <v>3.921782996</v>
       </c>
       <c r="F39" t="n">
-        <v>0.067025952</v>
+        <v>0.080819611</v>
       </c>
       <c r="G39" t="n">
-        <v>13.100915004</v>
+        <v>10.857043563</v>
       </c>
     </row>
     <row r="40">
@@ -1349,22 +1349,22 @@
         <v>100</v>
       </c>
       <c r="B40" t="n">
-        <v>391.8020730332809</v>
+        <v>389.4727081616691</v>
       </c>
       <c r="C40" t="n">
-        <v>1135.658182705162</v>
+        <v>944.7647920006223</v>
       </c>
       <c r="D40" t="n">
         <v>115</v>
       </c>
       <c r="E40" t="n">
-        <v>3.951485657</v>
+        <v>3.928675446</v>
       </c>
       <c r="F40" t="n">
-        <v>0.067221589</v>
+        <v>0.080771407</v>
       </c>
       <c r="G40" t="n">
-        <v>13.060069101</v>
+        <v>10.864795108</v>
       </c>
     </row>
     <row r="41">
@@ -1372,22 +1372,22 @@
         <v>100</v>
       </c>
       <c r="B41" t="n">
-        <v>391.8020731632096</v>
+        <v>390.1830149136255</v>
       </c>
       <c r="C41" t="n">
-        <v>1135.658183081767</v>
+        <v>945.4429869689452</v>
       </c>
       <c r="D41" t="n">
         <v>115</v>
       </c>
       <c r="E41" t="n">
-        <v>3.951485658</v>
+        <v>3.935776109</v>
       </c>
       <c r="F41" t="n">
-        <v>0.067221588</v>
+        <v>0.08072320400000001</v>
       </c>
       <c r="G41" t="n">
-        <v>13.060069105</v>
+        <v>10.87259435</v>
       </c>
     </row>
     <row r="42">
@@ -1395,22 +1395,22 @@
         <v>100</v>
       </c>
       <c r="B42" t="n">
-        <v>393.0274502342882</v>
+        <v>388.1133744844113</v>
       </c>
       <c r="C42" t="n">
-        <v>1139.210000679096</v>
+        <v>943.4206466154612</v>
       </c>
       <c r="D42" t="n">
         <v>115</v>
       </c>
       <c r="E42" t="n">
-        <v>3.963733485</v>
+        <v>3.915086891</v>
       </c>
       <c r="F42" t="n">
-        <v>0.067025952</v>
+        <v>0.080867814</v>
       </c>
       <c r="G42" t="n">
-        <v>13.100915008</v>
+        <v>10.849337436</v>
       </c>
     </row>
     <row r="43">
@@ -1418,22 +1418,22 @@
         <v>100</v>
       </c>
       <c r="B43" t="n">
-        <v>394.6732577267563</v>
+        <v>390.9148648552888</v>
       </c>
       <c r="C43" t="n">
-        <v>1143.980457179003</v>
+        <v>946.1242078229584</v>
       </c>
       <c r="D43" t="n">
         <v>115</v>
       </c>
       <c r="E43" t="n">
-        <v>3.980183721</v>
+        <v>3.943092199</v>
       </c>
       <c r="F43" t="n">
-        <v>0.06676510400000001</v>
+        <v>0.080675107</v>
       </c>
       <c r="G43" t="n">
-        <v>13.155775258</v>
+        <v>10.88042839</v>
       </c>
     </row>
     <row r="44">
@@ -1441,22 +1441,22 @@
         <v>100</v>
       </c>
       <c r="B44" t="n">
-        <v>393.4376140605314</v>
+        <v>391.6757287334734</v>
       </c>
       <c r="C44" t="n">
-        <v>1140.398881334873</v>
+        <v>946.8133963203048</v>
       </c>
       <c r="D44" t="n">
         <v>115</v>
       </c>
       <c r="E44" t="n">
-        <v>3.967833154</v>
+        <v>3.950698407</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06696074</v>
+        <v>0.080626797</v>
       </c>
       <c r="G44" t="n">
-        <v>13.114587135</v>
+        <v>10.888354058</v>
       </c>
     </row>
     <row r="45">
@@ -1464,22 +1464,22 @@
         <v>100</v>
       </c>
       <c r="B45" t="n">
-        <v>395.0868653019809</v>
+        <v>392.4623263949426</v>
       </c>
       <c r="C45" t="n">
-        <v>1145.179319715886</v>
+        <v>947.5055184673894</v>
       </c>
       <c r="D45" t="n">
-        <v>115</v>
+        <v>114.9999593543648</v>
       </c>
       <c r="E45" t="n">
-        <v>3.984317853</v>
+        <v>3.95856195</v>
       </c>
       <c r="F45" t="n">
-        <v>0.066699892</v>
+        <v>0.080578689</v>
       </c>
       <c r="G45" t="n">
-        <v>13.169562177</v>
+        <v>10.896309611</v>
       </c>
     </row>
     <row r="46">
@@ -1487,22 +1487,22 @@
         <v>100</v>
       </c>
       <c r="B46" t="n">
-        <v>393.8486348258659</v>
+        <v>390.1826508320913</v>
       </c>
       <c r="C46" t="n">
-        <v>1141.590245872075</v>
+        <v>945.4426436993607</v>
       </c>
       <c r="D46" t="n">
         <v>115</v>
       </c>
       <c r="E46" t="n">
-        <v>3.971941399</v>
+        <v>3.935772469</v>
       </c>
       <c r="F46" t="n">
-        <v>0.066895528</v>
+        <v>0.08072322799999999</v>
       </c>
       <c r="G46" t="n">
-        <v>13.128287828</v>
+        <v>10.872590403</v>
       </c>
     </row>
     <row r="47">
@@ -1510,22 +1510,22 @@
         <v>100</v>
       </c>
       <c r="B47" t="n">
-        <v>394.2605151751117</v>
+        <v>393.2841692951807</v>
       </c>
       <c r="C47" t="n">
-        <v>1142.784101956845</v>
+        <v>948.2057068497545</v>
       </c>
       <c r="D47" t="n">
         <v>115</v>
       </c>
       <c r="E47" t="n">
-        <v>3.976058246</v>
+        <v>3.96677792</v>
       </c>
       <c r="F47" t="n">
-        <v>0.066830316</v>
+        <v>0.08053038999999999</v>
       </c>
       <c r="G47" t="n">
-        <v>13.142017173</v>
+        <v>10.904365629</v>
       </c>
     </row>
     <row r="48">
@@ -1533,22 +1533,22 @@
         <v>100</v>
       </c>
       <c r="B48" t="n">
-        <v>396.7464214946575</v>
+        <v>394.1415867330933</v>
       </c>
       <c r="C48" t="n">
-        <v>1149.990279496916</v>
+        <v>948.9116774272164</v>
       </c>
       <c r="D48" t="n">
-        <v>114.9999347629829</v>
+        <v>115</v>
       </c>
       <c r="E48" t="n">
-        <v>4.00090572</v>
+        <v>3.975349622</v>
       </c>
       <c r="F48" t="n">
-        <v>0.066439603</v>
+        <v>0.080482187</v>
       </c>
       <c r="G48" t="n">
-        <v>13.224880712</v>
+        <v>10.91248429</v>
       </c>
     </row>
     <row r="49">
@@ -1556,22 +1556,22 @@
         <v>100</v>
       </c>
       <c r="B49" t="n">
-        <v>395.5013406008109</v>
+        <v>395.0416373496628</v>
       </c>
       <c r="C49" t="n">
-        <v>1146.380697393654</v>
+        <v>949.6253617510565</v>
       </c>
       <c r="D49" t="n">
         <v>115</v>
       </c>
       <c r="E49" t="n">
-        <v>3.988460668</v>
+        <v>3.984347636</v>
       </c>
       <c r="F49" t="n">
-        <v>0.06663468</v>
+        <v>0.080433984</v>
       </c>
       <c r="G49" t="n">
-        <v>13.18337802</v>
+        <v>10.92069166</v>
       </c>
     </row>
     <row r="50">
@@ -1579,22 +1579,22 @@
         <v>100</v>
       </c>
       <c r="B50" t="n">
-        <v>385.4050942455327</v>
+        <v>392.4637185939574</v>
       </c>
       <c r="C50" t="n">
-        <v>1117.116215204442</v>
+        <v>947.5065242378423</v>
       </c>
       <c r="D50" t="n">
         <v>115</v>
       </c>
       <c r="E50" t="n">
-        <v>3.88754843</v>
+        <v>3.958575867</v>
       </c>
       <c r="F50" t="n">
-        <v>0.068263086</v>
+        <v>0.080578594</v>
       </c>
       <c r="G50" t="n">
-        <v>12.846836475</v>
+        <v>10.896325029</v>
       </c>
     </row>
     <row r="51">
@@ -1602,22 +1602,22 @@
         <v>100</v>
       </c>
       <c r="B51" t="n">
-        <v>395.9166863858625</v>
+        <v>395.9916128125819</v>
       </c>
       <c r="C51" t="n">
-        <v>1147.584598219891</v>
+        <v>950.347074910685</v>
       </c>
       <c r="D51" t="n">
         <v>115</v>
       </c>
       <c r="E51" t="n">
-        <v>3.992612195</v>
+        <v>3.993844877</v>
       </c>
       <c r="F51" t="n">
-        <v>0.06656946800000001</v>
+        <v>0.08038585400000001</v>
       </c>
       <c r="G51" t="n">
-        <v>13.19722288</v>
+        <v>10.928991361</v>
       </c>
     </row>
     <row r="52">
@@ -1625,22 +1625,22 @@
         <v>100</v>
       </c>
       <c r="B52" t="n">
-        <v>396.3329052206713</v>
+        <v>393.2841744145539</v>
       </c>
       <c r="C52" t="n">
-        <v>1148.791029625134</v>
+        <v>948.2057075211185</v>
       </c>
       <c r="D52" t="n">
         <v>115</v>
       </c>
       <c r="E52" t="n">
-        <v>3.996772458</v>
+        <v>3.966777971</v>
       </c>
       <c r="F52" t="n">
-        <v>0.066504256</v>
+        <v>0.08053038999999999</v>
       </c>
       <c r="G52" t="n">
-        <v>13.211096841</v>
+        <v>10.904365636</v>
       </c>
     </row>
     <row r="53">
@@ -1648,22 +1648,22 @@
         <v>100</v>
       </c>
       <c r="B53" t="n">
-        <v>396.7467917044029</v>
+        <v>397.0040490012259</v>
       </c>
       <c r="C53" t="n">
-        <v>1149.991341724025</v>
+        <v>951.0814778493791</v>
       </c>
       <c r="D53" t="n">
-        <v>114.9999358475306</v>
+        <v>115</v>
       </c>
       <c r="E53" t="n">
-        <v>4.00090942</v>
+        <v>4.003966688</v>
       </c>
       <c r="F53" t="n">
-        <v>0.066439545</v>
+        <v>0.08033757699999999</v>
       </c>
       <c r="G53" t="n">
-        <v>13.224893052</v>
+        <v>10.937436995</v>
       </c>
     </row>
     <row r="54">
@@ -1671,22 +1671,22 @@
         <v>100</v>
       </c>
       <c r="B54" t="n">
-        <v>396.7470385273391</v>
+        <v>394.1416951186678</v>
       </c>
       <c r="C54" t="n">
-        <v>1149.992049428681</v>
+        <v>948.9116946983614</v>
       </c>
       <c r="D54" t="n">
-        <v>114.9999366200055</v>
+        <v>115</v>
       </c>
       <c r="E54" t="n">
-        <v>4.000911888</v>
+        <v>3.975350706</v>
       </c>
       <c r="F54" t="n">
-        <v>0.066439506</v>
+        <v>0.080482187</v>
       </c>
       <c r="G54" t="n">
-        <v>13.22490128</v>
+        <v>10.912484489</v>
       </c>
     </row>
     <row r="55">
@@ -1694,22 +1694,22 @@
         <v>100</v>
       </c>
       <c r="B55" t="n">
-        <v>396.7472853502751</v>
+        <v>398.0872502236679</v>
       </c>
       <c r="C55" t="n">
-        <v>1149.992756734294</v>
+        <v>951.8212393639679</v>
       </c>
       <c r="D55" t="n">
-        <v>114.9999374323876</v>
+        <v>115</v>
       </c>
       <c r="E55" t="n">
-        <v>4.000914355</v>
+        <v>4.014796137</v>
       </c>
       <c r="F55" t="n">
-        <v>0.066439468</v>
+        <v>0.08028988500000001</v>
       </c>
       <c r="G55" t="n">
-        <v>13.224909507</v>
+        <v>10.945944253</v>
       </c>
     </row>
     <row r="56">
@@ -1717,22 +1717,22 @@
         <v>100</v>
       </c>
       <c r="B56" t="n">
-        <v>396.7444977441606</v>
+        <v>395.0419911544815</v>
       </c>
       <c r="C56" t="n">
-        <v>1149.984746425306</v>
+        <v>949.6254188812461</v>
       </c>
       <c r="D56" t="n">
-        <v>114.9999304609139</v>
+        <v>115</v>
       </c>
       <c r="E56" t="n">
-        <v>4.000886492</v>
+        <v>3.984351174</v>
       </c>
       <c r="F56" t="n">
-        <v>0.06643990299999999</v>
+        <v>0.080433984</v>
       </c>
       <c r="G56" t="n">
-        <v>13.224816587</v>
+        <v>10.920692317</v>
       </c>
     </row>
     <row r="57">
@@ -1740,22 +1740,22 @@
         <v>100</v>
       </c>
       <c r="B57" t="n">
-        <v>387.4309702731162</v>
+        <v>399.2677471415764</v>
       </c>
       <c r="C57" t="n">
-        <v>1122.988319632221</v>
+        <v>952.5891575853245</v>
       </c>
       <c r="D57" t="n">
-        <v>115</v>
+        <v>114.9999869714009</v>
       </c>
       <c r="E57" t="n">
-        <v>3.907796597</v>
+        <v>4.026598454</v>
       </c>
       <c r="F57" t="n">
-        <v>0.067929531</v>
+        <v>0.080241229</v>
       </c>
       <c r="G57" t="n">
-        <v>12.914365676</v>
+        <v>10.954774071</v>
       </c>
     </row>
     <row r="58">
@@ -1763,22 +1763,22 @@
         <v>100</v>
       </c>
       <c r="B58" t="n">
-        <v>391.4827223282831</v>
+        <v>395.9917517347897</v>
       </c>
       <c r="C58" t="n">
-        <v>1134.732528487777</v>
+        <v>950.3471788301119</v>
       </c>
       <c r="D58" t="n">
         <v>115</v>
       </c>
       <c r="E58" t="n">
-        <v>3.948293714</v>
+        <v>3.993846266</v>
       </c>
       <c r="F58" t="n">
-        <v>0.06727277500000001</v>
+        <v>0.080385847</v>
       </c>
       <c r="G58" t="n">
-        <v>13.049424078</v>
+        <v>10.928992557</v>
       </c>
     </row>
     <row r="59">
@@ -1786,22 +1786,22 @@
         <v>100</v>
       </c>
       <c r="B59" t="n">
-        <v>391.8878975337998</v>
+        <v>396.0484263777805</v>
       </c>
       <c r="C59" t="n">
-        <v>1135.906949373332</v>
+        <v>950.389247663553</v>
       </c>
       <c r="D59" t="n">
         <v>115</v>
       </c>
       <c r="E59" t="n">
-        <v>3.952343483</v>
+        <v>3.994412866</v>
       </c>
       <c r="F59" t="n">
-        <v>0.067207846</v>
+        <v>0.08038306200000001</v>
       </c>
       <c r="G59" t="n">
-        <v>13.062929918</v>
+        <v>10.929476348</v>
       </c>
     </row>
     <row r="60">
@@ -1809,22 +1809,22 @@
         <v>100</v>
       </c>
       <c r="B60" t="n">
-        <v>387.7720921030418</v>
+        <v>400.5678302258522</v>
       </c>
       <c r="C60" t="n">
-        <v>1123.977078559541</v>
+        <v>953.3686042312072</v>
       </c>
       <c r="D60" t="n">
         <v>115</v>
       </c>
       <c r="E60" t="n">
-        <v>3.911206057</v>
+        <v>4.039596598</v>
       </c>
       <c r="F60" t="n">
-        <v>0.067873709</v>
+        <v>0.080193287</v>
       </c>
       <c r="G60" t="n">
-        <v>12.925736403</v>
+        <v>10.963738949</v>
       </c>
     </row>
     <row r="61">
@@ -1832,22 +1832,22 @@
         <v>100</v>
       </c>
       <c r="B61" t="n">
-        <v>388.972355930405</v>
+        <v>397.0042971316288</v>
       </c>
       <c r="C61" t="n">
-        <v>1127.456104146101</v>
+        <v>951.081517722738</v>
       </c>
       <c r="D61" t="n">
         <v>115</v>
       </c>
       <c r="E61" t="n">
-        <v>3.923202569</v>
+        <v>4.003969169</v>
       </c>
       <c r="F61" t="n">
-        <v>0.06767807300000001</v>
+        <v>0.08033757699999999</v>
       </c>
       <c r="G61" t="n">
-        <v>12.965745198</v>
+        <v>10.937437454</v>
       </c>
     </row>
     <row r="62">
@@ -1855,22 +1855,22 @@
         <v>100</v>
       </c>
       <c r="B62" t="n">
-        <v>390.1800720367594</v>
+        <v>402.0580368451389</v>
       </c>
       <c r="C62" t="n">
-        <v>1130.956730541331</v>
+        <v>954.1867718481425</v>
       </c>
       <c r="D62" t="n">
         <v>115</v>
       </c>
       <c r="E62" t="n">
-        <v>3.935273658</v>
+        <v>4.054495853</v>
       </c>
       <c r="F62" t="n">
-        <v>0.06748243700000001</v>
+        <v>0.08014476299999999</v>
       </c>
       <c r="G62" t="n">
-        <v>13.006002401</v>
+        <v>10.973147876</v>
       </c>
     </row>
     <row r="63">
@@ -1878,22 +1878,22 @@
         <v>100</v>
       </c>
       <c r="B63" t="n">
-        <v>390.9893906211554</v>
+        <v>398.0896383375222</v>
       </c>
       <c r="C63" t="n">
-        <v>1133.302581510595</v>
+        <v>951.8276926515698</v>
       </c>
       <c r="D63" t="n">
         <v>115</v>
       </c>
       <c r="E63" t="n">
-        <v>3.943362826</v>
+        <v>4.014819996</v>
       </c>
       <c r="F63" t="n">
-        <v>0.067352013</v>
+        <v>0.080289373</v>
       </c>
       <c r="G63" t="n">
-        <v>13.032979687</v>
+        <v>10.946018465</v>
       </c>
     </row>
     <row r="64">
@@ -1901,22 +1901,22 @@
         <v>100</v>
       </c>
       <c r="B64" t="n">
-        <v>391.8020733470271</v>
+        <v>403.8152676796489</v>
       </c>
       <c r="C64" t="n">
-        <v>1135.658183614571</v>
+        <v>955.0386977668701</v>
       </c>
       <c r="D64" t="n">
         <v>115</v>
       </c>
       <c r="E64" t="n">
-        <v>3.95148566</v>
+        <v>4.072065244</v>
       </c>
       <c r="F64" t="n">
-        <v>0.067221588</v>
+        <v>0.080097114</v>
       </c>
       <c r="G64" t="n">
-        <v>13.060069112</v>
+        <v>10.982945024</v>
       </c>
     </row>
     <row r="65">
@@ -1924,22 +1924,22 @@
         <v>100</v>
       </c>
       <c r="B65" t="n">
-        <v>392.2096823952714</v>
+        <v>399.2583421527939</v>
       </c>
       <c r="C65" t="n">
-        <v>1136.839659116728</v>
+        <v>952.5817278094682</v>
       </c>
       <c r="D65" t="n">
         <v>115</v>
       </c>
       <c r="E65" t="n">
-        <v>3.955559763</v>
+        <v>4.026504429</v>
       </c>
       <c r="F65" t="n">
-        <v>0.067156376</v>
+        <v>0.080241717</v>
       </c>
       <c r="G65" t="n">
-        <v>13.07365608</v>
+        <v>10.95468987</v>
       </c>
     </row>
     <row r="66">
@@ -1947,22 +1947,22 @@
         <v>100</v>
       </c>
       <c r="B66" t="n">
-        <v>392.2096826276096</v>
+        <v>399.2691990618781</v>
       </c>
       <c r="C66" t="n">
-        <v>1136.839659790172</v>
+        <v>952.5899780606835</v>
       </c>
       <c r="D66" t="n">
         <v>115</v>
       </c>
       <c r="E66" t="n">
-        <v>3.955559766</v>
+        <v>4.026612969</v>
       </c>
       <c r="F66" t="n">
-        <v>0.067156376</v>
+        <v>0.08024117</v>
       </c>
       <c r="G66" t="n">
-        <v>13.073656088</v>
+        <v>10.954784748</v>
       </c>
     </row>
     <row r="67">
@@ -1970,22 +1970,22 @@
         <v>100</v>
       </c>
       <c r="B67" t="n">
-        <v>392.2096826065607</v>
+        <v>400.5741821483897</v>
       </c>
       <c r="C67" t="n">
-        <v>1136.839659729161</v>
+        <v>953.3734444957896</v>
       </c>
       <c r="D67" t="n">
         <v>115</v>
       </c>
       <c r="E67" t="n">
-        <v>3.955559765</v>
+        <v>4.039660101</v>
       </c>
       <c r="F67" t="n">
-        <v>0.067156376</v>
+        <v>0.080192967</v>
       </c>
       <c r="G67" t="n">
-        <v>13.073656087</v>
+        <v>10.963794612</v>
       </c>
     </row>
     <row r="68">
@@ -1993,22 +1993,22 @@
         <v>100</v>
       </c>
       <c r="B68" t="n">
-        <v>392.6181405491587</v>
+        <v>410.8483337872121</v>
       </c>
       <c r="C68" t="n">
-        <v>1138.023595794662</v>
+        <v>1150</v>
       </c>
       <c r="D68" t="n">
-        <v>115</v>
+        <v>95.73353469720401</v>
       </c>
       <c r="E68" t="n">
-        <v>3.959642363</v>
+        <v>4.142869745</v>
       </c>
       <c r="F68" t="n">
-        <v>0.06709116399999999</v>
+        <v>0.080000153</v>
       </c>
       <c r="G68" t="n">
-        <v>13.087271352</v>
+        <v>11.00935649</v>
       </c>
     </row>
     <row r="69">
@@ -2016,22 +2016,22 @@
         <v>100</v>
       </c>
       <c r="B69" t="n">
-        <v>392.6181407801262</v>
+        <v>402.0576703527558</v>
       </c>
       <c r="C69" t="n">
-        <v>1138.023596464134</v>
+        <v>954.1867112028411</v>
       </c>
       <c r="D69" t="n">
         <v>115</v>
       </c>
       <c r="E69" t="n">
-        <v>3.959642366</v>
+        <v>4.054492189</v>
       </c>
       <c r="F69" t="n">
-        <v>0.06709116399999999</v>
+        <v>0.08014476299999999</v>
       </c>
       <c r="G69" t="n">
-        <v>13.087271359</v>
+        <v>10.973147179</v>
       </c>
     </row>
     <row r="70">
@@ -2039,22 +2039,22 @@
         <v>100</v>
       </c>
       <c r="B70" t="n">
-        <v>392.6181407417699</v>
+        <v>402.0528869672687</v>
       </c>
       <c r="C70" t="n">
-        <v>1138.023596352956</v>
+        <v>954.1879216654042</v>
       </c>
       <c r="D70" t="n">
-        <v>115</v>
+        <v>114.9996520036149</v>
       </c>
       <c r="E70" t="n">
-        <v>3.959642365</v>
+        <v>4.054444365</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06709116399999999</v>
+        <v>0.080144804</v>
       </c>
       <c r="G70" t="n">
-        <v>13.087271358</v>
+        <v>10.973132702</v>
       </c>
     </row>
     <row r="71">
@@ -2062,22 +2062,22 @@
         <v>100</v>
       </c>
       <c r="B71" t="n">
-        <v>395.0868654215337</v>
+        <v>411.8858913466364</v>
       </c>
       <c r="C71" t="n">
-        <v>1145.179320062416</v>
+        <v>1150</v>
       </c>
       <c r="D71" t="n">
-        <v>115</v>
+        <v>95.80806977755809</v>
       </c>
       <c r="E71" t="n">
-        <v>3.984317854</v>
+        <v>4.153240933</v>
       </c>
       <c r="F71" t="n">
-        <v>0.066699892</v>
+        <v>0.07995194999999999</v>
       </c>
       <c r="G71" t="n">
-        <v>13.169562181</v>
+        <v>11.017928024</v>
       </c>
     </row>
     <row r="72">
@@ -2085,22 +2085,22 @@
         <v>100</v>
       </c>
       <c r="B72" t="n">
-        <v>385.8102694510495</v>
+        <v>403.8294641269472</v>
       </c>
       <c r="C72" t="n">
-        <v>1118.290636089998</v>
+        <v>955.0475967631274</v>
       </c>
       <c r="D72" t="n">
-        <v>115</v>
+        <v>114.9999895333995</v>
       </c>
       <c r="E72" t="n">
-        <v>3.891598042</v>
+        <v>4.072207178</v>
       </c>
       <c r="F72" t="n">
-        <v>0.068196095</v>
+        <v>0.08009656599999999</v>
       </c>
       <c r="G72" t="n">
-        <v>12.860342315</v>
+        <v>10.983046531</v>
       </c>
     </row>
     <row r="73">
@@ -2108,22 +2108,22 @@
         <v>100</v>
       </c>
       <c r="B73" t="n">
-        <v>395.9166863461063</v>
+        <v>413.0352384774895</v>
       </c>
       <c r="C73" t="n">
-        <v>1147.584598104656</v>
+        <v>1150</v>
       </c>
       <c r="D73" t="n">
-        <v>115</v>
+        <v>95.88450751677756</v>
       </c>
       <c r="E73" t="n">
-        <v>3.992612194</v>
+        <v>4.164729911</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06656946800000001</v>
+        <v>0.079903746</v>
       </c>
       <c r="G73" t="n">
-        <v>13.197222878</v>
+        <v>11.026718364</v>
       </c>
     </row>
     <row r="74">
@@ -2131,22 +2131,22 @@
         <v>100</v>
       </c>
       <c r="B74" t="n">
-        <v>396.7471619388071</v>
+        <v>406.1852044624748</v>
       </c>
       <c r="C74" t="n">
-        <v>1149.99240313198</v>
+        <v>956.0027543151014</v>
       </c>
       <c r="D74" t="n">
-        <v>114.999937021147</v>
+        <v>114.9999758783345</v>
       </c>
       <c r="E74" t="n">
-        <v>4.000913121</v>
+        <v>4.095761322</v>
       </c>
       <c r="F74" t="n">
-        <v>0.06643948700000001</v>
+        <v>0.080048481</v>
       </c>
       <c r="G74" t="n">
-        <v>13.224905394</v>
+        <v>10.994029369</v>
       </c>
     </row>
     <row r="75">
@@ -2154,22 +2154,22 @@
         <v>100</v>
       </c>
       <c r="B75" t="n">
-        <v>396.7485194649403</v>
+        <v>414.3402709678455</v>
       </c>
       <c r="C75" t="n">
-        <v>1149.996259178711</v>
+        <v>1150</v>
       </c>
       <c r="D75" t="n">
-        <v>114.9999449026916</v>
+        <v>95.96356354358522</v>
       </c>
       <c r="E75" t="n">
-        <v>4.00092669</v>
+        <v>4.177775597</v>
       </c>
       <c r="F75" t="n">
-        <v>0.06643927500000001</v>
+        <v>0.079855543</v>
       </c>
       <c r="G75" t="n">
-        <v>13.224950644</v>
+        <v>11.035809808</v>
       </c>
     </row>
     <row r="76">
@@ -2177,22 +2177,22 @@
         <v>100</v>
       </c>
       <c r="B76" t="n">
-        <v>396.7483960534763</v>
+        <v>410.8479872774296</v>
       </c>
       <c r="C76" t="n">
-        <v>1149.995912976058</v>
+        <v>1150</v>
       </c>
       <c r="D76" t="n">
-        <v>114.9999437514799</v>
+        <v>95.73352907759296</v>
       </c>
       <c r="E76" t="n">
-        <v>4.000925456</v>
+        <v>4.14286628</v>
       </c>
       <c r="F76" t="n">
-        <v>0.066439294</v>
+        <v>0.080000153</v>
       </c>
       <c r="G76" t="n">
-        <v>13.224946531</v>
+        <v>11.009355844</v>
       </c>
     </row>
     <row r="77">
@@ -2200,22 +2200,22 @@
         <v>100</v>
       </c>
       <c r="B77" t="n">
-        <v>389.051671095183</v>
+        <v>410.8483305205725</v>
       </c>
       <c r="C77" t="n">
-        <v>1127.686003174443</v>
+        <v>1150</v>
       </c>
       <c r="D77" t="n">
-        <v>115</v>
+        <v>95.73353465108403</v>
       </c>
       <c r="E77" t="n">
-        <v>3.923995319</v>
+        <v>4.142869712</v>
       </c>
       <c r="F77" t="n">
-        <v>0.067665187</v>
+        <v>0.080000153</v>
       </c>
       <c r="G77" t="n">
-        <v>12.968389037</v>
+        <v>11.009356485</v>
       </c>
     </row>
     <row r="78">
@@ -2223,22 +2223,22 @@
         <v>100</v>
       </c>
       <c r="B78" t="n">
-        <v>394.7241227285338</v>
+        <v>415.887257622833</v>
       </c>
       <c r="C78" t="n">
-        <v>1144.127891966764</v>
+        <v>1149.99805144307</v>
       </c>
       <c r="D78" t="n">
-        <v>115</v>
+        <v>96.0465769365853</v>
       </c>
       <c r="E78" t="n">
-        <v>3.980692132</v>
+        <v>4.193240605</v>
       </c>
       <c r="F78" t="n">
-        <v>0.066757077</v>
+        <v>0.07980753</v>
       </c>
       <c r="G78" t="n">
-        <v>13.157470758</v>
+        <v>11.045337633</v>
       </c>
     </row>
     <row r="79">
@@ -2246,22 +2246,22 @@
         <v>100</v>
       </c>
       <c r="B79" t="n">
-        <v>393.9137711096628</v>
+        <v>411.8860995370237</v>
       </c>
       <c r="C79" t="n">
-        <v>1141.779046694674</v>
+        <v>1150</v>
       </c>
       <c r="D79" t="n">
-        <v>115</v>
+        <v>95.80807314174591</v>
       </c>
       <c r="E79" t="n">
-        <v>3.972592452</v>
+        <v>4.153243014</v>
       </c>
       <c r="F79" t="n">
-        <v>0.066885206</v>
+        <v>0.07995194999999999</v>
       </c>
       <c r="G79" t="n">
-        <v>13.130459037</v>
+        <v>11.017928411</v>
       </c>
     </row>
     <row r="80">
@@ -2269,22 +2269,22 @@
         <v>100</v>
       </c>
       <c r="B80" t="n">
-        <v>389.3740966494571</v>
+        <v>417.9116873347312</v>
       </c>
       <c r="C80" t="n">
-        <v>1128.620569998426</v>
+        <v>1150</v>
       </c>
       <c r="D80" t="n">
-        <v>115</v>
+        <v>96.13751795408803</v>
       </c>
       <c r="E80" t="n">
-        <v>3.927217946</v>
+        <v>4.21347958</v>
       </c>
       <c r="F80" t="n">
-        <v>0.067612861</v>
+        <v>0.07975918799999999</v>
       </c>
       <c r="G80" t="n">
-        <v>12.979136555</v>
+        <v>11.055814565</v>
       </c>
     </row>
     <row r="81">
@@ -2292,22 +2292,22 @@
         <v>100</v>
       </c>
       <c r="B81" t="n">
-        <v>392.2096825010705</v>
+        <v>413.0352580885039</v>
       </c>
       <c r="C81" t="n">
-        <v>1136.839659423393</v>
+        <v>1150</v>
       </c>
       <c r="D81" t="n">
-        <v>115</v>
+        <v>95.88450785100635</v>
       </c>
       <c r="E81" t="n">
-        <v>3.955559764</v>
+        <v>4.164730107</v>
       </c>
       <c r="F81" t="n">
-        <v>0.067156376</v>
+        <v>0.079903746</v>
       </c>
       <c r="G81" t="n">
-        <v>13.073656083</v>
+        <v>11.026718403</v>
       </c>
     </row>
     <row r="82">
@@ -2315,22 +2315,22 @@
         <v>100</v>
       </c>
       <c r="B82" t="n">
-        <v>393.8486349167433</v>
+        <v>422.543514578065</v>
       </c>
       <c r="C82" t="n">
-        <v>1141.590246135488</v>
+        <v>1150</v>
       </c>
       <c r="D82" t="n">
-        <v>115</v>
+        <v>96.270839539378</v>
       </c>
       <c r="E82" t="n">
-        <v>3.9719414</v>
+        <v>4.259790074</v>
       </c>
       <c r="F82" t="n">
-        <v>0.066895528</v>
+        <v>0.07971107400000001</v>
       </c>
       <c r="G82" t="n">
-        <v>13.128287831</v>
+        <v>11.071146547</v>
       </c>
     </row>
     <row r="83">
@@ -2338,22 +2338,22 @@
         <v>100</v>
       </c>
       <c r="B83" t="n">
-        <v>394.2605153857351</v>
+        <v>414.34098761458</v>
       </c>
       <c r="C83" t="n">
-        <v>1142.784102567348</v>
+        <v>1150</v>
       </c>
       <c r="D83" t="n">
-        <v>115</v>
+        <v>95.96357522987114</v>
       </c>
       <c r="E83" t="n">
-        <v>3.976058248</v>
+        <v>4.177782763</v>
       </c>
       <c r="F83" t="n">
-        <v>0.066830316</v>
+        <v>0.079855543</v>
       </c>
       <c r="G83" t="n">
-        <v>13.14201718</v>
+        <v>11.035811151</v>
       </c>
     </row>
     <row r="84">
@@ -2361,22 +2361,22 @@
         <v>100</v>
       </c>
       <c r="B84" t="n">
-        <v>394.6732578159864</v>
+        <v>426.04542953754</v>
       </c>
       <c r="C84" t="n">
-        <v>1143.980457437641</v>
+        <v>1150</v>
       </c>
       <c r="D84" t="n">
-        <v>115</v>
+        <v>96.30223072025717</v>
       </c>
       <c r="E84" t="n">
-        <v>3.980183722</v>
+        <v>4.294807395</v>
       </c>
       <c r="F84" t="n">
-        <v>0.06676510400000001</v>
+        <v>0.079732206</v>
       </c>
       <c r="G84" t="n">
-        <v>13.155775261</v>
+        <v>11.074756533</v>
       </c>
     </row>
     <row r="85">
@@ -2384,22 +2384,22 @@
         <v>100</v>
       </c>
       <c r="B85" t="n">
-        <v>394.6732579526687</v>
+        <v>385.7251846790047</v>
       </c>
       <c r="C85" t="n">
-        <v>1143.980457833822</v>
+        <v>940.9144530092886</v>
       </c>
       <c r="D85" t="n">
         <v>115</v>
       </c>
       <c r="E85" t="n">
-        <v>3.980183724</v>
+        <v>3.891213972</v>
       </c>
       <c r="F85" t="n">
-        <v>0.06676510400000001</v>
+        <v>0.081050318</v>
       </c>
       <c r="G85" t="n">
-        <v>13.155775265</v>
+        <v>10.82051621</v>
       </c>
     </row>
     <row r="86">
@@ -2407,22 +2407,22 @@
         <v>100</v>
       </c>
       <c r="B86" t="n">
-        <v>395.0868654840825</v>
+        <v>415.8915931126388</v>
       </c>
       <c r="C86" t="n">
-        <v>1145.179320243717</v>
+        <v>1150</v>
       </c>
       <c r="D86" t="n">
-        <v>115</v>
+        <v>96.04671389837651</v>
       </c>
       <c r="E86" t="n">
-        <v>3.984317855</v>
+        <v>4.193283947</v>
       </c>
       <c r="F86" t="n">
-        <v>0.066699892</v>
+        <v>0.079807339</v>
       </c>
       <c r="G86" t="n">
-        <v>13.169562183</v>
+        <v>11.045372098</v>
       </c>
     </row>
     <row r="87">
@@ -2430,22 +2430,22 @@
         <v>100</v>
       </c>
       <c r="B87" t="n">
-        <v>395.5013407085627</v>
+        <v>415.8907258841035</v>
       </c>
       <c r="C87" t="n">
-        <v>1146.380697705978</v>
+        <v>1150</v>
       </c>
       <c r="D87" t="n">
-        <v>115</v>
+        <v>96.0466998156918</v>
       </c>
       <c r="E87" t="n">
-        <v>3.988460669</v>
+        <v>4.193275276</v>
       </c>
       <c r="F87" t="n">
-        <v>0.06663468</v>
+        <v>0.079807339</v>
       </c>
       <c r="G87" t="n">
-        <v>13.183378024</v>
+        <v>11.045370479</v>
       </c>
     </row>
     <row r="88">
@@ -2453,22 +2453,22 @@
         <v>100</v>
       </c>
       <c r="B88" t="n">
-        <v>386.6206198620829</v>
+        <v>417.91238669252</v>
       </c>
       <c r="C88" t="n">
-        <v>1120.639477861109</v>
+        <v>1150</v>
       </c>
       <c r="D88" t="n">
-        <v>115</v>
+        <v>96.13759128479623</v>
       </c>
       <c r="E88" t="n">
-        <v>3.899697298</v>
+        <v>4.213486569</v>
       </c>
       <c r="F88" t="n">
-        <v>0.06806253399999999</v>
+        <v>0.07975913599999999</v>
       </c>
       <c r="G88" t="n">
-        <v>12.887353995</v>
+        <v>11.055822998</v>
       </c>
     </row>
     <row r="89">
@@ -2476,22 +2476,22 @@
         <v>100</v>
       </c>
       <c r="B89" t="n">
-        <v>396.7476555846785</v>
+        <v>417.9134678260742</v>
       </c>
       <c r="C89" t="n">
-        <v>1149.993816765362</v>
+        <v>1150</v>
       </c>
       <c r="D89" t="n">
-        <v>114.9999387437022</v>
+        <v>96.13760885199838</v>
       </c>
       <c r="E89" t="n">
-        <v>4.000918055</v>
+        <v>4.213497379</v>
       </c>
       <c r="F89" t="n">
-        <v>0.06643941</v>
+        <v>0.07975913599999999</v>
       </c>
       <c r="G89" t="n">
-        <v>13.224921848</v>
+        <v>11.055825018</v>
       </c>
     </row>
     <row r="90">
@@ -2499,22 +2499,22 @@
         <v>100</v>
       </c>
       <c r="B90" t="n">
-        <v>396.7493833343023</v>
+        <v>422.7171333280417</v>
       </c>
       <c r="C90" t="n">
-        <v>1149.999068848268</v>
+        <v>1150</v>
       </c>
       <c r="D90" t="n">
-        <v>114.9999143329401</v>
+        <v>96.27383178950817</v>
       </c>
       <c r="E90" t="n">
-        <v>4.000935325</v>
+        <v>4.261526087</v>
       </c>
       <c r="F90" t="n">
-        <v>0.06643913999999999</v>
+        <v>0.079710933</v>
       </c>
       <c r="G90" t="n">
-        <v>13.22497944</v>
+        <v>11.071490656</v>
       </c>
     </row>
     <row r="91">
@@ -2522,22 +2522,22 @@
         <v>100</v>
       </c>
       <c r="B91" t="n">
-        <v>396.7491365222359</v>
+        <v>422.7395620526922</v>
       </c>
       <c r="C91" t="n">
-        <v>1149.997966189067</v>
+        <v>1150</v>
       </c>
       <c r="D91" t="n">
-        <v>114.9999530590282</v>
+        <v>96.27419631132307</v>
       </c>
       <c r="E91" t="n">
-        <v>4.000932857</v>
+        <v>4.261750353</v>
       </c>
       <c r="F91" t="n">
-        <v>0.066439179</v>
+        <v>0.079710933</v>
       </c>
       <c r="G91" t="n">
-        <v>13.224971213</v>
+        <v>11.071532576</v>
       </c>
     </row>
     <row r="92">
@@ -2545,22 +2545,22 @@
         <v>100</v>
       </c>
       <c r="B92" t="n">
-        <v>390.6723719172497</v>
+        <v>387.2092642502319</v>
       </c>
       <c r="C92" t="n">
-        <v>1132.383686716666</v>
+        <v>942.493585451666</v>
       </c>
       <c r="D92" t="n">
         <v>115</v>
       </c>
       <c r="E92" t="n">
-        <v>3.940194208</v>
+        <v>3.906049101</v>
       </c>
       <c r="F92" t="n">
-        <v>0.067403037</v>
+        <v>0.080934926</v>
       </c>
       <c r="G92" t="n">
-        <v>13.022412397</v>
+        <v>10.838676233</v>
       </c>
     </row>
     <row r="93">
@@ -2568,22 +2568,22 @@
         <v>100</v>
       </c>
       <c r="B93" t="n">
-        <v>396.75</v>
+        <v>390.4053703656738</v>
       </c>
       <c r="C93" t="n">
-        <v>1150</v>
+        <v>945.6518503364211</v>
       </c>
       <c r="D93" t="n">
         <v>115</v>
       </c>
       <c r="E93" t="n">
-        <v>4.000941487</v>
+        <v>3.937998924</v>
       </c>
       <c r="F93" t="n">
-        <v>0.066439044</v>
+        <v>0.080708422</v>
       </c>
       <c r="G93" t="n">
-        <v>13.225</v>
+        <v>10.874996279</v>
       </c>
     </row>
     <row r="94">
@@ -2591,22 +2591,22 @@
         <v>100</v>
       </c>
       <c r="B94" t="n">
-        <v>390.267196711733</v>
+        <v>388.7651857632966</v>
       </c>
       <c r="C94" t="n">
-        <v>1131.20926583111</v>
+        <v>944.0727178940434</v>
       </c>
       <c r="D94" t="n">
         <v>115</v>
       </c>
       <c r="E94" t="n">
-        <v>3.936144471</v>
+        <v>3.921602681</v>
       </c>
       <c r="F94" t="n">
-        <v>0.06746837</v>
+        <v>0.080820906</v>
       </c>
       <c r="G94" t="n">
-        <v>13.008906557</v>
+        <v>10.856836256</v>
       </c>
     </row>
     <row r="95">
@@ -2614,22 +2614,22 @@
         <v>100</v>
       </c>
       <c r="B95" t="n">
-        <v>386.9760222775737</v>
+        <v>397.1423818692678</v>
       </c>
       <c r="C95" t="n">
-        <v>1121.669629790068</v>
+        <v>951.1788138847417</v>
       </c>
       <c r="D95" t="n">
         <v>115</v>
       </c>
       <c r="E95" t="n">
-        <v>3.903249473</v>
+        <v>4.005349679</v>
       </c>
       <c r="F95" t="n">
-        <v>0.06800413299999999</v>
+        <v>0.08033124</v>
       </c>
       <c r="G95" t="n">
-        <v>12.899200743</v>
+        <v>10.93855636</v>
       </c>
     </row>
     <row r="96">
@@ -2637,22 +2637,22 @@
         <v>100</v>
       </c>
       <c r="B96" t="n">
-        <v>387.373648222094</v>
+        <v>412.1838129079383</v>
       </c>
       <c r="C96" t="n">
-        <v>1122.822168759692</v>
+        <v>1150</v>
       </c>
       <c r="D96" t="n">
-        <v>115</v>
+        <v>95.828490987544</v>
       </c>
       <c r="E96" t="n">
-        <v>3.907223672</v>
+        <v>4.156218947</v>
       </c>
       <c r="F96" t="n">
-        <v>0.067938921</v>
+        <v>0.07993894</v>
       </c>
       <c r="G96" t="n">
-        <v>12.912454941</v>
+        <v>11.020276464</v>
       </c>
     </row>
     <row r="97">
@@ -2660,22 +2660,22 @@
         <v>100</v>
       </c>
       <c r="B97" t="n">
-        <v>387.7720920203519</v>
+        <v>420.4400743206214</v>
       </c>
       <c r="C97" t="n">
-        <v>1123.97707831986</v>
+        <v>1150</v>
       </c>
       <c r="D97" t="n">
-        <v>115</v>
+        <v>96.22327409813836</v>
       </c>
       <c r="E97" t="n">
-        <v>3.911206056</v>
+        <v>4.238758444</v>
       </c>
       <c r="F97" t="n">
-        <v>0.067873709</v>
+        <v>0.079722152</v>
       </c>
       <c r="G97" t="n">
-        <v>12.925736401</v>
+        <v>11.065676521</v>
       </c>
     </row>
     <row r="98">
@@ -2683,22 +2683,22 @@
         <v>100</v>
       </c>
       <c r="B98" t="n">
-        <v>389.3740964449431</v>
+        <v>387.4606371794941</v>
       </c>
       <c r="C98" t="n">
-        <v>1128.620569405632</v>
+        <v>942.7540872391227</v>
       </c>
       <c r="D98" t="n">
         <v>115</v>
       </c>
       <c r="E98" t="n">
-        <v>3.927217944</v>
+        <v>3.908561898</v>
       </c>
       <c r="F98" t="n">
-        <v>0.067612861</v>
+        <v>0.08091601800000001</v>
       </c>
       <c r="G98" t="n">
-        <v>12.979136548</v>
+        <v>10.841672003</v>
       </c>
     </row>
     <row r="99">
@@ -2706,22 +2706,22 @@
         <v>100</v>
       </c>
       <c r="B99" t="n">
-        <v>389.7766676242314</v>
+        <v>388.7830675233189</v>
       </c>
       <c r="C99" t="n">
-        <v>1129.787442389076</v>
+        <v>944.0904112360345</v>
       </c>
       <c r="D99" t="n">
         <v>115</v>
       </c>
       <c r="E99" t="n">
-        <v>3.931241632</v>
+        <v>3.921781436</v>
       </c>
       <c r="F99" t="n">
-        <v>0.067547649</v>
+        <v>0.080819637</v>
       </c>
       <c r="G99" t="n">
-        <v>12.992555587</v>
+        <v>10.857039729</v>
       </c>
     </row>
     <row r="100">
@@ -2729,22 +2729,22 @@
         <v>100</v>
       </c>
       <c r="B100" t="n">
-        <v>390.5843123471435</v>
+        <v>411.0647492988736</v>
       </c>
       <c r="C100" t="n">
-        <v>1132.128441585923</v>
+        <v>1150</v>
       </c>
       <c r="D100" t="n">
-        <v>115</v>
+        <v>95.74953436542515</v>
       </c>
       <c r="E100" t="n">
-        <v>3.93931405</v>
+        <v>4.145032958</v>
       </c>
       <c r="F100" t="n">
-        <v>0.067417225</v>
+        <v>0.079989714</v>
       </c>
       <c r="G100" t="n">
-        <v>13.019477078</v>
+        <v>11.011196452</v>
       </c>
     </row>
     <row r="101">
@@ -2752,22 +2752,22 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>390.9893908081689</v>
+        <v>398.0894314842122</v>
       </c>
       <c r="C101" t="n">
-        <v>1133.302582052663</v>
+        <v>951.8276592451506</v>
       </c>
       <c r="D101" t="n">
         <v>115</v>
       </c>
       <c r="E101" t="n">
-        <v>3.943362828</v>
+        <v>4.014817927</v>
       </c>
       <c r="F101" t="n">
-        <v>0.067352013</v>
+        <v>0.080289373</v>
       </c>
       <c r="G101" t="n">
-        <v>13.032979694</v>
+        <v>10.946018081</v>
       </c>
     </row>
     <row r="102">
@@ -2775,22 +2775,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>393.0274503561261</v>
+        <v>399.269189410684</v>
       </c>
       <c r="C102" t="n">
-        <v>1139.210001032249</v>
+        <v>952.5899762518193</v>
       </c>
       <c r="D102" t="n">
         <v>115</v>
       </c>
       <c r="E102" t="n">
-        <v>3.963733486</v>
+        <v>4.026612873</v>
       </c>
       <c r="F102" t="n">
-        <v>0.067025952</v>
+        <v>0.08024117</v>
       </c>
       <c r="G102" t="n">
-        <v>13.100915012</v>
+        <v>10.954784727</v>
       </c>
     </row>
     <row r="103">
@@ -2798,22 +2798,22 @@
         <v>100</v>
       </c>
       <c r="B103" t="n">
-        <v>394.2605152692469</v>
+        <v>400.5740329704798</v>
       </c>
       <c r="C103" t="n">
-        <v>1142.784102229701</v>
+        <v>953.3734205295401</v>
       </c>
       <c r="D103" t="n">
         <v>115</v>
       </c>
       <c r="E103" t="n">
-        <v>3.976058247</v>
+        <v>4.039658609</v>
       </c>
       <c r="F103" t="n">
-        <v>0.066830316</v>
+        <v>0.080192967</v>
       </c>
       <c r="G103" t="n">
-        <v>13.142017176</v>
+        <v>10.963794336</v>
       </c>
     </row>
     <row r="104">
@@ -2821,22 +2821,22 @@
         <v>100</v>
       </c>
       <c r="B104" t="n">
-        <v>396.7469151158709</v>
+        <v>411.8820658895559</v>
       </c>
       <c r="C104" t="n">
-        <v>1149.991695625808</v>
+        <v>1149.997377504542</v>
       </c>
       <c r="D104" t="n">
-        <v>114.9999362288222</v>
+        <v>95.80790089337631</v>
       </c>
       <c r="E104" t="n">
-        <v>4.000910654</v>
+        <v>4.153202694</v>
       </c>
       <c r="F104" t="n">
-        <v>0.066439526</v>
+        <v>0.079952221</v>
       </c>
       <c r="G104" t="n">
-        <v>13.224897166</v>
+        <v>11.017883477</v>
       </c>
     </row>
     <row r="105">
@@ -2844,22 +2844,22 @@
         <v>100</v>
       </c>
       <c r="B105" t="n">
-        <v>388.2413206841496</v>
+        <v>413.0280097939458</v>
       </c>
       <c r="C105" t="n">
-        <v>1125.337161403332</v>
+        <v>1150</v>
       </c>
       <c r="D105" t="n">
-        <v>115</v>
+        <v>95.88404488930257</v>
       </c>
       <c r="E105" t="n">
-        <v>3.915895937</v>
+        <v>4.164657652</v>
       </c>
       <c r="F105" t="n">
-        <v>0.06779708299999999</v>
+        <v>0.079904034</v>
       </c>
       <c r="G105" t="n">
-        <v>12.941377356</v>
+        <v>11.026665162</v>
       </c>
     </row>
     <row r="106">
@@ -2867,22 +2867,22 @@
         <v>100</v>
       </c>
       <c r="B106" t="n">
-        <v>396.7481492305461</v>
+        <v>414.329795207903</v>
       </c>
       <c r="C106" t="n">
-        <v>1149.995219206606</v>
+        <v>1150</v>
       </c>
       <c r="D106" t="n">
-        <v>114.9999415854742</v>
+        <v>95.96293012960385</v>
       </c>
       <c r="E106" t="n">
-        <v>4.000922989</v>
+        <v>4.177670877</v>
       </c>
       <c r="F106" t="n">
-        <v>0.066439333</v>
+        <v>0.07985592900000001</v>
       </c>
       <c r="G106" t="n">
-        <v>13.224938303</v>
+        <v>11.035736965</v>
       </c>
     </row>
     <row r="107">
@@ -2890,22 +2890,22 @@
         <v>100</v>
       </c>
       <c r="B107" t="n">
-        <v>396.7480258190798</v>
+        <v>414.3410631345494</v>
       </c>
       <c r="C107" t="n">
-        <v>1149.9948719789</v>
+        <v>1150</v>
       </c>
       <c r="D107" t="n">
-        <v>114.9999405367719</v>
+        <v>95.96357651644855</v>
       </c>
       <c r="E107" t="n">
-        <v>4.000921756</v>
+        <v>4.177783518</v>
       </c>
       <c r="F107" t="n">
-        <v>0.06643935199999999</v>
+        <v>0.079855543</v>
       </c>
       <c r="G107" t="n">
-        <v>13.22493419</v>
+        <v>11.035811299</v>
       </c>
     </row>
     <row r="108">
@@ -2913,22 +2913,22 @@
         <v>100</v>
       </c>
       <c r="B108" t="n">
-        <v>393.1034231503499</v>
+        <v>391.262392122422</v>
       </c>
       <c r="C108" t="n">
-        <v>1139.430212029999</v>
+        <v>946.44141655761</v>
       </c>
       <c r="D108" t="n">
         <v>115</v>
       </c>
       <c r="E108" t="n">
-        <v>3.964492849</v>
+        <v>3.946566352</v>
       </c>
       <c r="F108" t="n">
-        <v>0.06701386300000001</v>
+        <v>0.080652826</v>
       </c>
       <c r="G108" t="n">
-        <v>13.103447438</v>
+        <v>10.88407629</v>
       </c>
     </row>
     <row r="109">
@@ -2936,22 +2936,22 @@
         <v>100</v>
       </c>
       <c r="B109" t="n">
-        <v>393.5085951446044</v>
+        <v>415.8915445145848</v>
       </c>
       <c r="C109" t="n">
-        <v>1140.604623607549</v>
+        <v>1150</v>
       </c>
       <c r="D109" t="n">
-        <v>115</v>
+        <v>96.04671310467222</v>
       </c>
       <c r="E109" t="n">
-        <v>3.968542626</v>
+        <v>4.193283461</v>
       </c>
       <c r="F109" t="n">
-        <v>0.066949469</v>
+        <v>0.079807339</v>
       </c>
       <c r="G109" t="n">
-        <v>13.116953171</v>
+        <v>11.045372007</v>
       </c>
     </row>
     <row r="110">
@@ -2959,22 +2959,22 @@
         <v>100</v>
       </c>
       <c r="B110" t="n">
-        <v>388.5714434469401</v>
+        <v>415.8913924912139</v>
       </c>
       <c r="C110" t="n">
-        <v>1126.294038976637</v>
+        <v>1150</v>
       </c>
       <c r="D110" t="n">
-        <v>115</v>
+        <v>96.04671064142434</v>
       </c>
       <c r="E110" t="n">
-        <v>3.91919548</v>
+        <v>4.193281941</v>
       </c>
       <c r="F110" t="n">
-        <v>0.067743285</v>
+        <v>0.079807339</v>
       </c>
       <c r="G110" t="n">
-        <v>12.952381448</v>
+        <v>11.045371724</v>
       </c>
     </row>
     <row r="111">
@@ -2982,22 +2982,22 @@
         <v>100</v>
       </c>
       <c r="B111" t="n">
-        <v>389.7766677533654</v>
+        <v>417.9126209716361</v>
       </c>
       <c r="C111" t="n">
-        <v>1129.787442763378</v>
+        <v>1150</v>
       </c>
       <c r="D111" t="n">
-        <v>115</v>
+        <v>96.13759505044854</v>
       </c>
       <c r="E111" t="n">
-        <v>3.931241633</v>
+        <v>4.213488912</v>
       </c>
       <c r="F111" t="n">
-        <v>0.067547649</v>
+        <v>0.07975913599999999</v>
       </c>
       <c r="G111" t="n">
-        <v>12.992555592</v>
+        <v>11.055823431</v>
       </c>
     </row>
     <row r="112">
@@ -3005,22 +3005,22 @@
         <v>100</v>
       </c>
       <c r="B112" t="n">
-        <v>393.4376143185747</v>
+        <v>417.9075596339309</v>
       </c>
       <c r="C112" t="n">
-        <v>1140.398882082825</v>
+        <v>1149.984156733374</v>
       </c>
       <c r="D112" t="n">
-        <v>115</v>
+        <v>96.13800163810328</v>
       </c>
       <c r="E112" t="n">
-        <v>3.967833157</v>
+        <v>4.213438312</v>
       </c>
       <c r="F112" t="n">
-        <v>0.06696074</v>
+        <v>0.079759829</v>
       </c>
       <c r="G112" t="n">
-        <v>13.114587144</v>
+        <v>11.055717874</v>
       </c>
     </row>
     <row r="113">
@@ -3028,22 +3028,22 @@
         <v>100</v>
       </c>
       <c r="B113" t="n">
-        <v>393.8486350795552</v>
+        <v>422.2980121411576</v>
       </c>
       <c r="C113" t="n">
-        <v>1141.590246607406</v>
+        <v>1150</v>
       </c>
       <c r="D113" t="n">
-        <v>115</v>
+        <v>96.26639360050687</v>
       </c>
       <c r="E113" t="n">
-        <v>3.971941402</v>
+        <v>4.257335309</v>
       </c>
       <c r="F113" t="n">
-        <v>0.066895528</v>
+        <v>0.07971145</v>
       </c>
       <c r="G113" t="n">
-        <v>13.128287836</v>
+        <v>11.070635264</v>
       </c>
     </row>
     <row r="114">
@@ -3051,22 +3051,22 @@
         <v>100</v>
       </c>
       <c r="B114" t="n">
-        <v>394.6732579138783</v>
+        <v>422.1492807654041</v>
       </c>
       <c r="C114" t="n">
-        <v>1143.980457721386</v>
+        <v>1150</v>
       </c>
       <c r="D114" t="n">
-        <v>115</v>
+        <v>96.2635595715136</v>
       </c>
       <c r="E114" t="n">
-        <v>3.980183723</v>
+        <v>4.25584816</v>
       </c>
       <c r="F114" t="n">
-        <v>0.06676510400000001</v>
+        <v>0.079711795</v>
       </c>
       <c r="G114" t="n">
-        <v>13.155775264</v>
+        <v>11.070309351</v>
       </c>
     </row>
     <row r="115">
@@ -3074,22 +3074,22 @@
         <v>100</v>
       </c>
       <c r="B115" t="n">
-        <v>396.7474087617429</v>
+        <v>422.419527957989</v>
       </c>
       <c r="C115" t="n">
-        <v>1149.993110188715</v>
+        <v>1150</v>
       </c>
       <c r="D115" t="n">
-        <v>114.9999378584188</v>
+        <v>96.26862905727383</v>
       </c>
       <c r="E115" t="n">
-        <v>4.000915588</v>
+        <v>4.258550337</v>
       </c>
       <c r="F115" t="n">
-        <v>0.066439449</v>
+        <v>0.07971123500000001</v>
       </c>
       <c r="G115" t="n">
-        <v>13.224913621</v>
+        <v>11.070892342</v>
       </c>
     </row>
     <row r="116">
@@ -3097,22 +3097,22 @@
         <v>100</v>
       </c>
       <c r="B116" t="n">
-        <v>389.8620215062164</v>
+        <v>405.9475506510973</v>
       </c>
       <c r="C116" t="n">
-        <v>1130.034844945554</v>
+        <v>955.9162112118738</v>
       </c>
       <c r="D116" t="n">
         <v>115</v>
       </c>
       <c r="E116" t="n">
-        <v>3.932094743</v>
+        <v>4.093385077</v>
       </c>
       <c r="F116" t="n">
-        <v>0.06753384</v>
+        <v>0.08005249</v>
       </c>
       <c r="G116" t="n">
-        <v>12.995400717</v>
+        <v>10.993036429</v>
       </c>
     </row>
     <row r="117">
@@ -3120,22 +3120,22 @@
         <v>100</v>
       </c>
       <c r="B117" t="n">
-        <v>396.7488896993248</v>
+        <v>393.0642389269594</v>
       </c>
       <c r="C117" t="n">
-        <v>1149.997291028893</v>
+        <v>948.0205489999869</v>
       </c>
       <c r="D117" t="n">
-        <v>114.9999490321025</v>
+        <v>115</v>
       </c>
       <c r="E117" t="n">
-        <v>4.00093039</v>
+        <v>3.964579265</v>
       </c>
       <c r="F117" t="n">
-        <v>0.06643921699999999</v>
+        <v>0.080543112</v>
       </c>
       <c r="G117" t="n">
-        <v>13.224962986</v>
+        <v>10.902236313</v>
       </c>
     </row>
     <row r="118">
@@ -3143,22 +3143,22 @@
         <v>100</v>
       </c>
       <c r="B118" t="n">
-        <v>396.749013110782</v>
+        <v>399.5403019031784</v>
       </c>
       <c r="C118" t="n">
-        <v>1149.997630621306</v>
+        <v>952.757946327119</v>
       </c>
       <c r="D118" t="n">
-        <v>114.9999508443343</v>
+        <v>115</v>
       </c>
       <c r="E118" t="n">
-        <v>4.000931624</v>
+        <v>4.029323418</v>
       </c>
       <c r="F118" t="n">
-        <v>0.066439198</v>
+        <v>0.080230711</v>
       </c>
       <c r="G118" t="n">
-        <v>13.224967099</v>
+        <v>10.956716383</v>
       </c>
     </row>
     <row r="119">
@@ -3166,22 +3166,22 @@
         <v>100</v>
       </c>
       <c r="B119" t="n">
-        <v>389.4568463006997</v>
+        <v>391.6723405186835</v>
       </c>
       <c r="C119" t="n">
-        <v>1128.860424059999</v>
+        <v>946.8149785476676</v>
       </c>
       <c r="D119" t="n">
-        <v>115</v>
+        <v>114.9989989504847</v>
       </c>
       <c r="E119" t="n">
-        <v>3.928045026</v>
+        <v>3.950664569</v>
       </c>
       <c r="F119" t="n">
-        <v>0.06759944499999999</v>
+        <v>0.080627318</v>
       </c>
       <c r="G119" t="n">
-        <v>12.981894877</v>
+        <v>10.888277472</v>
       </c>
     </row>
     <row r="120">
@@ -3189,22 +3189,22 @@
         <v>100</v>
       </c>
       <c r="B120" t="n">
-        <v>395.9396493915972</v>
+        <v>393.2841286004898</v>
       </c>
       <c r="C120" t="n">
-        <v>1147.651157656803</v>
+        <v>948.2057002755979</v>
       </c>
       <c r="D120" t="n">
         <v>115</v>
       </c>
       <c r="E120" t="n">
-        <v>3.992841718</v>
+        <v>3.966777513</v>
       </c>
       <c r="F120" t="n">
-        <v>0.066565867</v>
+        <v>0.08053038999999999</v>
       </c>
       <c r="G120" t="n">
-        <v>13.197988313</v>
+        <v>10.904365553</v>
       </c>
     </row>
     <row r="121">
@@ -3212,22 +3212,22 @@
         <v>100</v>
       </c>
       <c r="B121" t="n">
-        <v>390.1800722191761</v>
+        <v>394.1417275550959</v>
       </c>
       <c r="C121" t="n">
-        <v>1130.956731070075</v>
+        <v>948.9117000820639</v>
       </c>
       <c r="D121" t="n">
         <v>115</v>
       </c>
       <c r="E121" t="n">
-        <v>3.93527366</v>
+        <v>3.97535103</v>
       </c>
       <c r="F121" t="n">
-        <v>0.06748243700000001</v>
+        <v>0.080482187</v>
       </c>
       <c r="G121" t="n">
-        <v>13.006002407</v>
+        <v>10.912484551</v>
       </c>
     </row>
     <row r="122">
@@ -3235,22 +3235,22 @@
         <v>100</v>
       </c>
       <c r="B122" t="n">
-        <v>390.584312318635</v>
+        <v>413.4003059781986</v>
       </c>
       <c r="C122" t="n">
-        <v>1132.128441503289</v>
+        <v>1150</v>
       </c>
       <c r="D122" t="n">
-        <v>115</v>
+        <v>95.90744760966288</v>
       </c>
       <c r="E122" t="n">
-        <v>3.939314049</v>
+        <v>4.168379239</v>
       </c>
       <c r="F122" t="n">
-        <v>0.067417225</v>
+        <v>0.07988956699999999</v>
       </c>
       <c r="G122" t="n">
-        <v>13.019477077</v>
+        <v>11.029356475</v>
       </c>
     </row>
     <row r="123">
@@ -3258,22 +3258,22 @@
         <v>100</v>
       </c>
       <c r="B123" t="n">
-        <v>389.7766678500045</v>
+        <v>395.0416406495414</v>
       </c>
       <c r="C123" t="n">
-        <v>1129.787443043491</v>
+        <v>949.6253622852563</v>
       </c>
       <c r="D123" t="n">
         <v>115</v>
       </c>
       <c r="E123" t="n">
-        <v>3.931241634</v>
+        <v>3.984347669</v>
       </c>
       <c r="F123" t="n">
-        <v>0.067547649</v>
+        <v>0.080433984</v>
       </c>
       <c r="G123" t="n">
-        <v>12.992555595</v>
+        <v>10.920691666</v>
       </c>
     </row>
     <row r="124">
@@ -3281,22 +3281,22 @@
         <v>100</v>
       </c>
       <c r="B124" t="n">
-        <v>391.8020732552174</v>
+        <v>400.5693531685906</v>
       </c>
       <c r="C124" t="n">
-        <v>1135.658183348456</v>
+        <v>953.3689918544655</v>
       </c>
       <c r="D124" t="n">
         <v>115</v>
       </c>
       <c r="E124" t="n">
-        <v>3.951485659</v>
+        <v>4.039611826</v>
       </c>
       <c r="F124" t="n">
-        <v>0.067221588</v>
+        <v>0.08019327599999999</v>
       </c>
       <c r="G124" t="n">
-        <v>13.060069109</v>
+        <v>10.963743406</v>
       </c>
     </row>
     <row r="125">
@@ -3304,22 +3304,22 @@
         <v>100</v>
       </c>
       <c r="B125" t="n">
-        <v>391.3953101946411</v>
+        <v>402.0580212576039</v>
       </c>
       <c r="C125" t="n">
-        <v>1134.479159984467</v>
+        <v>954.1867696553699</v>
       </c>
       <c r="D125" t="n">
         <v>115</v>
       </c>
       <c r="E125" t="n">
-        <v>3.947420022</v>
+        <v>4.054495698</v>
       </c>
       <c r="F125" t="n">
-        <v>0.06728680099999999</v>
+        <v>0.08014476299999999</v>
       </c>
       <c r="G125" t="n">
-        <v>13.04651034</v>
+        <v>10.973147851</v>
       </c>
     </row>
     <row r="126">
@@ -3327,22 +3327,22 @@
         <v>100</v>
       </c>
       <c r="B126" t="n">
-        <v>392.6181406456197</v>
+        <v>403.8284589747122</v>
       </c>
       <c r="C126" t="n">
-        <v>1138.02359607426</v>
+        <v>955.0474358710245</v>
       </c>
       <c r="D126" t="n">
         <v>115</v>
       </c>
       <c r="E126" t="n">
-        <v>3.959642364</v>
+        <v>4.072197127</v>
       </c>
       <c r="F126" t="n">
-        <v>0.06709116399999999</v>
+        <v>0.08009656</v>
       </c>
       <c r="G126" t="n">
-        <v>13.087271355</v>
+        <v>10.983045513</v>
       </c>
     </row>
     <row r="127">
@@ -3350,22 +3350,22 @@
         <v>100</v>
       </c>
       <c r="B127" t="n">
-        <v>396.7479024076132</v>
+        <v>410.8478915322638</v>
       </c>
       <c r="C127" t="n">
-        <v>1149.99452272291</v>
+        <v>1150</v>
       </c>
       <c r="D127" t="n">
-        <v>114.999939690898</v>
+        <v>95.73352751229329</v>
       </c>
       <c r="E127" t="n">
-        <v>4.000920522</v>
+        <v>4.142865323</v>
       </c>
       <c r="F127" t="n">
-        <v>0.066439372</v>
+        <v>0.080000153</v>
       </c>
       <c r="G127" t="n">
-        <v>13.224930076</v>
+        <v>11.009355664</v>
       </c>
     </row>
     <row r="128">
@@ -3373,22 +3373,22 @@
         <v>100</v>
       </c>
       <c r="B128" t="n">
-        <v>392.2930727393165</v>
+        <v>411.8853071789189</v>
       </c>
       <c r="C128" t="n">
-        <v>1137.081370258888</v>
+        <v>1150</v>
       </c>
       <c r="D128" t="n">
-        <v>115</v>
+        <v>95.80806030960544</v>
       </c>
       <c r="E128" t="n">
-        <v>3.956393261</v>
+        <v>4.153235092</v>
       </c>
       <c r="F128" t="n">
-        <v>0.06714305199999999</v>
+        <v>0.07995194999999999</v>
       </c>
       <c r="G128" t="n">
-        <v>13.076435758</v>
+        <v>11.017926936</v>
       </c>
     </row>
     <row r="129">
@@ -3396,22 +3396,22 @@
         <v>100</v>
       </c>
       <c r="B129" t="n">
-        <v>396.3322590606259</v>
+        <v>413.0344874147742</v>
       </c>
       <c r="C129" t="n">
-        <v>1148.789156697466</v>
+        <v>1150</v>
       </c>
       <c r="D129" t="n">
-        <v>115</v>
+        <v>95.88445780849437</v>
       </c>
       <c r="E129" t="n">
-        <v>3.996765999</v>
+        <v>4.164722404</v>
       </c>
       <c r="F129" t="n">
-        <v>0.06650434700000001</v>
+        <v>0.07990377799999999</v>
       </c>
       <c r="G129" t="n">
-        <v>13.211075302</v>
+        <v>11.026712648</v>
       </c>
     </row>
     <row r="130">
@@ -3419,22 +3419,22 @@
         <v>100</v>
       </c>
       <c r="B130" t="n">
-        <v>396.7477789961459</v>
+        <v>414.3366823891836</v>
       </c>
       <c r="C130" t="n">
-        <v>1149.994169838441</v>
+        <v>1150</v>
       </c>
       <c r="D130" t="n">
-        <v>114.9999392078693</v>
+        <v>95.96332565817752</v>
       </c>
       <c r="E130" t="n">
-        <v>4.000919289</v>
+        <v>4.177739725</v>
       </c>
       <c r="F130" t="n">
-        <v>0.066439391</v>
+        <v>0.07985569200000001</v>
       </c>
       <c r="G130" t="n">
-        <v>13.224925962</v>
+        <v>11.035782451</v>
       </c>
     </row>
     <row r="131">
@@ -3442,22 +3442,22 @@
         <v>100</v>
       </c>
       <c r="B131" t="n">
-        <v>396.7463319636338</v>
+        <v>414.3409895734582</v>
       </c>
       <c r="C131" t="n">
-        <v>1149.99002247616</v>
+        <v>1150</v>
       </c>
       <c r="D131" t="n">
-        <v>114.999934514017</v>
+        <v>95.96357529383579</v>
       </c>
       <c r="E131" t="n">
-        <v>4.000904825</v>
+        <v>4.177782782</v>
       </c>
       <c r="F131" t="n">
-        <v>0.06643961700000001</v>
+        <v>0.079855543</v>
       </c>
       <c r="G131" t="n">
-        <v>13.224877728</v>
+        <v>11.035811159</v>
       </c>
     </row>
     <row r="132">
@@ -3465,22 +3465,22 @@
         <v>100</v>
       </c>
       <c r="B132" t="n">
-        <v>392.6982479448332</v>
+        <v>395.0088088158749</v>
       </c>
       <c r="C132" t="n">
-        <v>1138.255791144444</v>
+        <v>949.5996814423643</v>
       </c>
       <c r="D132" t="n">
         <v>115</v>
       </c>
       <c r="E132" t="n">
-        <v>3.96044305</v>
+        <v>3.98401944</v>
       </c>
       <c r="F132" t="n">
-        <v>0.067078391</v>
+        <v>0.08043571099999999</v>
       </c>
       <c r="G132" t="n">
-        <v>13.089941598</v>
+        <v>10.920396337</v>
       </c>
     </row>
     <row r="133">
@@ -3488,22 +3488,22 @@
         <v>100</v>
       </c>
       <c r="B133" t="n">
-        <v>393.0274504600566</v>
+        <v>415.8887116190041</v>
       </c>
       <c r="C133" t="n">
-        <v>1139.210001333497</v>
+        <v>1150</v>
       </c>
       <c r="D133" t="n">
-        <v>115</v>
+        <v>96.04657021507109</v>
       </c>
       <c r="E133" t="n">
-        <v>3.963733487</v>
+        <v>4.193255141</v>
       </c>
       <c r="F133" t="n">
-        <v>0.067025952</v>
+        <v>0.07980742</v>
       </c>
       <c r="G133" t="n">
-        <v>13.100915015</v>
+        <v>11.045355575</v>
       </c>
     </row>
     <row r="134">
@@ -3511,22 +3511,22 @@
         <v>100</v>
       </c>
       <c r="B134" t="n">
-        <v>393.8486350390475</v>
+        <v>415.8914614924578</v>
       </c>
       <c r="C134" t="n">
-        <v>1141.590246489992</v>
+        <v>1150</v>
       </c>
       <c r="D134" t="n">
-        <v>115</v>
+        <v>96.046711758759</v>
       </c>
       <c r="E134" t="n">
-        <v>3.971941401</v>
+        <v>4.193282631</v>
       </c>
       <c r="F134" t="n">
-        <v>0.066895528</v>
+        <v>0.079807339</v>
       </c>
       <c r="G134" t="n">
-        <v>13.128287835</v>
+        <v>11.045371852</v>
       </c>
     </row>
     <row r="135">
@@ -3534,22 +3534,22 @@
         <v>100</v>
       </c>
       <c r="B135" t="n">
-        <v>396.7486428764033</v>
+        <v>422.3776366077446</v>
       </c>
       <c r="C135" t="n">
-        <v>1149.996604566292</v>
+        <v>1150</v>
       </c>
       <c r="D135" t="n">
-        <v>114.9999461354106</v>
+        <v>96.26786772719684</v>
       </c>
       <c r="E135" t="n">
-        <v>4.000927923</v>
+        <v>4.258131468</v>
       </c>
       <c r="F135" t="n">
-        <v>0.066439256</v>
+        <v>0.079711302</v>
       </c>
       <c r="G135" t="n">
-        <v>13.224954758</v>
+        <v>11.070804789</v>
       </c>
     </row>
     <row r="136">
@@ -3557,22 +3557,22 @@
         <v>100</v>
       </c>
       <c r="B136" t="n">
-        <v>388.6464958896663</v>
+        <v>402.3503041874275</v>
       </c>
       <c r="C136" t="n">
-        <v>1126.511582288887</v>
+        <v>954.3370787694964</v>
       </c>
       <c r="D136" t="n">
         <v>115</v>
       </c>
       <c r="E136" t="n">
-        <v>3.919945623</v>
+        <v>4.057418011</v>
       </c>
       <c r="F136" t="n">
-        <v>0.06773106700000001</v>
+        <v>0.080136109</v>
       </c>
       <c r="G136" t="n">
-        <v>12.954883196</v>
+        <v>10.974876406</v>
       </c>
     </row>
     <row r="137">
@@ -3580,22 +3580,22 @@
         <v>100</v>
       </c>
       <c r="B137" t="n">
-        <v>396.748766287865</v>
+        <v>416.2726552400204</v>
       </c>
       <c r="C137" t="n">
-        <v>1149.996948717547</v>
+        <v>1150</v>
       </c>
       <c r="D137" t="n">
-        <v>114.9999474917617</v>
+        <v>96.06536085390061</v>
       </c>
       <c r="E137" t="n">
-        <v>4.000929157</v>
+        <v>4.197093477</v>
       </c>
       <c r="F137" t="n">
-        <v>0.066439237</v>
+        <v>0.079796988</v>
       </c>
       <c r="G137" t="n">
-        <v>13.224958872</v>
+        <v>11.047516498</v>
       </c>
     </row>
     <row r="138">
@@ -3603,22 +3603,22 @@
         <v>100</v>
       </c>
       <c r="B138" t="n">
-        <v>395.1292983840692</v>
+        <v>395.0403765513307</v>
       </c>
       <c r="C138" t="n">
-        <v>1145.302314156722</v>
+        <v>949.6244682390912</v>
       </c>
       <c r="D138" t="n">
-        <v>115</v>
+        <v>114.9999788967549</v>
       </c>
       <c r="E138" t="n">
-        <v>3.984741985</v>
+        <v>3.984335032</v>
       </c>
       <c r="F138" t="n">
-        <v>0.06669321</v>
+        <v>0.080434057</v>
       </c>
       <c r="G138" t="n">
-        <v>13.170976613</v>
+        <v>10.920679381</v>
       </c>
     </row>
     <row r="139">
@@ -3626,22 +3626,22 @@
         <v>100</v>
       </c>
       <c r="B139" t="n">
-        <v>388.9723560380518</v>
+        <v>395.9924545548857</v>
       </c>
       <c r="C139" t="n">
-        <v>1127.456104458121</v>
+        <v>950.3477003256063</v>
       </c>
       <c r="D139" t="n">
         <v>115</v>
       </c>
       <c r="E139" t="n">
-        <v>3.92320257</v>
+        <v>3.993853292</v>
       </c>
       <c r="F139" t="n">
-        <v>0.06767807300000001</v>
+        <v>0.080385813</v>
       </c>
       <c r="G139" t="n">
-        <v>12.965745201</v>
+        <v>10.928998554</v>
       </c>
     </row>
     <row r="140">
@@ -3649,22 +3649,22 @@
         <v>100</v>
       </c>
       <c r="B140" t="n">
-        <v>390.180072128068</v>
+        <v>397.0041802273696</v>
       </c>
       <c r="C140" t="n">
-        <v>1130.956730805994</v>
+        <v>951.0814991126779</v>
       </c>
       <c r="D140" t="n">
         <v>115</v>
       </c>
       <c r="E140" t="n">
-        <v>3.935273659</v>
+        <v>4.003968</v>
       </c>
       <c r="F140" t="n">
-        <v>0.06748243700000001</v>
+        <v>0.08033757699999999</v>
       </c>
       <c r="G140" t="n">
-        <v>13.006002404</v>
+        <v>10.93743724</v>
       </c>
     </row>
     <row r="141">
@@ -3672,22 +3672,22 @@
         <v>100</v>
       </c>
       <c r="B141" t="n">
-        <v>390.5843122329816</v>
+        <v>403.8298738422818</v>
       </c>
       <c r="C141" t="n">
-        <v>1132.128441255019</v>
+        <v>955.0476638760606</v>
       </c>
       <c r="D141" t="n">
         <v>115</v>
       </c>
       <c r="E141" t="n">
-        <v>3.939314048</v>
+        <v>4.072211275</v>
       </c>
       <c r="F141" t="n">
-        <v>0.067417225</v>
+        <v>0.08009656</v>
       </c>
       <c r="G141" t="n">
-        <v>13.019477074</v>
+        <v>10.983048135</v>
       </c>
     </row>
     <row r="142">
@@ -3695,22 +3695,22 @@
         <v>100</v>
       </c>
       <c r="B142" t="n">
-        <v>390.9893907013727</v>
+        <v>410.8476975123959</v>
       </c>
       <c r="C142" t="n">
-        <v>1133.302581743109</v>
+        <v>1150</v>
       </c>
       <c r="D142" t="n">
-        <v>115</v>
+        <v>95.73352438515586</v>
       </c>
       <c r="E142" t="n">
-        <v>3.943362827</v>
+        <v>4.142863383</v>
       </c>
       <c r="F142" t="n">
-        <v>0.067352013</v>
+        <v>0.080000153</v>
       </c>
       <c r="G142" t="n">
-        <v>13.03297969</v>
+        <v>11.009355304</v>
       </c>
     </row>
     <row r="143">
@@ -3718,22 +3718,22 @@
         <v>100</v>
       </c>
       <c r="B143" t="n">
-        <v>393.4376141638976</v>
+        <v>411.8791460856606</v>
       </c>
       <c r="C143" t="n">
-        <v>1140.398881634485</v>
+        <v>1149.989242367476</v>
       </c>
       <c r="D143" t="n">
-        <v>115</v>
+        <v>95.80800385204188</v>
       </c>
       <c r="E143" t="n">
-        <v>3.967833155</v>
+        <v>4.15317351</v>
       </c>
       <c r="F143" t="n">
-        <v>0.06696074</v>
+        <v>0.07995266600000001</v>
       </c>
       <c r="G143" t="n">
-        <v>13.114587139</v>
+        <v>11.017816765</v>
       </c>
     </row>
     <row r="144">
@@ -3741,22 +3741,22 @@
         <v>100</v>
       </c>
       <c r="B144" t="n">
-        <v>396.7475321732108</v>
+        <v>413.034342035087</v>
       </c>
       <c r="C144" t="n">
-        <v>1149.993463539107</v>
+        <v>1150</v>
       </c>
       <c r="D144" t="n">
-        <v>114.9999382948534</v>
+        <v>95.8844485729884</v>
       </c>
       <c r="E144" t="n">
-        <v>4.000916822</v>
+        <v>4.16472095</v>
       </c>
       <c r="F144" t="n">
-        <v>0.06643942899999999</v>
+        <v>0.07990378300000001</v>
       </c>
       <c r="G144" t="n">
-        <v>13.224917735</v>
+        <v>11.026711586</v>
       </c>
     </row>
     <row r="145">
@@ -3764,22 +3764,22 @@
         <v>100</v>
       </c>
       <c r="B145" t="n">
-        <v>391.0775471227664</v>
+        <v>404.0053700680267</v>
       </c>
       <c r="C145" t="n">
-        <v>1133.558107602221</v>
+        <v>955.1266449906851</v>
       </c>
       <c r="D145" t="n">
         <v>115</v>
       </c>
       <c r="E145" t="n">
-        <v>3.944243956</v>
+        <v>4.073965967</v>
       </c>
       <c r="F145" t="n">
-        <v>0.067337839</v>
+        <v>0.080092318</v>
       </c>
       <c r="G145" t="n">
-        <v>13.035918237</v>
+        <v>10.983956417</v>
       </c>
     </row>
     <row r="146">
@@ -3787,22 +3787,22 @@
         <v>100</v>
       </c>
       <c r="B146" t="n">
-        <v>396.7495067400562</v>
+        <v>417.91430327033</v>
       </c>
       <c r="C146" t="n">
-        <v>1149.999263994851</v>
+        <v>1150</v>
       </c>
       <c r="D146" t="n">
-        <v>114.9999305882026</v>
+        <v>96.13762241558584</v>
       </c>
       <c r="E146" t="n">
-        <v>4.000936558</v>
+        <v>4.213505733</v>
       </c>
       <c r="F146" t="n">
-        <v>0.066439121</v>
+        <v>0.07975913599999999</v>
       </c>
       <c r="G146" t="n">
-        <v>13.224983554</v>
+        <v>11.055826578</v>
       </c>
     </row>
     <row r="147">
@@ -3810,22 +3810,22 @@
         <v>100</v>
       </c>
       <c r="B147" t="n">
-        <v>391.3953102939258</v>
+        <v>422.5391568762851</v>
       </c>
       <c r="C147" t="n">
-        <v>1134.479160272248</v>
+        <v>1149.999003344546</v>
       </c>
       <c r="D147" t="n">
-        <v>115</v>
+        <v>96.27079668260603</v>
       </c>
       <c r="E147" t="n">
-        <v>3.947420023</v>
+        <v>4.259746502</v>
       </c>
       <c r="F147" t="n">
-        <v>0.06728680099999999</v>
+        <v>0.079711119</v>
       </c>
       <c r="G147" t="n">
-        <v>13.046510343</v>
+        <v>11.071132024</v>
       </c>
     </row>
     <row r="148">
@@ -3833,22 +3833,22 @@
         <v>100</v>
       </c>
       <c r="B148" t="n">
-        <v>393.4376142568543</v>
+        <v>406.1864930528101</v>
       </c>
       <c r="C148" t="n">
-        <v>1140.398881903925</v>
+        <v>956.0051949608929</v>
       </c>
       <c r="D148" t="n">
-        <v>115</v>
+        <v>114.9998523337749</v>
       </c>
       <c r="E148" t="n">
-        <v>3.967833156</v>
+        <v>4.095774204</v>
       </c>
       <c r="F148" t="n">
-        <v>0.06696074</v>
+        <v>0.080048356</v>
       </c>
       <c r="G148" t="n">
-        <v>13.114587142</v>
+        <v>10.994048871</v>
       </c>
     </row>
     <row r="149">
@@ -3856,22 +3856,22 @@
         <v>100</v>
       </c>
       <c r="B149" t="n">
-        <v>396.7482726420115</v>
+        <v>410.8483313667376</v>
       </c>
       <c r="C149" t="n">
-        <v>1149.995566251246</v>
+        <v>1150</v>
       </c>
       <c r="D149" t="n">
-        <v>114.999942652485</v>
+        <v>95.73353465986389</v>
       </c>
       <c r="E149" t="n">
-        <v>4.000924223</v>
+        <v>4.142869721</v>
       </c>
       <c r="F149" t="n">
-        <v>0.066439314</v>
+        <v>0.080000153</v>
       </c>
       <c r="G149" t="n">
-        <v>13.224942417</v>
+        <v>11.009356486</v>
       </c>
     </row>
     <row r="150">
@@ -3879,22 +3879,22 @@
         <v>100</v>
       </c>
       <c r="B150" t="n">
-        <v>394.3189469706844</v>
+        <v>414.3405269994107</v>
       </c>
       <c r="C150" t="n">
-        <v>1142.953469480244</v>
+        <v>1150</v>
       </c>
       <c r="D150" t="n">
-        <v>115</v>
+        <v>95.96356768811022</v>
       </c>
       <c r="E150" t="n">
-        <v>3.976642287</v>
+        <v>4.177778157</v>
       </c>
       <c r="F150" t="n">
-        <v>0.06682107599999999</v>
+        <v>0.079855543</v>
       </c>
       <c r="G150" t="n">
-        <v>13.143964899</v>
+        <v>11.035810284</v>
       </c>
     </row>
     <row r="151">
@@ -3902,22 +3902,22 @@
         <v>100</v>
       </c>
       <c r="B151" t="n">
-        <v>396.7492599336671</v>
+        <v>418.0832283423411</v>
       </c>
       <c r="C151" t="n">
-        <v>1149.998295687662</v>
+        <v>1150</v>
       </c>
       <c r="D151" t="n">
-        <v>114.9999558806291</v>
+        <v>96.14431747601948</v>
       </c>
       <c r="E151" t="n">
-        <v>4.000934091</v>
+        <v>4.215194593</v>
       </c>
       <c r="F151" t="n">
-        <v>0.06643916</v>
+        <v>0.079755859</v>
       </c>
       <c r="G151" t="n">
-        <v>13.224975327</v>
+        <v>11.05659651</v>
       </c>
     </row>
     <row r="152">
@@ -3925,45 +3925,45 @@
         <v>100</v>
       </c>
       <c r="B152" t="n">
-        <v>396.3448247944834</v>
+        <v>422.3958936671473</v>
       </c>
       <c r="C152" t="n">
-        <v>1148.825579114444</v>
+        <v>1150</v>
       </c>
       <c r="D152" t="n">
-        <v>115</v>
+        <v>96.26819782916866</v>
       </c>
       <c r="E152" t="n">
-        <v>3.996891596</v>
+        <v>4.258314019</v>
       </c>
       <c r="F152" t="n">
-        <v>0.066502344</v>
+        <v>0.079711274</v>
       </c>
       <c r="G152" t="n">
-        <v>13.21149416</v>
+        <v>11.07084275</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="B153" t="n">
-        <v>396.7481657805238</v>
+        <v>385.0012887107746</v>
       </c>
       <c r="C153" t="n">
-        <v>1149.994683421809</v>
+        <v>720.3830532616827</v>
       </c>
       <c r="D153" t="n">
         <v>115</v>
       </c>
       <c r="E153" t="n">
-        <v>4.000923153</v>
+        <v>3.894651601</v>
       </c>
       <c r="F153" t="n">
-        <v>0.06643933</v>
+        <v>0.088207472</v>
       </c>
       <c r="G153" t="n">
-        <v>13.224938859</v>
+        <v>9.941286135</v>
       </c>
     </row>
     <row r="154">
@@ -3971,22 +3971,22 @@
         <v>120</v>
       </c>
       <c r="B154" t="n">
-        <v>385.0000989867643</v>
+        <v>385.4475026726342</v>
       </c>
       <c r="C154" t="n">
-        <v>929.9519299197203</v>
+        <v>721.031079129904</v>
       </c>
       <c r="D154" t="n">
         <v>115</v>
       </c>
       <c r="E154" t="n">
-        <v>3.893965602</v>
+        <v>3.899110395</v>
       </c>
       <c r="F154" t="n">
-        <v>0.068330179</v>
+        <v>0.08813488</v>
       </c>
       <c r="G154" t="n">
-        <v>12.833336633</v>
+        <v>9.950228892</v>
       </c>
     </row>
     <row r="155">
@@ -3994,22 +3994,22 @@
         <v>120</v>
       </c>
       <c r="B155" t="n">
-        <v>387.1767850835324</v>
+        <v>385.9042350384543</v>
       </c>
       <c r="C155" t="n">
-        <v>935.2096258056336</v>
+        <v>721.6831461425469</v>
       </c>
       <c r="D155" t="n">
         <v>115</v>
       </c>
       <c r="E155" t="n">
-        <v>3.915723663</v>
+        <v>3.903674362</v>
       </c>
       <c r="F155" t="n">
-        <v>0.06797117900000001</v>
+        <v>0.088062083</v>
       </c>
       <c r="G155" t="n">
-        <v>12.905892836</v>
+        <v>9.959227416999999</v>
       </c>
     </row>
     <row r="156">
@@ -4017,22 +4017,22 @@
         <v>120</v>
       </c>
       <c r="B156" t="n">
-        <v>389.3783254389941</v>
+        <v>386.3706790013228</v>
       </c>
       <c r="C156" t="n">
-        <v>940.5273561328358</v>
+        <v>722.3374847967991</v>
       </c>
       <c r="D156" t="n">
         <v>115</v>
       </c>
       <c r="E156" t="n">
-        <v>3.937730476</v>
+        <v>3.908335444</v>
       </c>
       <c r="F156" t="n">
-        <v>0.067612163</v>
+        <v>0.087989286</v>
       </c>
       <c r="G156" t="n">
-        <v>12.979277515</v>
+        <v>9.96825729</v>
       </c>
     </row>
     <row r="157">
@@ -4040,22 +4040,22 @@
         <v>120</v>
       </c>
       <c r="B157" t="n">
-        <v>391.6050450282949</v>
+        <v>386.0131786373149</v>
       </c>
       <c r="C157" t="n">
-        <v>945.9059058654462</v>
+        <v>721.8370147475943</v>
       </c>
       <c r="D157" t="n">
         <v>115</v>
       </c>
       <c r="E157" t="n">
-        <v>3.959989294</v>
+        <v>3.904763007</v>
       </c>
       <c r="F157" t="n">
-        <v>0.067253147</v>
+        <v>0.088044941</v>
       </c>
       <c r="G157" t="n">
-        <v>13.053501501</v>
+        <v>9.961350804</v>
       </c>
     </row>
     <row r="158">
@@ -4063,22 +4063,22 @@
         <v>120</v>
       </c>
       <c r="B158" t="n">
-        <v>392.7585482416823</v>
+        <v>387.065782874271</v>
       </c>
       <c r="C158" t="n">
-        <v>948.6921455113098</v>
+        <v>723.2909762335058</v>
       </c>
       <c r="D158" t="n">
         <v>115</v>
       </c>
       <c r="E158" t="n">
-        <v>3.971520107</v>
+        <v>3.915281608</v>
       </c>
       <c r="F158" t="n">
-        <v>0.067068767</v>
+        <v>0.087883672</v>
       </c>
       <c r="G158" t="n">
-        <v>13.091951608</v>
+        <v>9.981415472</v>
       </c>
     </row>
     <row r="159">
@@ -4086,22 +4086,22 @@
         <v>120</v>
       </c>
       <c r="B159" t="n">
-        <v>418.6206450718045</v>
+        <v>388.1635876963519</v>
       </c>
       <c r="C159" t="n">
-        <v>1011.16097843431</v>
+        <v>724.7449377194173</v>
       </c>
       <c r="D159" t="n">
         <v>115</v>
       </c>
       <c r="E159" t="n">
-        <v>4.230066701</v>
+        <v>3.926252265</v>
       </c>
       <c r="F159" t="n">
-        <v>0.06320165599999999</v>
+        <v>0.087723724</v>
       </c>
       <c r="G159" t="n">
-        <v>13.954021502</v>
+        <v>10.001480141</v>
       </c>
     </row>
     <row r="160">
@@ -4109,22 +4109,22 @@
         <v>120</v>
       </c>
       <c r="B160" t="n">
-        <v>393.8573783177025</v>
+        <v>389.9069840014927</v>
       </c>
       <c r="C160" t="n">
-        <v>951.3463244388945</v>
+        <v>726.9258799482847</v>
       </c>
       <c r="D160" t="n">
         <v>115</v>
       </c>
       <c r="E160" t="n">
-        <v>3.982504465</v>
+        <v>3.943675234</v>
       </c>
       <c r="F160" t="n">
-        <v>0.066894131</v>
+        <v>0.087486437</v>
       </c>
       <c r="G160" t="n">
-        <v>13.128579277</v>
+        <v>10.031577143</v>
       </c>
     </row>
     <row r="161">
@@ -4132,22 +4132,22 @@
         <v>120</v>
       </c>
       <c r="B161" t="n">
-        <v>396.1357698266527</v>
+        <v>391.1440121231713</v>
       </c>
       <c r="C161" t="n">
-        <v>956.8496855716246</v>
+        <v>728.3798414341962</v>
       </c>
       <c r="D161" t="n">
         <v>115</v>
       </c>
       <c r="E161" t="n">
-        <v>4.005280439</v>
+        <v>3.956038248</v>
       </c>
       <c r="F161" t="n">
-        <v>0.06653511400000001</v>
+        <v>0.087330143</v>
       </c>
       <c r="G161" t="n">
-        <v>13.204525661</v>
+        <v>10.051641812</v>
       </c>
     </row>
     <row r="162">
@@ -4155,22 +4155,22 @@
         <v>120</v>
       </c>
       <c r="B162" t="n">
-        <v>398.4406760832629</v>
+        <v>392.4517904113636</v>
       </c>
       <c r="C162" t="n">
-        <v>962.4170919885574</v>
+        <v>729.8338029201078</v>
       </c>
       <c r="D162" t="n">
         <v>115</v>
       </c>
       <c r="E162" t="n">
-        <v>4.028321784</v>
+        <v>3.969108813</v>
       </c>
       <c r="F162" t="n">
-        <v>0.066176098</v>
+        <v>0.08717551900000001</v>
       </c>
       <c r="G162" t="n">
-        <v>13.281355869</v>
+        <v>10.07170648</v>
       </c>
     </row>
     <row r="163">
@@ -4178,22 +4178,22 @@
         <v>120</v>
       </c>
       <c r="B163" t="n">
-        <v>400.7725594992115</v>
+        <v>393.8432333080896</v>
       </c>
       <c r="C163" t="n">
-        <v>968.0496606261145</v>
+        <v>731.2877644060192</v>
       </c>
       <c r="D163" t="n">
         <v>115</v>
       </c>
       <c r="E163" t="n">
-        <v>4.051633129</v>
+        <v>3.983016073</v>
       </c>
       <c r="F163" t="n">
-        <v>0.065817081</v>
+        <v>0.087022745</v>
       </c>
       <c r="G163" t="n">
-        <v>13.359085317</v>
+        <v>10.091771149</v>
       </c>
     </row>
     <row r="164">
@@ -4201,22 +4201,22 @@
         <v>120</v>
       </c>
       <c r="B164" t="n">
-        <v>393.8573794563146</v>
+        <v>396.9544938245791</v>
       </c>
       <c r="C164" t="n">
-        <v>951.3463271891654</v>
+        <v>734.1956873778423</v>
       </c>
       <c r="D164" t="n">
         <v>115</v>
       </c>
       <c r="E164" t="n">
-        <v>3.982504476</v>
+        <v>4.014114486</v>
       </c>
       <c r="F164" t="n">
-        <v>0.06689413</v>
+        <v>0.086723841</v>
       </c>
       <c r="G164" t="n">
-        <v>13.128579315</v>
+        <v>10.131900486</v>
       </c>
     </row>
     <row r="165">
@@ -4224,22 +4224,22 @@
         <v>120</v>
       </c>
       <c r="B165" t="n">
-        <v>403.1318980526016</v>
+        <v>401.8805768928257</v>
       </c>
       <c r="C165" t="n">
-        <v>973.7485460207764</v>
+        <v>737.8305910926211</v>
       </c>
       <c r="D165" t="n">
         <v>115</v>
       </c>
       <c r="E165" t="n">
-        <v>4.075219258</v>
+        <v>4.063357846</v>
       </c>
       <c r="F165" t="n">
-        <v>0.065458065</v>
+        <v>0.08636870000000001</v>
       </c>
       <c r="G165" t="n">
-        <v>13.437729935</v>
+        <v>10.182062157</v>
       </c>
     </row>
     <row r="166">
@@ -4247,22 +4247,22 @@
         <v>120</v>
       </c>
       <c r="B166" t="n">
-        <v>396.1357709317921</v>
+        <v>404.5247765470474</v>
       </c>
       <c r="C166" t="n">
-        <v>956.8496882410435</v>
+        <v>739.2845525785327</v>
       </c>
       <c r="D166" t="n">
         <v>115</v>
       </c>
       <c r="E166" t="n">
-        <v>4.00528045</v>
+        <v>4.089792938</v>
       </c>
       <c r="F166" t="n">
-        <v>0.06653511400000001</v>
+        <v>0.086237461</v>
       </c>
       <c r="G166" t="n">
-        <v>13.204525698</v>
+        <v>10.202126826</v>
       </c>
     </row>
     <row r="167">
@@ -4270,22 +4270,22 @@
         <v>120</v>
       </c>
       <c r="B167" t="n">
-        <v>405.5191793466723</v>
+        <v>386.8472384969699</v>
       </c>
       <c r="C167" t="n">
-        <v>979.5149259581456</v>
+        <v>722.9941489737216</v>
       </c>
       <c r="D167" t="n">
         <v>115</v>
       </c>
       <c r="E167" t="n">
-        <v>4.09908505</v>
+        <v>3.913097679</v>
       </c>
       <c r="F167" t="n">
-        <v>0.06509904900000001</v>
+        <v>0.087916488</v>
       </c>
       <c r="G167" t="n">
-        <v>13.517305978</v>
+        <v>9.977319255999999</v>
       </c>
     </row>
     <row r="168">
@@ -4293,22 +4293,22 @@
         <v>120</v>
       </c>
       <c r="B168" t="n">
-        <v>398.4406754911278</v>
+        <v>387.3347650678888</v>
       </c>
       <c r="C168" t="n">
-        <v>962.4170905582794</v>
+        <v>723.6534863600051</v>
       </c>
       <c r="D168" t="n">
-        <v>115</v>
+        <v>114.9999623111041</v>
       </c>
       <c r="E168" t="n">
-        <v>4.028321778</v>
+        <v>3.917969584</v>
       </c>
       <c r="F168" t="n">
-        <v>0.066176098</v>
+        <v>0.087843691</v>
       </c>
       <c r="G168" t="n">
-        <v>13.28135585</v>
+        <v>9.986414839</v>
       </c>
     </row>
     <row r="169">
@@ -4316,22 +4316,22 @@
         <v>120</v>
       </c>
       <c r="B169" t="n">
-        <v>407.9349028389971</v>
+        <v>387.8338871202201</v>
       </c>
       <c r="C169" t="n">
-        <v>985.3500068574806</v>
+        <v>724.3148700791905</v>
       </c>
       <c r="D169" t="n">
         <v>115</v>
       </c>
       <c r="E169" t="n">
-        <v>4.123235505</v>
+        <v>3.92295744</v>
       </c>
       <c r="F169" t="n">
-        <v>0.064740033</v>
+        <v>0.087770894</v>
       </c>
       <c r="G169" t="n">
-        <v>13.597830095</v>
+        <v>9.995545206999999</v>
       </c>
     </row>
     <row r="170">
@@ -4339,22 +4339,22 @@
         <v>120</v>
       </c>
       <c r="B170" t="n">
-        <v>421.2068547548167</v>
+        <v>388.3444705887031</v>
       </c>
       <c r="C170" t="n">
-        <v>1017.40786172661</v>
+        <v>724.9790001356706</v>
       </c>
       <c r="D170" t="n">
         <v>115</v>
       </c>
       <c r="E170" t="n">
-        <v>4.255923339</v>
+        <v>3.928059908</v>
       </c>
       <c r="F170" t="n">
-        <v>0.062841063</v>
+        <v>0.087698097</v>
       </c>
       <c r="G170" t="n">
-        <v>14.040228492</v>
+        <v>10.004710202</v>
       </c>
     </row>
     <row r="171">
@@ -4362,22 +4362,22 @@
         <v>120</v>
       </c>
       <c r="B171" t="n">
-        <v>410.3795798832339</v>
+        <v>388.8682386133639</v>
       </c>
       <c r="C171" t="n">
-        <v>991.2550238725453</v>
+        <v>725.6461818941182</v>
       </c>
       <c r="D171" t="n">
-        <v>115</v>
+        <v>114.9999344023563</v>
       </c>
       <c r="E171" t="n">
-        <v>4.147675739</v>
+        <v>3.93329422</v>
       </c>
       <c r="F171" t="n">
-        <v>0.064381016</v>
+        <v>0.0876253</v>
       </c>
       <c r="G171" t="n">
-        <v>13.679319329</v>
+        <v>10.013912846</v>
       </c>
     </row>
     <row r="172">
@@ -4385,22 +4385,22 @@
         <v>120</v>
       </c>
       <c r="B172" t="n">
-        <v>412.8537341646671</v>
+        <v>389.40644783344</v>
       </c>
       <c r="C172" t="n">
-        <v>997.2312419436402</v>
+        <v>726.3156065522808</v>
       </c>
       <c r="D172" t="n">
         <v>115</v>
       </c>
       <c r="E172" t="n">
-        <v>4.172410996</v>
+        <v>3.938672937</v>
       </c>
       <c r="F172" t="n">
-        <v>0.064022</v>
+        <v>0.087552502</v>
       </c>
       <c r="G172" t="n">
-        <v>13.761791139</v>
+        <v>10.02315537</v>
       </c>
     </row>
     <row r="173">
@@ -4408,22 +4408,22 @@
         <v>120</v>
       </c>
       <c r="B173" t="n">
-        <v>415.3579020741543</v>
+        <v>389.9586934561367</v>
       </c>
       <c r="C173" t="n">
-        <v>1003.279956700855</v>
+        <v>726.9882018888153</v>
       </c>
       <c r="D173" t="n">
         <v>115</v>
       </c>
       <c r="E173" t="n">
-        <v>4.197446642</v>
+        <v>3.944192016</v>
       </c>
       <c r="F173" t="n">
-        <v>0.06366298400000001</v>
+        <v>0.087479705</v>
       </c>
       <c r="G173" t="n">
-        <v>13.845263402</v>
+        <v>10.032437186</v>
       </c>
     </row>
     <row r="174">
@@ -4431,22 +4431,22 @@
         <v>120</v>
       </c>
       <c r="B174" t="n">
-        <v>417.8926330958039</v>
+        <v>388.3444667031873</v>
       </c>
       <c r="C174" t="n">
-        <v>1009.402495400492</v>
+        <v>724.9789996915986</v>
       </c>
       <c r="D174" t="n">
         <v>115</v>
       </c>
       <c r="E174" t="n">
-        <v>4.222788178</v>
+        <v>3.92805987</v>
       </c>
       <c r="F174" t="n">
-        <v>0.063303967</v>
+        <v>0.087698097</v>
       </c>
       <c r="G174" t="n">
-        <v>13.929754437</v>
+        <v>10.004710196</v>
       </c>
     </row>
     <row r="175">
@@ -4454,22 +4454,22 @@
         <v>120</v>
       </c>
       <c r="B175" t="n">
-        <v>428.3486591822919</v>
+        <v>390.5248309643109</v>
       </c>
       <c r="C175" t="n">
-        <v>1034.658597058676</v>
+        <v>727.6621275565847</v>
       </c>
       <c r="D175" t="n">
-        <v>115</v>
+        <v>114.9997299872687</v>
       </c>
       <c r="E175" t="n">
-        <v>4.327328023</v>
+        <v>3.949850032</v>
       </c>
       <c r="F175" t="n">
-        <v>0.061867902</v>
+        <v>0.087407294</v>
       </c>
       <c r="G175" t="n">
-        <v>14.278288639</v>
+        <v>10.041713783</v>
       </c>
     </row>
     <row r="176">
@@ -4477,22 +4477,22 @@
         <v>120</v>
       </c>
       <c r="B176" t="n">
-        <v>420.4584902720661</v>
+        <v>391.1114785722171</v>
       </c>
       <c r="C176" t="n">
-        <v>1015.600218048469</v>
+        <v>728.3427275334656</v>
       </c>
       <c r="D176" t="n">
-        <v>115</v>
+        <v>114.9999064784692</v>
       </c>
       <c r="E176" t="n">
-        <v>4.248441239</v>
+        <v>3.955713103</v>
       </c>
       <c r="F176" t="n">
-        <v>0.062944951</v>
+        <v>0.087334182</v>
       </c>
       <c r="G176" t="n">
-        <v>14.015283009</v>
+        <v>10.051121466</v>
       </c>
     </row>
     <row r="177">
@@ -4500,22 +4500,22 @@
         <v>120</v>
       </c>
       <c r="B177" t="n">
-        <v>431.0449352803309</v>
+        <v>391.7147693067914</v>
       </c>
       <c r="C177" t="n">
-        <v>1041.171341256838</v>
+        <v>729.025013481562</v>
       </c>
       <c r="D177" t="n">
-        <v>115</v>
+        <v>114.9999969740208</v>
       </c>
       <c r="E177" t="n">
-        <v>4.354286376</v>
+        <v>3.961742611</v>
       </c>
       <c r="F177" t="n">
-        <v>0.061508886</v>
+        <v>0.08726131600000001</v>
       </c>
       <c r="G177" t="n">
-        <v>14.368164509</v>
+        <v>10.060544921</v>
       </c>
     </row>
     <row r="178">
@@ -4523,22 +4523,22 @@
         <v>120</v>
       </c>
       <c r="B178" t="n">
-        <v>423.0560501552255</v>
+        <v>389.9583342916698</v>
       </c>
       <c r="C178" t="n">
-        <v>1021.874517283153</v>
+        <v>726.9866747483793</v>
       </c>
       <c r="D178" t="n">
         <v>115</v>
       </c>
       <c r="E178" t="n">
-        <v>4.274411595</v>
+        <v>3.944188432</v>
       </c>
       <c r="F178" t="n">
-        <v>0.062585935</v>
+        <v>0.08747988399999999</v>
       </c>
       <c r="G178" t="n">
-        <v>14.101868339</v>
+        <v>10.032416112</v>
       </c>
     </row>
     <row r="179">
@@ -4546,22 +4546,22 @@
         <v>120</v>
       </c>
       <c r="B179" t="n">
-        <v>433.7753699435513</v>
+        <v>392.3374450327687</v>
       </c>
       <c r="C179" t="n">
-        <v>1047.766594066549</v>
+        <v>729.7100100875567</v>
       </c>
       <c r="D179" t="n">
         <v>115</v>
       </c>
       <c r="E179" t="n">
-        <v>4.381586603</v>
+        <v>3.967965972</v>
       </c>
       <c r="F179" t="n">
-        <v>0.061149869</v>
+        <v>0.087188616</v>
       </c>
       <c r="G179" t="n">
-        <v>14.459178998</v>
+        <v>10.069998139</v>
       </c>
     </row>
     <row r="180">
@@ -4569,22 +4569,22 @@
         <v>120</v>
       </c>
       <c r="B180" t="n">
-        <v>425.685904282296</v>
+        <v>392.9834724269992</v>
       </c>
       <c r="C180" t="n">
-        <v>1028.226821937913</v>
+        <v>730.4007563152711</v>
       </c>
       <c r="D180" t="n">
-        <v>115</v>
+        <v>114.99999215613</v>
       </c>
       <c r="E180" t="n">
-        <v>4.300705166</v>
+        <v>3.974422832</v>
       </c>
       <c r="F180" t="n">
-        <v>0.062226918</v>
+        <v>0.08711571899999999</v>
       </c>
       <c r="G180" t="n">
-        <v>14.189530143</v>
+        <v>10.07952975</v>
       </c>
     </row>
     <row r="181">
@@ -4592,22 +4592,22 @@
         <v>120</v>
       </c>
       <c r="B181" t="n">
-        <v>436.5406164453967</v>
+        <v>393.652879079194</v>
       </c>
       <c r="C181" t="n">
-        <v>1054.445933442987</v>
+        <v>731.0946268783593</v>
       </c>
       <c r="D181" t="n">
         <v>115</v>
       </c>
       <c r="E181" t="n">
-        <v>4.409235242</v>
+        <v>3.98111348</v>
       </c>
       <c r="F181" t="n">
-        <v>0.060790853</v>
+        <v>0.08704292199999999</v>
       </c>
       <c r="G181" t="n">
-        <v>14.551353882</v>
+        <v>10.089105851</v>
       </c>
     </row>
     <row r="182">
@@ -4615,22 +4615,22 @@
         <v>120</v>
       </c>
       <c r="B182" t="n">
-        <v>428.3486586837353</v>
+        <v>391.7146771543792</v>
       </c>
       <c r="C182" t="n">
-        <v>1034.658595854433</v>
+        <v>729.0248511146955</v>
       </c>
       <c r="D182" t="n">
-        <v>115</v>
+        <v>114.999921178658</v>
       </c>
       <c r="E182" t="n">
-        <v>4.327328018</v>
+        <v>3.961741695</v>
       </c>
       <c r="F182" t="n">
-        <v>0.061867902</v>
+        <v>0.08726139199999999</v>
       </c>
       <c r="G182" t="n">
-        <v>14.278288623</v>
+        <v>10.06053605</v>
       </c>
     </row>
     <row r="183">
@@ -4638,22 +4638,22 @@
         <v>120</v>
       </c>
       <c r="B183" t="n">
-        <v>439.3413448241349</v>
+        <v>394.3486186769485</v>
       </c>
       <c r="C183" t="n">
-        <v>1061.210977836074</v>
+        <v>731.7929784822417</v>
       </c>
       <c r="D183" t="n">
         <v>115</v>
       </c>
       <c r="E183" t="n">
-        <v>4.437239001</v>
+        <v>3.988067447</v>
       </c>
       <c r="F183" t="n">
-        <v>0.060431837</v>
+        <v>0.086970125</v>
       </c>
       <c r="G183" t="n">
-        <v>14.644711494</v>
+        <v>10.098743103</v>
       </c>
     </row>
     <row r="184">
@@ -4661,22 +4661,22 @@
         <v>120</v>
       </c>
       <c r="B184" t="n">
-        <v>434.1379031698779</v>
+        <v>395.0758126728481</v>
       </c>
       <c r="C184" t="n">
-        <v>1048.642278188111</v>
+        <v>732.4963350869169</v>
       </c>
       <c r="D184" t="n">
         <v>115</v>
       </c>
       <c r="E184" t="n">
-        <v>4.385211414</v>
+        <v>3.995335945</v>
       </c>
       <c r="F184" t="n">
-        <v>0.061102541</v>
+        <v>0.08689733700000001</v>
       </c>
       <c r="G184" t="n">
-        <v>14.471263439</v>
+        <v>10.108449424</v>
       </c>
     </row>
     <row r="185">
@@ -4684,22 +4684,22 @@
         <v>120</v>
       </c>
       <c r="B185" t="n">
-        <v>442.1782424241244</v>
+        <v>392.9834559687803</v>
       </c>
       <c r="C185" t="n">
-        <v>1068.063387497885</v>
+        <v>730.4007043040363</v>
       </c>
       <c r="D185" t="n">
         <v>115</v>
       </c>
       <c r="E185" t="n">
-        <v>4.465604757</v>
+        <v>3.974422668</v>
       </c>
       <c r="F185" t="n">
-        <v>0.06007282</v>
+        <v>0.08711571899999999</v>
       </c>
       <c r="G185" t="n">
-        <v>14.739274747</v>
+        <v>10.079529719</v>
       </c>
     </row>
     <row r="186">
@@ -4707,22 +4707,22 @@
         <v>120</v>
       </c>
       <c r="B186" t="n">
-        <v>445.0520144581864</v>
+        <v>395.8342127772806</v>
       </c>
       <c r="C186" t="n">
-        <v>1075.00486584103</v>
+        <v>733.2038489001911</v>
       </c>
       <c r="D186" t="n">
-        <v>115</v>
+        <v>114.9995497213166</v>
       </c>
       <c r="E186" t="n">
-        <v>4.49433957</v>
+        <v>4.002916519</v>
       </c>
       <c r="F186" t="n">
-        <v>0.059713804</v>
+        <v>0.086824995</v>
       </c>
       <c r="G186" t="n">
-        <v>14.835067149</v>
+        <v>10.118173497</v>
       </c>
     </row>
     <row r="187">
@@ -4730,22 +4730,22 @@
         <v>120</v>
       </c>
       <c r="B187" t="n">
-        <v>447.9633845920504</v>
+        <v>396.6364673568019</v>
       </c>
       <c r="C187" t="n">
-        <v>1082.037160850363</v>
+        <v>733.920038237079</v>
       </c>
       <c r="D187" t="n">
         <v>115</v>
       </c>
       <c r="E187" t="n">
-        <v>4.523450681</v>
+        <v>4.010935558</v>
       </c>
       <c r="F187" t="n">
-        <v>0.059354788</v>
+        <v>0.086751733</v>
       </c>
       <c r="G187" t="n">
-        <v>14.93211282</v>
+        <v>10.128096528</v>
       </c>
     </row>
     <row r="188">
@@ -4753,22 +4753,22 @@
         <v>120</v>
       </c>
       <c r="B188" t="n">
-        <v>423.0560503806961</v>
+        <v>394.3490896235353</v>
       </c>
       <c r="C188" t="n">
-        <v>1021.874517827768</v>
+        <v>731.7930375078113</v>
       </c>
       <c r="D188" t="n">
         <v>115</v>
       </c>
       <c r="E188" t="n">
-        <v>4.274411597</v>
+        <v>3.988072156</v>
       </c>
       <c r="F188" t="n">
-        <v>0.062585935</v>
+        <v>0.086970125</v>
       </c>
       <c r="G188" t="n">
-        <v>14.101868346</v>
+        <v>10.098743918</v>
       </c>
     </row>
     <row r="189">
@@ -4776,22 +4776,22 @@
         <v>120</v>
       </c>
       <c r="B189" t="n">
-        <v>453.9019097560224</v>
+        <v>397.4820778155256</v>
       </c>
       <c r="C189" t="n">
-        <v>1096.381424531455</v>
+        <v>734.6417783836607</v>
       </c>
       <c r="D189" t="n">
         <v>115</v>
       </c>
       <c r="E189" t="n">
-        <v>4.582831731</v>
+        <v>4.019388166</v>
       </c>
       <c r="F189" t="n">
-        <v>0.058636755</v>
+        <v>0.086678936</v>
       </c>
       <c r="G189" t="n">
-        <v>15.130063659</v>
+        <v>10.138056542</v>
       </c>
     </row>
     <row r="190">
@@ -4799,22 +4799,22 @@
         <v>120</v>
       </c>
       <c r="B190" t="n">
-        <v>425.6859044930109</v>
+        <v>395.0758303449471</v>
       </c>
       <c r="C190" t="n">
-        <v>1028.226822446886</v>
+        <v>732.4963518731532</v>
       </c>
       <c r="D190" t="n">
         <v>115</v>
       </c>
       <c r="E190" t="n">
-        <v>4.300705168</v>
+        <v>3.995336121</v>
       </c>
       <c r="F190" t="n">
-        <v>0.062226918</v>
+        <v>0.08689733500000001</v>
       </c>
       <c r="G190" t="n">
-        <v>14.18953015</v>
+        <v>10.108449656</v>
       </c>
     </row>
     <row r="191">
@@ -4822,22 +4822,22 @@
         <v>120</v>
       </c>
       <c r="B191" t="n">
-        <v>428.3486588793327</v>
+        <v>398.3807435248517</v>
       </c>
       <c r="C191" t="n">
-        <v>1034.65859632689</v>
+        <v>735.3710019722934</v>
       </c>
       <c r="D191" t="n">
         <v>115</v>
       </c>
       <c r="E191" t="n">
-        <v>4.32732802</v>
+        <v>4.028371301</v>
       </c>
       <c r="F191" t="n">
-        <v>0.061867902</v>
+        <v>0.08660618</v>
       </c>
       <c r="G191" t="n">
-        <v>14.278288629</v>
+        <v>10.148119827</v>
       </c>
     </row>
     <row r="192">
@@ -4845,22 +4845,22 @@
         <v>120</v>
       </c>
       <c r="B192" t="n">
-        <v>459.9973390165134</v>
+        <v>399.3475899523157</v>
       </c>
       <c r="C192" t="n">
-        <v>1111.105254414444</v>
+        <v>736.110649543141</v>
       </c>
       <c r="D192" t="n">
-        <v>114.9999408885959</v>
+        <v>115</v>
       </c>
       <c r="E192" t="n">
-        <v>4.643783175</v>
+        <v>4.038036206</v>
       </c>
       <c r="F192" t="n">
-        <v>0.057919032</v>
+        <v>0.086533342</v>
       </c>
       <c r="G192" t="n">
-        <v>15.333244629</v>
+        <v>10.158326964</v>
       </c>
     </row>
     <row r="193">
@@ -4868,22 +4868,22 @@
         <v>120</v>
       </c>
       <c r="B193" t="n">
-        <v>431.5516934868656</v>
+        <v>400.3964465625431</v>
       </c>
       <c r="C193" t="n">
-        <v>1042.39539489581</v>
+        <v>736.8618769548506</v>
       </c>
       <c r="D193" t="n">
-        <v>115</v>
+        <v>114.9999317091881</v>
       </c>
       <c r="E193" t="n">
-        <v>4.359353167</v>
+        <v>4.048521173</v>
       </c>
       <c r="F193" t="n">
-        <v>0.06144191</v>
+        <v>0.086460545</v>
       </c>
       <c r="G193" t="n">
-        <v>14.38505645</v>
+        <v>10.168687863</v>
       </c>
     </row>
     <row r="194">
@@ -4891,22 +4891,22 @@
         <v>120</v>
       </c>
       <c r="B194" t="n">
-        <v>387.5861288756579</v>
+        <v>397.4814916759841</v>
       </c>
       <c r="C194" t="n">
-        <v>936.1983789267098</v>
+        <v>734.6414415670324</v>
       </c>
       <c r="D194" t="n">
-        <v>115</v>
+        <v>114.9999168779819</v>
       </c>
       <c r="E194" t="n">
-        <v>3.919815481</v>
+        <v>4.01938231</v>
       </c>
       <c r="F194" t="n">
-        <v>0.067904117</v>
+        <v>0.08667903</v>
       </c>
       <c r="G194" t="n">
-        <v>12.919537629</v>
+        <v>10.138044566</v>
       </c>
     </row>
     <row r="195">
@@ -4914,22 +4914,22 @@
         <v>120</v>
       </c>
       <c r="B195" t="n">
-        <v>389.3783258401537</v>
+        <v>401.5549282897851</v>
       </c>
       <c r="C195" t="n">
-        <v>940.5273571018204</v>
+        <v>737.6271965349981</v>
       </c>
       <c r="D195" t="n">
         <v>115</v>
       </c>
       <c r="E195" t="n">
-        <v>3.93773048</v>
+        <v>4.06010233</v>
       </c>
       <c r="F195" t="n">
-        <v>0.067612163</v>
+        <v>0.086387748</v>
       </c>
       <c r="G195" t="n">
-        <v>12.979277528</v>
+        <v>10.179255312</v>
       </c>
     </row>
     <row r="196">
@@ -4937,22 +4937,22 @@
         <v>120</v>
       </c>
       <c r="B196" t="n">
-        <v>391.6050454188082</v>
+        <v>398.3817025171581</v>
       </c>
       <c r="C196" t="n">
-        <v>945.9059068087153</v>
+        <v>735.3714660479533</v>
       </c>
       <c r="D196" t="n">
         <v>115</v>
       </c>
       <c r="E196" t="n">
-        <v>3.959989298</v>
+        <v>4.028380889</v>
       </c>
       <c r="F196" t="n">
-        <v>0.067253147</v>
+        <v>0.086606139</v>
       </c>
       <c r="G196" t="n">
-        <v>13.053501514</v>
+        <v>10.148126231</v>
       </c>
     </row>
     <row r="197">
@@ -4960,22 +4960,22 @@
         <v>120</v>
       </c>
       <c r="B197" t="n">
-        <v>393.8573786973392</v>
+        <v>402.8632289855927</v>
       </c>
       <c r="C197" t="n">
-        <v>951.3463253558916</v>
+        <v>738.4122028307721</v>
       </c>
       <c r="D197" t="n">
-        <v>115</v>
+        <v>114.9999137190745</v>
       </c>
       <c r="E197" t="n">
-        <v>3.982504469</v>
+        <v>4.073181604</v>
       </c>
       <c r="F197" t="n">
-        <v>0.066894131</v>
+        <v>0.086315107</v>
       </c>
       <c r="G197" t="n">
-        <v>13.12857929</v>
+        <v>10.190080754</v>
       </c>
     </row>
     <row r="198">
@@ -4983,22 +4983,22 @@
         <v>120</v>
       </c>
       <c r="B198" t="n">
-        <v>396.1357701951485</v>
+        <v>404.4117311874625</v>
       </c>
       <c r="C198" t="n">
-        <v>956.8496864617111</v>
+        <v>739.2301768144491</v>
       </c>
       <c r="D198" t="n">
         <v>115</v>
       </c>
       <c r="E198" t="n">
-        <v>4.005280442</v>
+        <v>4.088662742</v>
       </c>
       <c r="F198" t="n">
-        <v>0.06653511400000001</v>
+        <v>0.086242153</v>
       </c>
       <c r="G198" t="n">
-        <v>13.204525673</v>
+        <v>10.20137644</v>
       </c>
     </row>
     <row r="199">
@@ -5006,22 +5006,22 @@
         <v>120</v>
       </c>
       <c r="B199" t="n">
-        <v>398.4406747772756</v>
+        <v>406.416983720671</v>
       </c>
       <c r="C199" t="n">
-        <v>962.4170888339988</v>
+        <v>740.1059809148604</v>
       </c>
       <c r="D199" t="n">
         <v>115</v>
       </c>
       <c r="E199" t="n">
-        <v>4.028321771</v>
+        <v>4.108711129</v>
       </c>
       <c r="F199" t="n">
-        <v>0.066176098</v>
+        <v>0.086169356</v>
       </c>
       <c r="G199" t="n">
-        <v>13.281355826</v>
+        <v>10.213462537</v>
       </c>
     </row>
     <row r="200">
@@ -5029,22 +5029,22 @@
         <v>120</v>
       </c>
       <c r="B200" t="n">
-        <v>390.1723385586702</v>
+        <v>410.9611604607319</v>
       </c>
       <c r="C200" t="n">
-        <v>942.4452622190098</v>
+        <v>741.3006973684097</v>
       </c>
       <c r="D200" t="n">
         <v>115</v>
       </c>
       <c r="E200" t="n">
-        <v>3.945667584</v>
+        <v>4.15414728</v>
       </c>
       <c r="F200" t="n">
-        <v>0.06748367399999999</v>
+        <v>0.086096673</v>
       </c>
       <c r="G200" t="n">
-        <v>13.005744619</v>
+        <v>10.229949624</v>
       </c>
     </row>
     <row r="201">
@@ -5052,22 +5052,22 @@
         <v>120</v>
       </c>
       <c r="B201" t="n">
-        <v>391.6050458092218</v>
+        <v>402.8647036538617</v>
       </c>
       <c r="C201" t="n">
-        <v>945.9059077517433</v>
+        <v>738.4131712363347</v>
       </c>
       <c r="D201" t="n">
         <v>115</v>
       </c>
       <c r="E201" t="n">
-        <v>3.959989301</v>
+        <v>4.073196342</v>
       </c>
       <c r="F201" t="n">
-        <v>0.067253147</v>
+        <v>0.08631495</v>
       </c>
       <c r="G201" t="n">
-        <v>13.053501527</v>
+        <v>10.190101763</v>
       </c>
     </row>
     <row r="202">
@@ -5075,22 +5075,22 @@
         <v>120</v>
       </c>
       <c r="B202" t="n">
-        <v>393.8573790768575</v>
+        <v>385.5023869328138</v>
       </c>
       <c r="C202" t="n">
-        <v>951.3463262726024</v>
+        <v>721.1100340046385</v>
       </c>
       <c r="D202" t="n">
         <v>115</v>
       </c>
       <c r="E202" t="n">
-        <v>3.982504472</v>
+        <v>3.89965883</v>
       </c>
       <c r="F202" t="n">
-        <v>0.06689413</v>
+        <v>0.088126052</v>
       </c>
       <c r="G202" t="n">
-        <v>13.128579303</v>
+        <v>9.951318469</v>
       </c>
     </row>
     <row r="203">
@@ -5098,22 +5098,22 @@
         <v>120</v>
       </c>
       <c r="B203" t="n">
-        <v>447.0689496393051</v>
+        <v>404.4132083959937</v>
       </c>
       <c r="C203" t="n">
-        <v>1079.876689950012</v>
+        <v>739.2303618014005</v>
       </c>
       <c r="D203" t="n">
         <v>115</v>
       </c>
       <c r="E203" t="n">
-        <v>4.514507089</v>
+        <v>4.088677513</v>
       </c>
       <c r="F203" t="n">
-        <v>0.059464588</v>
+        <v>0.086242153</v>
       </c>
       <c r="G203" t="n">
-        <v>14.902298321</v>
+        <v>10.201378993</v>
       </c>
     </row>
     <row r="204">
@@ -5121,22 +5121,22 @@
         <v>120</v>
       </c>
       <c r="B204" t="n">
-        <v>396.1357705635362</v>
+        <v>406.4170324845576</v>
       </c>
       <c r="C204" t="n">
-        <v>956.8496873515365</v>
+        <v>740.105987105869</v>
       </c>
       <c r="D204" t="n">
         <v>115</v>
       </c>
       <c r="E204" t="n">
-        <v>4.005280446</v>
+        <v>4.108711617</v>
       </c>
       <c r="F204" t="n">
-        <v>0.06653511400000001</v>
+        <v>0.086169356</v>
       </c>
       <c r="G204" t="n">
-        <v>13.204525685</v>
+        <v>10.213462622</v>
       </c>
     </row>
     <row r="205">
@@ -5144,22 +5144,22 @@
         <v>120</v>
       </c>
       <c r="B205" t="n">
-        <v>398.4406751342627</v>
+        <v>406.4166539617737</v>
       </c>
       <c r="C205" t="n">
-        <v>962.4170896962866</v>
+        <v>740.1059396778924</v>
       </c>
       <c r="D205" t="n">
         <v>115</v>
       </c>
       <c r="E205" t="n">
-        <v>4.028321775</v>
+        <v>4.108707832</v>
       </c>
       <c r="F205" t="n">
-        <v>0.066176098</v>
+        <v>0.086169356</v>
       </c>
       <c r="G205" t="n">
-        <v>13.281355838</v>
+        <v>10.213461968</v>
       </c>
     </row>
     <row r="206">
@@ -5167,22 +5167,22 @@
         <v>120</v>
       </c>
       <c r="B206" t="n">
-        <v>395.3447579246946</v>
+        <v>410.9388071485391</v>
       </c>
       <c r="C206" t="n">
-        <v>954.9390288036099</v>
+        <v>741.2973141915664</v>
       </c>
       <c r="D206" t="n">
-        <v>115</v>
+        <v>114.9999593223719</v>
       </c>
       <c r="E206" t="n">
-        <v>3.997373041</v>
+        <v>4.153923765</v>
       </c>
       <c r="F206" t="n">
-        <v>0.066659289</v>
+        <v>0.08609677</v>
       </c>
       <c r="G206" t="n">
-        <v>13.178158597</v>
+        <v>10.229899317</v>
       </c>
     </row>
     <row r="207">
@@ -5190,22 +5190,22 @@
         <v>120</v>
       </c>
       <c r="B207" t="n">
-        <v>441.8965282791428</v>
+        <v>387.6087671016211</v>
       </c>
       <c r="C207" t="n">
-        <v>1067.382918548654</v>
+        <v>724.0179569764616</v>
       </c>
       <c r="D207" t="n">
         <v>115</v>
       </c>
       <c r="E207" t="n">
-        <v>4.46278792</v>
+        <v>3.920707748</v>
       </c>
       <c r="F207" t="n">
-        <v>0.060108266</v>
+        <v>0.08780353</v>
       </c>
       <c r="G207" t="n">
-        <v>14.729884276</v>
+        <v>9.991447806</v>
       </c>
     </row>
     <row r="208">
@@ -5213,22 +5213,22 @@
         <v>120</v>
       </c>
       <c r="B208" t="n">
-        <v>396.1357712999838</v>
+        <v>386.5341004663479</v>
       </c>
       <c r="C208" t="n">
-        <v>956.8496891303954</v>
+        <v>722.56399549055</v>
       </c>
       <c r="D208" t="n">
         <v>115</v>
       </c>
       <c r="E208" t="n">
-        <v>4.005280453</v>
+        <v>3.909968499</v>
       </c>
       <c r="F208" t="n">
-        <v>0.06653511400000001</v>
+        <v>0.08796414499999999</v>
       </c>
       <c r="G208" t="n">
-        <v>13.20452571</v>
+        <v>9.971383138</v>
       </c>
     </row>
     <row r="209">
@@ -5236,22 +5236,22 @@
         <v>120</v>
       </c>
       <c r="B209" t="n">
-        <v>398.4406758478597</v>
+        <v>388.7310152123158</v>
       </c>
       <c r="C209" t="n">
-        <v>962.4170914199508</v>
+        <v>725.4719184623731</v>
       </c>
       <c r="D209" t="n">
         <v>115</v>
       </c>
       <c r="E209" t="n">
-        <v>4.028321782</v>
+        <v>3.931922863</v>
       </c>
       <c r="F209" t="n">
-        <v>0.066176098</v>
+        <v>0.087644266</v>
       </c>
       <c r="G209" t="n">
-        <v>13.281355862</v>
+        <v>10.011512475</v>
       </c>
     </row>
     <row r="210">
@@ -5259,22 +5259,22 @@
         <v>120</v>
       </c>
       <c r="B210" t="n">
-        <v>400.517177290719</v>
+        <v>395.3357030607726</v>
       </c>
       <c r="C210" t="n">
-        <v>967.43279538821</v>
+        <v>732.7417258919307</v>
       </c>
       <c r="D210" t="n">
         <v>115</v>
       </c>
       <c r="E210" t="n">
-        <v>4.049080112</v>
+        <v>3.99793365</v>
       </c>
       <c r="F210" t="n">
-        <v>0.06585619600000001</v>
+        <v>0.086872066</v>
       </c>
       <c r="G210" t="n">
-        <v>13.350572576</v>
+        <v>10.111835817</v>
       </c>
     </row>
     <row r="211">
@@ -5282,22 +5282,22 @@
         <v>120</v>
       </c>
       <c r="B211" t="n">
-        <v>405.6895966567434</v>
+        <v>394.5754079397715</v>
       </c>
       <c r="C211" t="n">
-        <v>979.9265619728098</v>
+        <v>732.014745148975</v>
       </c>
       <c r="D211" t="n">
         <v>115</v>
       </c>
       <c r="E211" t="n">
-        <v>4.100788734</v>
+        <v>3.990334253</v>
       </c>
       <c r="F211" t="n">
-        <v>0.065073582</v>
+        <v>0.086947123</v>
       </c>
       <c r="G211" t="n">
-        <v>13.522986555</v>
+        <v>10.101803483</v>
       </c>
     </row>
     <row r="212">
@@ -5305,22 +5305,22 @@
         <v>120</v>
       </c>
       <c r="B212" t="n">
-        <v>410.8620160227679</v>
+        <v>400.7524274400715</v>
       </c>
       <c r="C212" t="n">
-        <v>992.4203285574101</v>
+        <v>737.1036103496654</v>
       </c>
       <c r="D212" t="n">
         <v>115</v>
       </c>
       <c r="E212" t="n">
-        <v>4.152498849</v>
+        <v>4.052079822</v>
       </c>
       <c r="F212" t="n">
-        <v>0.064310672</v>
+        <v>0.08643735399999999</v>
       </c>
       <c r="G212" t="n">
-        <v>13.695400534</v>
+        <v>10.172029823</v>
       </c>
     </row>
     <row r="213">
@@ -5328,22 +5328,22 @@
         <v>120</v>
       </c>
       <c r="B213" t="n">
-        <v>447.9633843777717</v>
+        <v>387.8337710960135</v>
       </c>
       <c r="C213" t="n">
-        <v>1082.037160332781</v>
+        <v>724.314855851892</v>
       </c>
       <c r="D213" t="n">
         <v>115</v>
       </c>
       <c r="E213" t="n">
-        <v>4.523450679</v>
+        <v>3.92295628</v>
       </c>
       <c r="F213" t="n">
-        <v>0.059354788</v>
+        <v>0.087770894</v>
       </c>
       <c r="G213" t="n">
-        <v>14.932112813</v>
+        <v>9.995545011000001</v>
       </c>
     </row>
     <row r="214">
@@ -5351,22 +5351,22 @@
         <v>120</v>
       </c>
       <c r="B214" t="n">
-        <v>403.1033869737313</v>
+        <v>388.8688565395994</v>
       </c>
       <c r="C214" t="n">
-        <v>973.6796786805101</v>
+        <v>725.64593453771</v>
       </c>
       <c r="D214" t="n">
         <v>115</v>
       </c>
       <c r="E214" t="n">
-        <v>4.074934233</v>
+        <v>3.933300398</v>
       </c>
       <c r="F214" t="n">
-        <v>0.065462379</v>
+        <v>0.0876253</v>
       </c>
       <c r="G214" t="n">
-        <v>13.436779566</v>
+        <v>10.013913897</v>
       </c>
     </row>
     <row r="215">
@@ -5374,22 +5374,22 @@
         <v>120</v>
       </c>
       <c r="B215" t="n">
-        <v>450.913095578069</v>
+        <v>395.0752196964019</v>
       </c>
       <c r="C215" t="n">
-        <v>1089.162066613693</v>
+        <v>732.4957714348142</v>
       </c>
       <c r="D215" t="n">
         <v>115</v>
       </c>
       <c r="E215" t="n">
-        <v>4.552945525</v>
+        <v>3.995330018</v>
       </c>
       <c r="F215" t="n">
-        <v>0.058995772</v>
+        <v>0.086897395</v>
       </c>
       <c r="G215" t="n">
-        <v>15.030436519</v>
+        <v>10.108441646</v>
       </c>
     </row>
     <row r="216">
@@ -5397,22 +5397,22 @@
         <v>120</v>
       </c>
       <c r="B216" t="n">
-        <v>459.9940547728336</v>
+        <v>395.8349601539261</v>
       </c>
       <c r="C216" t="n">
-        <v>1111.096750659019</v>
+        <v>733.2041636818595</v>
       </c>
       <c r="D216" t="n">
-        <v>115</v>
+        <v>114.9997539915485</v>
       </c>
       <c r="E216" t="n">
-        <v>4.643750331</v>
+        <v>4.00292398</v>
       </c>
       <c r="F216" t="n">
-        <v>0.057919413</v>
+        <v>0.086824815</v>
       </c>
       <c r="G216" t="n">
-        <v>15.333135159</v>
+        <v>10.118195814</v>
       </c>
     </row>
     <row r="217">
@@ -5420,22 +5420,22 @@
         <v>120</v>
       </c>
       <c r="B217" t="n">
-        <v>416.0344353887923</v>
+        <v>395.8365734405651</v>
       </c>
       <c r="C217" t="n">
-        <v>1004.91409514201</v>
+        <v>733.2051937050715</v>
       </c>
       <c r="D217" t="n">
         <v>115</v>
       </c>
       <c r="E217" t="n">
-        <v>4.204210402</v>
+        <v>4.002940095</v>
       </c>
       <c r="F217" t="n">
-        <v>0.063566732</v>
+        <v>0.086824531</v>
       </c>
       <c r="G217" t="n">
-        <v>13.867814513</v>
+        <v>10.118231673</v>
       </c>
     </row>
     <row r="218">
@@ -5443,22 +5443,22 @@
         <v>120</v>
       </c>
       <c r="B218" t="n">
-        <v>454.8275803372832</v>
+        <v>396.6308944311177</v>
       </c>
       <c r="C218" t="n">
-        <v>1098.617343809862</v>
+        <v>733.9209185949456</v>
       </c>
       <c r="D218" t="n">
-        <v>115</v>
+        <v>114.9996717416758</v>
       </c>
       <c r="E218" t="n">
-        <v>4.59208791</v>
+        <v>4.010879838</v>
       </c>
       <c r="F218" t="n">
-        <v>0.058526521</v>
+        <v>0.086751733</v>
       </c>
       <c r="G218" t="n">
-        <v>15.160919345</v>
+        <v>10.128086955</v>
       </c>
     </row>
     <row r="219">
@@ -5466,22 +5466,22 @@
         <v>120</v>
       </c>
       <c r="B219" t="n">
-        <v>413.4482257057801</v>
+        <v>401.5546496916446</v>
       </c>
       <c r="C219" t="n">
-        <v>998.6672118497102</v>
+        <v>737.6271616969603</v>
       </c>
       <c r="D219" t="n">
         <v>115</v>
       </c>
       <c r="E219" t="n">
-        <v>4.178354449</v>
+        <v>4.060099544</v>
       </c>
       <c r="F219" t="n">
-        <v>0.063936375</v>
+        <v>0.086387748</v>
       </c>
       <c r="G219" t="n">
-        <v>13.781607524</v>
+        <v>10.179254831</v>
       </c>
     </row>
     <row r="220">
@@ -5489,22 +5489,22 @@
         <v>120</v>
       </c>
       <c r="B220" t="n">
-        <v>428.9654838038534</v>
+        <v>402.8653842069202</v>
       </c>
       <c r="C220" t="n">
-        <v>1036.148511603511</v>
+        <v>738.4132564294952</v>
       </c>
       <c r="D220" t="n">
         <v>115</v>
       </c>
       <c r="E220" t="n">
-        <v>4.333495231</v>
+        <v>4.073203147</v>
       </c>
       <c r="F220" t="n">
-        <v>0.061785372</v>
+        <v>0.08631495</v>
       </c>
       <c r="G220" t="n">
-        <v>14.29884946</v>
+        <v>10.190102939</v>
       </c>
     </row>
     <row r="221">
@@ -5512,22 +5512,22 @@
         <v>120</v>
       </c>
       <c r="B221" t="n">
-        <v>417.8926331414573</v>
+        <v>389.3118998458023</v>
       </c>
       <c r="C221" t="n">
-        <v>1009.402495510766</v>
+        <v>726.1988992053289</v>
       </c>
       <c r="D221" t="n">
         <v>115</v>
       </c>
       <c r="E221" t="n">
-        <v>4.222788179</v>
+        <v>3.937728045</v>
       </c>
       <c r="F221" t="n">
-        <v>0.063303967</v>
+        <v>0.087565167</v>
       </c>
       <c r="G221" t="n">
-        <v>13.929754438</v>
+        <v>10.021544809</v>
       </c>
     </row>
     <row r="222">
@@ -5535,22 +5535,22 @@
         <v>120</v>
       </c>
       <c r="B222" t="n">
-        <v>420.4584900320376</v>
+        <v>404.4129039833138</v>
       </c>
       <c r="C222" t="n">
-        <v>1015.60021746869</v>
+        <v>739.2303236991925</v>
       </c>
       <c r="D222" t="n">
         <v>115</v>
       </c>
       <c r="E222" t="n">
-        <v>4.248441237</v>
+        <v>4.088674469</v>
       </c>
       <c r="F222" t="n">
-        <v>0.062944951</v>
+        <v>0.086242153</v>
       </c>
       <c r="G222" t="n">
-        <v>14.015283001</v>
+        <v>10.201378467</v>
       </c>
     </row>
     <row r="223">
@@ -5558,22 +5558,22 @@
         <v>120</v>
       </c>
       <c r="B223" t="n">
-        <v>423.0560499296048</v>
+        <v>412.3094869302484</v>
       </c>
       <c r="C223" t="n">
-        <v>1021.874516738176</v>
+        <v>741.4654950591469</v>
       </c>
       <c r="D223" t="n">
-        <v>115</v>
+        <v>114.9995367439062</v>
       </c>
       <c r="E223" t="n">
-        <v>4.274411593</v>
+        <v>4.167629773</v>
       </c>
       <c r="F223" t="n">
-        <v>0.062585935</v>
+        <v>0.086097172</v>
       </c>
       <c r="G223" t="n">
-        <v>14.101868331</v>
+        <v>10.232223832</v>
       </c>
     </row>
     <row r="224">
@@ -5581,22 +5581,22 @@
         <v>120</v>
       </c>
       <c r="B224" t="n">
-        <v>425.6859040714346</v>
+        <v>393.1360951514546</v>
       </c>
       <c r="C224" t="n">
-        <v>1028.226821428586</v>
+        <v>730.5607836630636</v>
       </c>
       <c r="D224" t="n">
         <v>115</v>
       </c>
       <c r="E224" t="n">
-        <v>4.300705164</v>
+        <v>3.97594827</v>
       </c>
       <c r="F224" t="n">
-        <v>0.062226918</v>
+        <v>0.087098887</v>
       </c>
       <c r="G224" t="n">
-        <v>14.189530136</v>
+        <v>10.081738815</v>
       </c>
     </row>
     <row r="225">
@@ -5604,22 +5604,22 @@
         <v>120</v>
       </c>
       <c r="B225" t="n">
-        <v>428.3486584879904</v>
+        <v>390.5173177470891</v>
       </c>
       <c r="C225" t="n">
-        <v>1034.658595381619</v>
+        <v>727.6528606912404</v>
       </c>
       <c r="D225" t="n">
         <v>115</v>
       </c>
       <c r="E225" t="n">
-        <v>4.327328016</v>
+        <v>3.949774932</v>
       </c>
       <c r="F225" t="n">
-        <v>0.061867902</v>
+        <v>0.08740809099999999</v>
       </c>
       <c r="G225" t="n">
-        <v>14.278288616</v>
+        <v>10.041609478</v>
       </c>
     </row>
     <row r="226">
@@ -5627,22 +5627,22 @@
         <v>120</v>
       </c>
       <c r="B226" t="n">
-        <v>426.3792741208412</v>
+        <v>403.1226690139189</v>
       </c>
       <c r="C226" t="n">
-        <v>1029.901628311211</v>
+        <v>738.5575718355769</v>
       </c>
       <c r="D226" t="n">
         <v>115</v>
       </c>
       <c r="E226" t="n">
-        <v>4.30763761</v>
+        <v>4.075775309</v>
       </c>
       <c r="F226" t="n">
-        <v>0.062133</v>
+        <v>0.086301846</v>
       </c>
       <c r="G226" t="n">
-        <v>14.212642471</v>
+        <v>10.192094491</v>
       </c>
     </row>
     <row r="227">
@@ -5650,22 +5650,22 @@
         <v>120</v>
       </c>
       <c r="B227" t="n">
-        <v>444.4827390543338</v>
+        <v>389.4064461090936</v>
       </c>
       <c r="C227" t="n">
-        <v>1073.629804479067</v>
+        <v>726.3156062181066</v>
       </c>
       <c r="D227" t="n">
         <v>115</v>
       </c>
       <c r="E227" t="n">
-        <v>4.488647364</v>
+        <v>3.93867292</v>
       </c>
       <c r="F227" t="n">
-        <v>0.059784554</v>
+        <v>0.087552502</v>
       </c>
       <c r="G227" t="n">
-        <v>14.816091302</v>
+        <v>10.023155366</v>
       </c>
     </row>
     <row r="228">
@@ -5673,22 +5673,22 @@
         <v>120</v>
       </c>
       <c r="B228" t="n">
-        <v>459.9976223097555</v>
+        <v>390.5266756710363</v>
       </c>
       <c r="C228" t="n">
-        <v>1111.105938700203</v>
+        <v>727.6638617151414</v>
       </c>
       <c r="D228" t="n">
-        <v>114.9999408883687</v>
+        <v>115</v>
       </c>
       <c r="E228" t="n">
-        <v>4.643786007</v>
+        <v>3.949868456</v>
       </c>
       <c r="F228" t="n">
-        <v>0.057918999</v>
+        <v>0.08740690800000001</v>
       </c>
       <c r="G228" t="n">
-        <v>15.333254073</v>
+        <v>10.041761292</v>
       </c>
     </row>
     <row r="229">
@@ -5696,22 +5696,22 @@
         <v>120</v>
       </c>
       <c r="B229" t="n">
-        <v>428.348659270075</v>
+        <v>391.111628646916</v>
       </c>
       <c r="C229" t="n">
-        <v>1034.658597270712</v>
+        <v>728.3427460662402</v>
       </c>
       <c r="D229" t="n">
         <v>115</v>
       </c>
       <c r="E229" t="n">
-        <v>4.327328024</v>
+        <v>3.955714598</v>
       </c>
       <c r="F229" t="n">
-        <v>0.061867902</v>
+        <v>0.08733411100000001</v>
       </c>
       <c r="G229" t="n">
-        <v>14.278288642</v>
+        <v>10.051129896</v>
       </c>
     </row>
     <row r="230">
@@ -5719,22 +5719,22 @@
         <v>120</v>
       </c>
       <c r="B230" t="n">
-        <v>436.7241128528901</v>
+        <v>399.7109806609357</v>
       </c>
       <c r="C230" t="n">
-        <v>1054.889161480411</v>
+        <v>736.3766303405866</v>
       </c>
       <c r="D230" t="n">
         <v>115</v>
       </c>
       <c r="E230" t="n">
-        <v>4.411069965</v>
+        <v>4.041668836</v>
       </c>
       <c r="F230" t="n">
-        <v>0.06076719</v>
+        <v>0.086507415</v>
       </c>
       <c r="G230" t="n">
-        <v>14.557470428</v>
+        <v>10.161997493</v>
       </c>
     </row>
     <row r="231">
@@ -5742,22 +5742,22 @@
         <v>120</v>
       </c>
       <c r="B231" t="n">
-        <v>452.2413702727058</v>
+        <v>393.6529805899877</v>
       </c>
       <c r="C231" t="n">
-        <v>1092.370459595908</v>
+        <v>731.0946398418007</v>
       </c>
       <c r="D231" t="n">
         <v>115</v>
       </c>
       <c r="E231" t="n">
-        <v>4.566227367</v>
+        <v>3.981114495</v>
       </c>
       <c r="F231" t="n">
-        <v>0.058835633</v>
+        <v>0.08704292199999999</v>
       </c>
       <c r="G231" t="n">
-        <v>15.074712342</v>
+        <v>10.08910603</v>
       </c>
     </row>
     <row r="232">
@@ -5765,22 +5765,22 @@
         <v>120</v>
       </c>
       <c r="B232" t="n">
-        <v>397.9309676077068</v>
+        <v>400.396940344291</v>
       </c>
       <c r="C232" t="n">
-        <v>961.1859120959099</v>
+        <v>736.8615009425971</v>
       </c>
       <c r="D232" t="n">
         <v>115</v>
       </c>
       <c r="E232" t="n">
-        <v>4.023226379</v>
+        <v>4.048526109</v>
       </c>
       <c r="F232" t="n">
-        <v>0.06625513299999999</v>
+        <v>0.086460545</v>
       </c>
       <c r="G232" t="n">
-        <v>13.264365587</v>
+        <v>10.168688713</v>
       </c>
     </row>
     <row r="233">
@@ -5788,22 +5788,22 @@
         <v>120</v>
       </c>
       <c r="B233" t="n">
-        <v>398.4406752338759</v>
+        <v>401.5544895703588</v>
       </c>
       <c r="C233" t="n">
-        <v>962.4170899368982</v>
+        <v>737.6271412948115</v>
       </c>
       <c r="D233" t="n">
         <v>115</v>
       </c>
       <c r="E233" t="n">
-        <v>4.028321776</v>
+        <v>4.060097943</v>
       </c>
       <c r="F233" t="n">
-        <v>0.066176098</v>
+        <v>0.086387748</v>
       </c>
       <c r="G233" t="n">
-        <v>13.281355841</v>
+        <v>10.17925455</v>
       </c>
     </row>
     <row r="234">
@@ -5811,22 +5811,22 @@
         <v>120</v>
       </c>
       <c r="B234" t="n">
-        <v>408.2758063397557</v>
+        <v>402.8645930137093</v>
       </c>
       <c r="C234" t="n">
-        <v>986.1734452651101</v>
+        <v>738.4129832750688</v>
       </c>
       <c r="D234" t="n">
-        <v>115</v>
+        <v>114.9999136379353</v>
       </c>
       <c r="E234" t="n">
-        <v>4.126643609</v>
+        <v>4.073195241</v>
       </c>
       <c r="F234" t="n">
-        <v>0.064689711</v>
+        <v>0.086315036</v>
       </c>
       <c r="G234" t="n">
-        <v>13.609193545</v>
+        <v>10.190091517</v>
       </c>
     </row>
     <row r="235">
@@ -5834,22 +5834,22 @@
         <v>120</v>
       </c>
       <c r="B235" t="n">
-        <v>423.793064437829</v>
+        <v>391.7883501535704</v>
       </c>
       <c r="C235" t="n">
-        <v>1023.65474501891</v>
+        <v>729.106822177152</v>
       </c>
       <c r="D235" t="n">
         <v>115</v>
       </c>
       <c r="E235" t="n">
-        <v>4.281780311</v>
+        <v>3.962478013</v>
       </c>
       <c r="F235" t="n">
-        <v>0.062484871</v>
+        <v>0.08725261300000001</v>
       </c>
       <c r="G235" t="n">
-        <v>14.126435481</v>
+        <v>10.061674146</v>
       </c>
     </row>
     <row r="236">
@@ -5857,22 +5857,22 @@
         <v>120</v>
       </c>
       <c r="B236" t="n">
-        <v>453.9019098112544</v>
+        <v>404.41241869475</v>
       </c>
       <c r="C236" t="n">
-        <v>1096.381424664866</v>
+        <v>739.2302628943453</v>
       </c>
       <c r="D236" t="n">
         <v>115</v>
       </c>
       <c r="E236" t="n">
-        <v>4.582831732</v>
+        <v>4.088669616</v>
       </c>
       <c r="F236" t="n">
-        <v>0.058636755</v>
+        <v>0.086242153</v>
       </c>
       <c r="G236" t="n">
-        <v>15.13006366</v>
+        <v>10.201377628</v>
       </c>
     </row>
     <row r="237">
@@ -5880,22 +5880,22 @@
         <v>120</v>
       </c>
       <c r="B237" t="n">
-        <v>456.9306099784139</v>
+        <v>406.4152861886076</v>
       </c>
       <c r="C237" t="n">
-        <v>1103.697125551724</v>
+        <v>740.1057178385799</v>
       </c>
       <c r="D237" t="n">
-        <v>115</v>
+        <v>114.9999639314508</v>
       </c>
       <c r="E237" t="n">
-        <v>4.613117135</v>
+        <v>4.108694157</v>
       </c>
       <c r="F237" t="n">
-        <v>0.058277739</v>
+        <v>0.086169389</v>
       </c>
       <c r="G237" t="n">
-        <v>15.231020333</v>
+        <v>10.213455703</v>
       </c>
     </row>
     <row r="238">
@@ -5903,22 +5903,22 @@
         <v>120</v>
       </c>
       <c r="B238" t="n">
-        <v>459.9964332641972</v>
+        <v>396.1272767508523</v>
       </c>
       <c r="C238" t="n">
-        <v>1111.103066601352</v>
+        <v>733.4687066348865</v>
       </c>
       <c r="D238" t="n">
-        <v>114.9999408890534</v>
+        <v>115</v>
       </c>
       <c r="E238" t="n">
-        <v>4.643774117</v>
+        <v>4.005845845</v>
       </c>
       <c r="F238" t="n">
-        <v>0.057919137</v>
+        <v>0.08679761800000001</v>
       </c>
       <c r="G238" t="n">
-        <v>15.333214438</v>
+        <v>10.121868152</v>
       </c>
     </row>
     <row r="239">
@@ -5926,22 +5926,22 @@
         <v>120</v>
       </c>
       <c r="B239" t="n">
-        <v>460</v>
+        <v>410.9336789241364</v>
       </c>
       <c r="C239" t="n">
-        <v>1111.111111111111</v>
+        <v>741.2957914535276</v>
       </c>
       <c r="D239" t="n">
         <v>115</v>
       </c>
       <c r="E239" t="n">
-        <v>4.643809782</v>
+        <v>4.153872488</v>
       </c>
       <c r="F239" t="n">
-        <v>0.057918723</v>
+        <v>0.08609684200000001</v>
       </c>
       <c r="G239" t="n">
-        <v>15.333333333</v>
+        <v>10.229881922</v>
       </c>
     </row>
     <row r="240">
@@ -5949,22 +5949,22 @@
         <v>120</v>
       </c>
       <c r="B240" t="n">
-        <v>425.6859047035728</v>
+        <v>398.7385244745089</v>
       </c>
       <c r="C240" t="n">
-        <v>1028.22682295549</v>
+        <v>735.6496496402655</v>
       </c>
       <c r="D240" t="n">
         <v>115</v>
       </c>
       <c r="E240" t="n">
-        <v>4.30070517</v>
+        <v>4.031947769</v>
       </c>
       <c r="F240" t="n">
-        <v>0.062226918</v>
+        <v>0.086578628</v>
       </c>
       <c r="G240" t="n">
-        <v>14.189530157</v>
+        <v>10.151965159</v>
       </c>
     </row>
     <row r="241">
@@ -5972,22 +5972,22 @@
         <v>120</v>
       </c>
       <c r="B241" t="n">
-        <v>428.3486590747815</v>
+        <v>392.3383099374092</v>
       </c>
       <c r="C241" t="n">
-        <v>1034.658596798989</v>
+        <v>729.7109468629294</v>
       </c>
       <c r="D241" t="n">
         <v>115</v>
       </c>
       <c r="E241" t="n">
-        <v>4.327328022</v>
+        <v>3.967974616</v>
       </c>
       <c r="F241" t="n">
-        <v>0.061867902</v>
+        <v>0.08718851699999999</v>
       </c>
       <c r="G241" t="n">
-        <v>14.278288636</v>
+        <v>10.070011067</v>
       </c>
     </row>
     <row r="242">
@@ -5995,22 +5995,22 @@
         <v>120</v>
       </c>
       <c r="B242" t="n">
-        <v>439.3103225359023</v>
+        <v>397.4819526505563</v>
       </c>
       <c r="C242" t="n">
-        <v>1061.136044772711</v>
+        <v>734.6417626384044</v>
       </c>
       <c r="D242" t="n">
         <v>115</v>
       </c>
       <c r="E242" t="n">
-        <v>4.436928815</v>
+        <v>4.019386914</v>
       </c>
       <c r="F242" t="n">
-        <v>0.060435788</v>
+        <v>0.086678936</v>
       </c>
       <c r="G242" t="n">
-        <v>14.643677418</v>
+        <v>10.138056324</v>
       </c>
     </row>
     <row r="243">
@@ -6018,22 +6018,22 @@
         <v>120</v>
       </c>
       <c r="B243" t="n">
-        <v>449.6551600426786</v>
+        <v>399.3479935905828</v>
       </c>
       <c r="C243" t="n">
-        <v>1086.123574982315</v>
+        <v>736.1106998886039</v>
       </c>
       <c r="D243" t="n">
         <v>115</v>
       </c>
       <c r="E243" t="n">
-        <v>4.540367092</v>
+        <v>4.038040242</v>
       </c>
       <c r="F243" t="n">
-        <v>0.059148302</v>
+        <v>0.086533342</v>
       </c>
       <c r="G243" t="n">
-        <v>14.988505335</v>
+        <v>10.158327658</v>
       </c>
     </row>
     <row r="244">
@@ -6041,22 +6041,22 @@
         <v>120</v>
       </c>
       <c r="B244" t="n">
-        <v>450.9130956368081</v>
+        <v>400.3968115691072</v>
       </c>
       <c r="C244" t="n">
-        <v>1089.162066755575</v>
+        <v>736.8615031640481</v>
       </c>
       <c r="D244" t="n">
-        <v>115</v>
+        <v>114.9999971634186</v>
       </c>
       <c r="E244" t="n">
-        <v>4.552945526</v>
+        <v>4.048524822</v>
       </c>
       <c r="F244" t="n">
-        <v>0.058995771</v>
+        <v>0.086460545</v>
       </c>
       <c r="G244" t="n">
-        <v>15.030436521</v>
+        <v>10.168688493</v>
       </c>
     </row>
     <row r="245">
@@ -6064,22 +6064,22 @@
         <v>120</v>
       </c>
       <c r="B245" t="n">
-        <v>459.9952442187328</v>
+        <v>401.5549335397903</v>
       </c>
       <c r="C245" t="n">
-        <v>1111.100194508549</v>
+        <v>737.6271971445065</v>
       </c>
       <c r="D245" t="n">
-        <v>114.9999408891512</v>
+        <v>115</v>
       </c>
       <c r="E245" t="n">
-        <v>4.643762227</v>
+        <v>4.060102383</v>
       </c>
       <c r="F245" t="n">
-        <v>0.057919275</v>
+        <v>0.086387748</v>
       </c>
       <c r="G245" t="n">
-        <v>15.333174803</v>
+        <v>10.179255321</v>
       </c>
     </row>
     <row r="246">
@@ -6087,22 +6087,22 @@
         <v>120</v>
       </c>
       <c r="B246" t="n">
-        <v>457.4137903169878</v>
+        <v>397.8222286632302</v>
       </c>
       <c r="C246" t="n">
-        <v>1104.864227818811</v>
+        <v>734.9226681207981</v>
       </c>
       <c r="D246" t="n">
         <v>115</v>
       </c>
       <c r="E246" t="n">
-        <v>4.617948714</v>
+        <v>4.022788316</v>
       </c>
       <c r="F246" t="n">
-        <v>0.058220857</v>
+        <v>0.086650806</v>
       </c>
       <c r="G246" t="n">
-        <v>15.247126344</v>
+        <v>10.14193282</v>
       </c>
     </row>
     <row r="247">
@@ -6110,22 +6110,137 @@
         <v>120</v>
       </c>
       <c r="B247" t="n">
-        <v>459.9988113563048</v>
+        <v>406.1746828106319</v>
       </c>
       <c r="C247" t="n">
-        <v>1111.108810815711</v>
+        <v>740.0115333214886</v>
       </c>
       <c r="D247" t="n">
-        <v>114.9999408862349</v>
+        <v>115</v>
       </c>
       <c r="E247" t="n">
-        <v>4.643797898</v>
+        <v>4.106288566</v>
       </c>
       <c r="F247" t="n">
-        <v>0.057918861</v>
+        <v>0.086176818</v>
       </c>
       <c r="G247" t="n">
-        <v>15.333293707</v>
+        <v>10.21215916</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>120</v>
+      </c>
+      <c r="B248" t="n">
+        <v>399.347841026393</v>
+      </c>
+      <c r="C248" t="n">
+        <v>736.1106809053986</v>
+      </c>
+      <c r="D248" t="n">
+        <v>115</v>
+      </c>
+      <c r="E248" t="n">
+        <v>4.038038717</v>
+      </c>
+      <c r="F248" t="n">
+        <v>0.086533342</v>
+      </c>
+      <c r="G248" t="n">
+        <v>10.158327396</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>120</v>
+      </c>
+      <c r="B249" t="n">
+        <v>408.3055241295307</v>
+      </c>
+      <c r="C249" t="n">
+        <v>740.7385140644444</v>
+      </c>
+      <c r="D249" t="n">
+        <v>115</v>
+      </c>
+      <c r="E249" t="n">
+        <v>4.127593556</v>
+      </c>
+      <c r="F249" t="n">
+        <v>0.086123304</v>
+      </c>
+      <c r="G249" t="n">
+        <v>10.222191494</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>120</v>
+      </c>
+      <c r="B250" t="n">
+        <v>406.4150237734718</v>
+      </c>
+      <c r="C250" t="n">
+        <v>740.1048705362531</v>
+      </c>
+      <c r="D250" t="n">
+        <v>115</v>
+      </c>
+      <c r="E250" t="n">
+        <v>4.108691535</v>
+      </c>
+      <c r="F250" t="n">
+        <v>0.086169457</v>
+      </c>
+      <c r="G250" t="n">
+        <v>10.213447213</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>120</v>
+      </c>
+      <c r="B251" t="n">
+        <v>411.1152749200828</v>
+      </c>
+      <c r="C251" t="n">
+        <v>741.3207988605367</v>
+      </c>
+      <c r="D251" t="n">
+        <v>115</v>
+      </c>
+      <c r="E251" t="n">
+        <v>4.15568833</v>
+      </c>
+      <c r="F251" t="n">
+        <v>0.086096583</v>
+      </c>
+      <c r="G251" t="n">
+        <v>10.230227024</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>120</v>
+      </c>
+      <c r="B252" t="n">
+        <v>410.8707194644439</v>
+      </c>
+      <c r="C252" t="n">
+        <v>741.2850791785679</v>
+      </c>
+      <c r="D252" t="n">
+        <v>115</v>
+      </c>
+      <c r="E252" t="n">
+        <v>4.153242943</v>
+      </c>
+      <c r="F252" t="n">
+        <v>0.086097169</v>
+      </c>
+      <c r="G252" t="n">
+        <v>10.229734093</v>
       </c>
     </row>
   </sheetData>

--- a/raw_pareto_results.xlsx
+++ b/raw_pareto_results.xlsx
@@ -728,22 +728,22 @@
         <v>100</v>
       </c>
       <c r="B13" t="n">
-        <v>389.9403818661111</v>
+        <v>389.0856563739457</v>
       </c>
       <c r="C13" t="n">
-        <v>945.2132024357604</v>
+        <v>944.3884024437281</v>
       </c>
       <c r="D13" t="n">
-        <v>115</v>
+        <v>114.9999613576646</v>
       </c>
       <c r="E13" t="n">
-        <v>3.933350592</v>
+        <v>3.924806266</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08073950100000001</v>
+        <v>0.080798315</v>
       </c>
       <c r="G13" t="n">
-        <v>10.869951828</v>
+        <v>10.860462979</v>
       </c>
     </row>
     <row r="14">
@@ -751,22 +751,22 @@
         <v>100</v>
       </c>
       <c r="B14" t="n">
-        <v>392.7549584318353</v>
+        <v>389.9403818661111</v>
       </c>
       <c r="C14" t="n">
-        <v>947.7573602595907</v>
+        <v>945.2132024357604</v>
       </c>
       <c r="D14" t="n">
         <v>115</v>
       </c>
       <c r="E14" t="n">
-        <v>3.961487384</v>
+        <v>3.933350592</v>
       </c>
       <c r="F14" t="n">
-        <v>0.08056125</v>
+        <v>0.08073950100000001</v>
       </c>
       <c r="G14" t="n">
-        <v>10.899209643</v>
+        <v>10.869951828</v>
       </c>
     </row>
     <row r="15">
@@ -774,22 +774,22 @@
         <v>100</v>
       </c>
       <c r="B15" t="n">
-        <v>389.0856563739455</v>
+        <v>392.7549584318353</v>
       </c>
       <c r="C15" t="n">
-        <v>944.3884024437281</v>
+        <v>947.7573602595907</v>
       </c>
       <c r="D15" t="n">
-        <v>114.9999613576649</v>
+        <v>115</v>
       </c>
       <c r="E15" t="n">
-        <v>3.924806266</v>
+        <v>3.961487384</v>
       </c>
       <c r="F15" t="n">
-        <v>0.080798315</v>
+        <v>0.08056125</v>
       </c>
       <c r="G15" t="n">
-        <v>10.860462979</v>
+        <v>10.899209643</v>
       </c>
     </row>
     <row r="16">
@@ -1119,13 +1119,13 @@
         <v>100</v>
       </c>
       <c r="B30" t="n">
-        <v>422.5435145780292</v>
+        <v>422.543514578065</v>
       </c>
       <c r="C30" t="n">
         <v>1150</v>
       </c>
       <c r="D30" t="n">
-        <v>96.27083953937722</v>
+        <v>96.270839539378</v>
       </c>
       <c r="E30" t="n">
         <v>4.259790074</v>
@@ -1303,22 +1303,22 @@
         <v>120</v>
       </c>
       <c r="B38" t="n">
-        <v>386.6513509361477</v>
+        <v>386.475681509468</v>
       </c>
       <c r="C38" t="n">
-        <v>722.7255467667624</v>
+        <v>722.4832056079632</v>
       </c>
       <c r="D38" t="n">
         <v>115</v>
       </c>
       <c r="E38" t="n">
-        <v>3.911140177</v>
+        <v>3.909384723</v>
       </c>
       <c r="F38" t="n">
-        <v>0.087946235</v>
+        <v>0.08797310799999999</v>
       </c>
       <c r="G38" t="n">
-        <v>9.973612545</v>
+        <v>9.970268237000001</v>
       </c>
     </row>
     <row r="39">
@@ -1349,22 +1349,22 @@
         <v>120</v>
       </c>
       <c r="B40" t="n">
-        <v>386.475681509468</v>
+        <v>392.3770811038666</v>
       </c>
       <c r="C40" t="n">
-        <v>722.4832056079632</v>
+        <v>729.7530272820015</v>
       </c>
       <c r="D40" t="n">
         <v>115</v>
       </c>
       <c r="E40" t="n">
-        <v>3.909384723</v>
+        <v>3.96836212</v>
       </c>
       <c r="F40" t="n">
-        <v>0.08797310799999999</v>
+        <v>0.08718406300000001</v>
       </c>
       <c r="G40" t="n">
-        <v>9.970268237000001</v>
+        <v>10.070591776</v>
       </c>
     </row>
     <row r="41">
@@ -1372,22 +1372,22 @@
         <v>120</v>
       </c>
       <c r="B41" t="n">
-        <v>390.3121129264819</v>
+        <v>386.6513509361477</v>
       </c>
       <c r="C41" t="n">
-        <v>727.4105337769219</v>
+        <v>722.7255467667624</v>
       </c>
       <c r="D41" t="n">
         <v>115</v>
       </c>
       <c r="E41" t="n">
-        <v>3.947724095</v>
+        <v>3.911140177</v>
       </c>
       <c r="F41" t="n">
-        <v>0.087434163</v>
+        <v>0.087946235</v>
       </c>
       <c r="G41" t="n">
-        <v>10.038265366</v>
+        <v>9.973612545</v>
       </c>
     </row>
     <row r="42">
@@ -1395,22 +1395,22 @@
         <v>120</v>
       </c>
       <c r="B42" t="n">
-        <v>392.3770811038666</v>
+        <v>390.3121129264819</v>
       </c>
       <c r="C42" t="n">
-        <v>729.7530272820015</v>
+        <v>727.4105337769219</v>
       </c>
       <c r="D42" t="n">
         <v>115</v>
       </c>
       <c r="E42" t="n">
-        <v>3.96836212</v>
+        <v>3.947724095</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08718406300000001</v>
+        <v>0.087434163</v>
       </c>
       <c r="G42" t="n">
-        <v>10.070591776</v>
+        <v>10.038265366</v>
       </c>
     </row>
     <row r="43">
@@ -1418,22 +1418,22 @@
         <v>120</v>
       </c>
       <c r="B43" t="n">
-        <v>394.6584350563652</v>
+        <v>388.0594569336612</v>
       </c>
       <c r="C43" t="n">
-        <v>732.0955207870812</v>
+        <v>724.6097358305752</v>
       </c>
       <c r="D43" t="n">
         <v>115</v>
       </c>
       <c r="E43" t="n">
-        <v>3.991164129</v>
+        <v>3.925211642</v>
       </c>
       <c r="F43" t="n">
-        <v>0.08693875500000001</v>
+        <v>0.08773854</v>
       </c>
       <c r="G43" t="n">
-        <v>10.102918187</v>
+        <v>9.999614354</v>
       </c>
     </row>
     <row r="44">
@@ -1487,22 +1487,22 @@
         <v>120</v>
       </c>
       <c r="B46" t="n">
-        <v>388.0594569336612</v>
+        <v>394.6584350563652</v>
       </c>
       <c r="C46" t="n">
-        <v>724.6097358305752</v>
+        <v>732.0955207870812</v>
       </c>
       <c r="D46" t="n">
         <v>115</v>
       </c>
       <c r="E46" t="n">
-        <v>3.925211642</v>
+        <v>3.991164129</v>
       </c>
       <c r="F46" t="n">
-        <v>0.08773854</v>
+        <v>0.08693875500000001</v>
       </c>
       <c r="G46" t="n">
-        <v>9.999614354</v>
+        <v>10.102918187</v>
       </c>
     </row>
     <row r="47">
@@ -1579,22 +1579,22 @@
         <v>120</v>
       </c>
       <c r="B50" t="n">
-        <v>400.2800744207332</v>
+        <v>396.098118728138</v>
       </c>
       <c r="C50" t="n">
-        <v>736.7805085019211</v>
+        <v>733.4424811562474</v>
       </c>
       <c r="D50" t="n">
-        <v>115</v>
+        <v>114.9999363836711</v>
       </c>
       <c r="E50" t="n">
-        <v>4.047357838</v>
+        <v>4.005554396</v>
       </c>
       <c r="F50" t="n">
-        <v>0.08646833600000001</v>
+        <v>0.08680034</v>
       </c>
       <c r="G50" t="n">
-        <v>10.167571011</v>
+        <v>10.121500641</v>
       </c>
     </row>
     <row r="51">
@@ -1602,22 +1602,22 @@
         <v>120</v>
       </c>
       <c r="B51" t="n">
-        <v>396.098118728138</v>
+        <v>400.2800744207332</v>
       </c>
       <c r="C51" t="n">
-        <v>733.4424811562474</v>
+        <v>736.7805085019211</v>
       </c>
       <c r="D51" t="n">
-        <v>114.9999363836711</v>
+        <v>115</v>
       </c>
       <c r="E51" t="n">
-        <v>4.005554396</v>
+        <v>4.047357838</v>
       </c>
       <c r="F51" t="n">
-        <v>0.08680034</v>
+        <v>0.08646833600000001</v>
       </c>
       <c r="G51" t="n">
-        <v>10.121500641</v>
+        <v>10.167571011</v>
       </c>
     </row>
     <row r="52">
@@ -1648,22 +1648,22 @@
         <v>120</v>
       </c>
       <c r="B53" t="n">
-        <v>396.0983432153008</v>
+        <v>402.5576367544073</v>
       </c>
       <c r="C53" t="n">
-        <v>733.4426800770127</v>
+        <v>738.2363938364358</v>
       </c>
       <c r="D53" t="n">
-        <v>114.9999382043265</v>
+        <v>115</v>
       </c>
       <c r="E53" t="n">
-        <v>4.00555664</v>
+        <v>4.070126513</v>
       </c>
       <c r="F53" t="n">
-        <v>0.086800318</v>
+        <v>0.08633112799999999</v>
       </c>
       <c r="G53" t="n">
-        <v>10.121503546</v>
+        <v>10.187662235</v>
       </c>
     </row>
     <row r="54">
@@ -1671,22 +1671,22 @@
         <v>120</v>
       </c>
       <c r="B54" t="n">
-        <v>402.5576367544103</v>
+        <v>396.0983432153008</v>
       </c>
       <c r="C54" t="n">
-        <v>738.2363938364364</v>
+        <v>733.4426800770127</v>
       </c>
       <c r="D54" t="n">
-        <v>115</v>
+        <v>114.9999382043265</v>
       </c>
       <c r="E54" t="n">
-        <v>4.070126513</v>
+        <v>4.00555664</v>
       </c>
       <c r="F54" t="n">
-        <v>0.08633112799999999</v>
+        <v>0.086800318</v>
       </c>
       <c r="G54" t="n">
-        <v>10.187662235</v>
+        <v>10.121503546</v>
       </c>
     </row>
     <row r="55">
@@ -1694,22 +1694,22 @@
         <v>120</v>
       </c>
       <c r="B55" t="n">
-        <v>398.9093746308118</v>
+        <v>410.9611604607347</v>
       </c>
       <c r="C55" t="n">
-        <v>735.7808558527971</v>
+        <v>741.3006973684101</v>
       </c>
       <c r="D55" t="n">
         <v>115</v>
       </c>
       <c r="E55" t="n">
-        <v>4.033655639</v>
+        <v>4.15414728</v>
       </c>
       <c r="F55" t="n">
-        <v>0.086565696</v>
+        <v>0.086096673</v>
       </c>
       <c r="G55" t="n">
-        <v>10.153775811</v>
+        <v>10.229949624</v>
       </c>
     </row>
     <row r="56">
@@ -1717,22 +1717,22 @@
         <v>120</v>
       </c>
       <c r="B56" t="n">
-        <v>410.9611604607229</v>
+        <v>398.9093746308118</v>
       </c>
       <c r="C56" t="n">
-        <v>741.3006973684087</v>
+        <v>735.7808558527971</v>
       </c>
       <c r="D56" t="n">
         <v>115</v>
       </c>
       <c r="E56" t="n">
-        <v>4.15414728</v>
+        <v>4.033655639</v>
       </c>
       <c r="F56" t="n">
-        <v>0.086096673</v>
+        <v>0.086565696</v>
       </c>
       <c r="G56" t="n">
-        <v>10.229949624</v>
+        <v>10.153775811</v>
       </c>
     </row>
     <row r="57">
